--- a/data/mcdonalds_prices_new.xlsx
+++ b/data/mcdonalds_prices_new.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Github/would_you_like_some_fries_with_that/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A2AD9D-4A1A-974E-BFA0-F22E57B252C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516062F9-3343-5342-B6DC-FB39C3588E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$641</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -646,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D641"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
+      <selection activeCell="C509" sqref="C509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1981,7 +1984,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -1991,8 +1994,11 @@
       <c r="C97" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -2002,8 +2008,11 @@
       <c r="C98" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>35</v>
       </c>
@@ -2013,8 +2022,11 @@
       <c r="C99" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -2024,8 +2036,11 @@
       <c r="C100" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -2035,8 +2050,11 @@
       <c r="C101" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>35</v>
       </c>
@@ -2046,8 +2064,11 @@
       <c r="C102" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>35</v>
       </c>
@@ -2057,8 +2078,11 @@
       <c r="C103" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -2068,8 +2092,11 @@
       <c r="C104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -2079,8 +2106,11 @@
       <c r="C105" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>35</v>
       </c>
@@ -2090,8 +2120,11 @@
       <c r="C106" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>35</v>
       </c>
@@ -2101,8 +2134,11 @@
       <c r="C107" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>35</v>
       </c>
@@ -2112,8 +2148,11 @@
       <c r="C108" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>35</v>
       </c>
@@ -2123,8 +2162,11 @@
       <c r="C109" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -2134,8 +2176,11 @@
       <c r="C110" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>35</v>
       </c>
@@ -2145,8 +2190,11 @@
       <c r="C111" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>35</v>
       </c>
@@ -2155,6 +2203,9 @@
       </c>
       <c r="C112" t="s">
         <v>6</v>
+      </c>
+      <c r="D112">
+        <v>7.1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2167,6 +2218,9 @@
       <c r="C113" t="s">
         <v>6</v>
       </c>
+      <c r="D113">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -9080,7 +9134,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>35</v>
       </c>
@@ -9090,8 +9144,11 @@
       <c r="C609" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D609">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>35</v>
       </c>
@@ -9101,8 +9158,11 @@
       <c r="C610" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D610">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>35</v>
       </c>
@@ -9112,8 +9172,11 @@
       <c r="C611" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D611">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>35</v>
       </c>
@@ -9123,8 +9186,11 @@
       <c r="C612" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D612">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>35</v>
       </c>
@@ -9134,8 +9200,11 @@
       <c r="C613" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D613">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>35</v>
       </c>
@@ -9145,8 +9214,11 @@
       <c r="C614" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D614">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>35</v>
       </c>
@@ -9156,8 +9228,11 @@
       <c r="C615" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D615">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>35</v>
       </c>
@@ -9167,8 +9242,11 @@
       <c r="C616" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D616">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>35</v>
       </c>
@@ -9178,8 +9256,11 @@
       <c r="C617" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D617">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>35</v>
       </c>
@@ -9189,8 +9270,11 @@
       <c r="C618" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D618">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>35</v>
       </c>
@@ -9200,8 +9284,11 @@
       <c r="C619" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D619">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>35</v>
       </c>
@@ -9211,8 +9298,11 @@
       <c r="C620" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D620">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>35</v>
       </c>
@@ -9222,8 +9312,11 @@
       <c r="C621" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D621">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>35</v>
       </c>
@@ -9233,8 +9326,11 @@
       <c r="C622" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D622">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>35</v>
       </c>
@@ -9244,8 +9340,11 @@
       <c r="C623" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D623">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>35</v>
       </c>
@@ -9254,6 +9353,9 @@
       </c>
       <c r="C624" t="s">
         <v>51</v>
+      </c>
+      <c r="D624">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.2">
@@ -9266,6 +9368,9 @@
       <c r="C625" t="s">
         <v>51</v>
       </c>
+      <c r="D625">
+        <v>6.75</v>
+      </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
@@ -9492,6 +9597,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D641" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/mcdonalds_prices_new.xlsx
+++ b/data/mcdonalds_prices_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Github/would_you_like_some_fries_with_that/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516062F9-3343-5342-B6DC-FB39C3588E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C4D98A-E3F9-904B-9716-841CB2E3A16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$641</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$642</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="156">
   <si>
     <t>Classification</t>
   </si>
@@ -284,13 +284,220 @@
   </si>
   <si>
     <t>McCafe Premium Roast Coffee</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_QPC.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_FOF.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_QPCDbl.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_Cheeseburger_1.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_CheeseburgerDbl.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_McSpicy.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_McSpicyDbl.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_FOFDbl.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_Hamburger.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_McChicken.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_BigMac.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_Buttermilk.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%286pc%29.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/6pc%20McNuggets_0.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/9pc%20McNuggets_0.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/20pc%20McNuggets.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/MCWING_2PC.PNG</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-03/TPO_101222%20%281%29.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Grilled%20Chicken%20McWrap.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Grilled%20Chicken%20Salad.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Big%20Breakfast.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Breakfast%20Deluxe.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Hotcakes.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Hotcakes%20with%20Sausage.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/Breakfast_Wrap-Chicken_Sausage.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/Breakfast_Wrap_Chicken_Ham.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Egg%20McMuffin.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Chicken%20Muffin.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Sausage%20McMuffin.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Sausage%20McMuffin%20with%20Egg.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Chicken%20Muffin%20with%20egg.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Fresh%20Fries_1.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Apple%20Pie.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Apple%20Slices.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/Hash_Brown.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Vanilla%20Cone.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-02/kem.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Hot%20Fudge%20Sundae.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Strawberry%20Sundae.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-02/OREO%20McFlurry.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Mudpie%20McFlurry.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Strawberry%20Shortcake%20McFlurry.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/McCafe_Latte.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/Iced_Latte.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-11/Mocha%20Frappe.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Caramel%20Frappe_2.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/McCafe_Cappuccino.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/McCafe_Premium_Roast_Coffee.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-02/TPO_506123.jpg</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Hot%20MILO.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Iced%20Milo_2.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-08/product-corn-350x350.png</t>
+  </si>
+  <si>
+    <t>https://static.mothership.sg/1/2023/02/Apple-Custard-Pie.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/SMALL_SPRITE.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/MILKLOWFATHIGHCALCIUM.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/SMALL_ICETEABIBHEAVENEARTH.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/SMALL_JASMINEGREENTEA.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Dasani%20Drinking%20Water.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/Coca-Cola%20Original%20Taste%20Less%20Sugar_5.png</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/Coca-Cola_Zero_Sugar_%28Small%29.png</t>
+  </si>
+  <si>
+    <t>https://www.mcdonalds.com.sg/sites/default/files/2023-03/ProductImg2-720x480-.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mcdonalds.com.sg/sites/default/files/2023-03/ProductImg1-720x480.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mcdonalds.com.sg/sites/default/files/2023-03/ProductImg3-720x480.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mcdonalds.com.sg/sites/default/files/2023-03/Frame%20106_0.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mcdonalds.com.sg/sites/default/files/2023-03/Frame%20110.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mcdonalds.com.sg/sites/default/files/2023-03/Frame%20107.jpg</t>
+  </si>
+  <si>
+    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/100%EF%BF%BD%20Pure%20Orange%20Juice_1.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +511,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Quarter"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +533,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -336,17 +556,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,18 +884,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D641"/>
+  <dimension ref="A1:E642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="C509" sqref="C509"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G646" sqref="G646"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,8 +908,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -685,8 +925,11 @@
       <c r="D2">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -699,8 +942,11 @@
       <c r="D3">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -713,8 +959,11 @@
       <c r="D4">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -727,8 +976,11 @@
       <c r="D5">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -741,8 +993,11 @@
       <c r="D6">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -755,8 +1010,11 @@
       <c r="D7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -769,8 +1027,11 @@
       <c r="D8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -783,8 +1044,11 @@
       <c r="D9">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -797,8 +1061,11 @@
       <c r="D10">
         <v>9.4499999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -811,8 +1078,11 @@
       <c r="D11">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -825,8 +1095,11 @@
       <c r="D12">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -839,8 +1112,11 @@
       <c r="D13">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -853,8 +1129,11 @@
       <c r="D14">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -867,8 +1146,11 @@
       <c r="D15">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -881,8 +1163,11 @@
       <c r="D16">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -892,8 +1177,11 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -906,8 +1194,11 @@
       <c r="D18">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -920,8 +1211,11 @@
       <c r="D19">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -931,8 +1225,11 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -942,8 +1239,11 @@
       <c r="C21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -956,8 +1256,11 @@
       <c r="D22">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -970,8 +1273,11 @@
       <c r="D23">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -984,8 +1290,11 @@
       <c r="D24">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -998,8 +1307,11 @@
       <c r="D25">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1012,8 +1324,11 @@
       <c r="D26">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1026,8 +1341,11 @@
       <c r="D27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1040,8 +1358,11 @@
       <c r="D28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1054,8 +1375,11 @@
       <c r="D29">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1068,8 +1392,11 @@
       <c r="D30">
         <v>8.4499999999999993</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1082,8 +1409,11 @@
       <c r="D31">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1096,8 +1426,11 @@
       <c r="D32">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1110,8 +1443,11 @@
       <c r="D33">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1124,8 +1460,11 @@
       <c r="D34">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1138,8 +1477,11 @@
       <c r="D35">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1152,8 +1494,11 @@
       <c r="D36">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1163,8 +1508,11 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1177,8 +1525,11 @@
       <c r="D38">
         <v>7.15</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1191,8 +1542,11 @@
       <c r="D39">
         <v>7.15</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1202,8 +1556,11 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1213,8 +1570,11 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1227,8 +1587,11 @@
       <c r="D42">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1241,8 +1604,11 @@
       <c r="D43">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1255,8 +1621,11 @@
       <c r="D44">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1269,8 +1638,11 @@
       <c r="D45">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1283,8 +1655,11 @@
       <c r="D46">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1297,8 +1672,11 @@
       <c r="D47">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1311,8 +1689,11 @@
       <c r="D48">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1325,8 +1706,11 @@
       <c r="D49">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1339,8 +1723,11 @@
       <c r="D50">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1353,8 +1740,11 @@
       <c r="D51">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1367,8 +1757,11 @@
       <c r="D52">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1381,8 +1774,11 @@
       <c r="D53">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1395,8 +1791,11 @@
       <c r="D54">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -1409,8 +1808,11 @@
       <c r="D55">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1423,8 +1825,11 @@
       <c r="D56">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -1437,8 +1842,11 @@
       <c r="D57">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -1451,8 +1859,11 @@
       <c r="D58">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -1465,8 +1876,11 @@
       <c r="D59">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -1479,8 +1893,11 @@
       <c r="D60">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1493,8 +1910,11 @@
       <c r="D61">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1507,8 +1927,11 @@
       <c r="D62">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -1521,8 +1944,11 @@
       <c r="D63">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -1535,8 +1961,11 @@
       <c r="D64">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1978,11 @@
       <c r="D65">
         <v>11.65</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -1563,8 +1995,11 @@
       <c r="D66">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -1577,8 +2012,11 @@
       <c r="D67">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -1591,8 +2029,11 @@
       <c r="D68">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -1605,8 +2046,11 @@
       <c r="D69">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -1619,8 +2063,11 @@
       <c r="D70">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -1633,8 +2080,11 @@
       <c r="D71">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -1647,8 +2097,11 @@
       <c r="D72">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1661,8 +2114,11 @@
       <c r="D73">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -1675,8 +2131,11 @@
       <c r="D74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -1689,8 +2148,11 @@
       <c r="D75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -1703,8 +2165,11 @@
       <c r="D76">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -1717,8 +2182,11 @@
       <c r="D77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -1731,8 +2199,11 @@
       <c r="D78">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -1745,8 +2216,11 @@
       <c r="D79">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -1759,8 +2233,11 @@
       <c r="D80">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +2250,11 @@
       <c r="D81">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -1787,8 +2267,11 @@
       <c r="D82">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -1801,8 +2284,11 @@
       <c r="D83">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -1815,8 +2301,11 @@
       <c r="D84">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -1829,8 +2318,11 @@
       <c r="D85">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +2335,11 @@
       <c r="D86">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -1857,8 +2352,11 @@
       <c r="D87">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -1871,8 +2369,11 @@
       <c r="D88">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -1885,8 +2386,11 @@
       <c r="D89">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -1899,8 +2403,11 @@
       <c r="D90">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -1913,8 +2420,11 @@
       <c r="D91">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -1927,8 +2437,11 @@
       <c r="D92">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -1941,8 +2454,11 @@
       <c r="D93">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -1955,8 +2471,11 @@
       <c r="D94">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -1969,8 +2488,11 @@
       <c r="D95">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -1983,8 +2505,11 @@
       <c r="D96">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -1997,8 +2522,11 @@
       <c r="D97">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -2011,8 +2539,11 @@
       <c r="D98">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>35</v>
       </c>
@@ -2025,8 +2556,11 @@
       <c r="D99">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -2040,7 +2574,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -2053,8 +2587,11 @@
       <c r="D101">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>35</v>
       </c>
@@ -2067,8 +2604,11 @@
       <c r="D102">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>35</v>
       </c>
@@ -2081,8 +2621,11 @@
       <c r="D103">
         <v>5.95</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -2095,8 +2638,11 @@
       <c r="D104">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -2109,8 +2655,11 @@
       <c r="D105">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>35</v>
       </c>
@@ -2123,8 +2672,11 @@
       <c r="D106">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>35</v>
       </c>
@@ -2137,8 +2689,11 @@
       <c r="D107">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>35</v>
       </c>
@@ -2151,8 +2706,11 @@
       <c r="D108">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>35</v>
       </c>
@@ -2165,8 +2723,11 @@
       <c r="D109">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -2179,8 +2740,11 @@
       <c r="D110">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>35</v>
       </c>
@@ -2193,8 +2757,11 @@
       <c r="D111">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>35</v>
       </c>
@@ -2207,8 +2774,11 @@
       <c r="D112">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -2221,8 +2791,11 @@
       <c r="D113">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -2235,8 +2808,11 @@
       <c r="D114">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -2249,8 +2825,11 @@
       <c r="D115">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -2263,8 +2842,11 @@
       <c r="D116">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -2278,7 +2860,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -2291,8 +2873,11 @@
       <c r="D118">
         <v>6.55</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -2305,8 +2890,11 @@
       <c r="D119">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -2319,8 +2907,11 @@
       <c r="D120">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -2333,8 +2924,11 @@
       <c r="D121">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -2347,8 +2941,11 @@
       <c r="D122">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -2361,8 +2958,11 @@
       <c r="D123">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -2375,8 +2975,11 @@
       <c r="D124">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -2389,8 +2992,11 @@
       <c r="D125">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -2403,8 +3009,11 @@
       <c r="D126">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -2417,8 +3026,11 @@
       <c r="D127">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -2431,8 +3043,11 @@
       <c r="D128">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -2445,8 +3060,11 @@
       <c r="D129">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -2459,8 +3077,11 @@
       <c r="D130">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -2473,8 +3094,11 @@
       <c r="D131">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -2487,8 +3111,11 @@
       <c r="D132">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -2501,8 +3128,11 @@
       <c r="D133">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -2515,8 +3145,11 @@
       <c r="D134">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -2529,8 +3162,11 @@
       <c r="D135">
         <v>9.85</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -2543,8 +3179,11 @@
       <c r="D136">
         <v>9.85</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -2557,8 +3196,11 @@
       <c r="D137">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -2571,8 +3213,11 @@
       <c r="D138">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -2585,8 +3230,11 @@
       <c r="D139">
         <v>8.9499999999999993</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -2599,8 +3247,11 @@
       <c r="D140">
         <v>8.9499999999999993</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -2613,8 +3264,11 @@
       <c r="D141">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -2627,8 +3281,11 @@
       <c r="D142">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -2641,8 +3298,11 @@
       <c r="D143">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -2655,8 +3315,11 @@
       <c r="D144">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -2669,8 +3332,11 @@
       <c r="D145">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -2683,8 +3349,11 @@
       <c r="D146">
         <v>9.0500000000000007</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -2697,8 +3366,11 @@
       <c r="D147">
         <v>9.0500000000000007</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -2711,8 +3383,11 @@
       <c r="D148">
         <v>6.45</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -2725,8 +3400,11 @@
       <c r="D149">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -2739,8 +3417,11 @@
       <c r="D150">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -2753,8 +3434,11 @@
       <c r="D151">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -2767,8 +3451,11 @@
       <c r="D152">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -2781,8 +3468,11 @@
       <c r="D153">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -2795,8 +3485,11 @@
       <c r="D154">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -2809,8 +3502,11 @@
       <c r="D155">
         <v>8.85</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -2823,8 +3519,11 @@
       <c r="D156">
         <v>8.85</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -2837,8 +3536,11 @@
       <c r="D157">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -2851,8 +3553,11 @@
       <c r="D158">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -2865,8 +3570,11 @@
       <c r="D159">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -2879,8 +3587,11 @@
       <c r="D160">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -2893,8 +3604,11 @@
       <c r="D161">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -2907,8 +3621,11 @@
       <c r="D162">
         <v>9</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -2921,8 +3638,11 @@
       <c r="D163">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -2935,8 +3655,11 @@
       <c r="D164">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -2949,8 +3672,11 @@
       <c r="D165">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -2963,8 +3689,11 @@
       <c r="D166">
         <v>8.0500000000000007</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -2977,8 +3706,11 @@
       <c r="D167">
         <v>8.0500000000000007</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -2991,8 +3723,11 @@
       <c r="D168">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -3005,8 +3740,11 @@
       <c r="D169">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -3019,8 +3757,11 @@
       <c r="D170">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -3033,8 +3774,11 @@
       <c r="D171">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -3047,8 +3791,11 @@
       <c r="D172">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -3061,8 +3808,11 @@
       <c r="D173">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -3075,8 +3825,11 @@
       <c r="D174">
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -3089,8 +3842,11 @@
       <c r="D175">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -3103,8 +3859,11 @@
       <c r="D176">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -3117,8 +3876,11 @@
       <c r="D177">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -3131,8 +3893,11 @@
       <c r="D178">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -3145,8 +3910,11 @@
       <c r="D179">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -3159,8 +3927,11 @@
       <c r="D180">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -3173,8 +3944,11 @@
       <c r="D181">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -3187,8 +3961,11 @@
       <c r="D182">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -3201,8 +3978,11 @@
       <c r="D183">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -3215,8 +3995,11 @@
       <c r="D184">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -3229,8 +4012,11 @@
       <c r="D185">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -3243,8 +4029,11 @@
       <c r="D186">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -3257,8 +4046,11 @@
       <c r="D187">
         <v>6</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -3271,8 +4063,11 @@
       <c r="D188">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -3285,8 +4080,11 @@
       <c r="D189">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -3299,8 +4097,11 @@
       <c r="D190">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -3313,8 +4114,11 @@
       <c r="D191">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -3327,8 +4131,11 @@
       <c r="D192">
         <v>4.55</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -3341,8 +4148,11 @@
       <c r="D193">
         <v>12.95</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -3355,8 +4165,11 @@
       <c r="D194">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -3369,8 +4182,11 @@
       <c r="D195">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -3383,8 +4199,11 @@
       <c r="D196">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -3397,8 +4216,11 @@
       <c r="D197">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -3411,8 +4233,11 @@
       <c r="D198">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -3425,8 +4250,11 @@
       <c r="D199">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -3439,8 +4267,11 @@
       <c r="D200">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -3453,8 +4284,11 @@
       <c r="D201">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -3467,8 +4301,11 @@
       <c r="D202">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -3481,8 +4318,11 @@
       <c r="D203">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E203" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -3495,8 +4335,11 @@
       <c r="D204">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E204" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -3509,8 +4352,11 @@
       <c r="D205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E205" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -3523,8 +4369,11 @@
       <c r="D206">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E206" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -3537,8 +4386,11 @@
       <c r="D207">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>26</v>
       </c>
@@ -3551,8 +4403,11 @@
       <c r="D208">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -3565,8 +4420,11 @@
       <c r="D209">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E209" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>26</v>
       </c>
@@ -3579,8 +4437,11 @@
       <c r="D210">
         <v>3.85</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E210" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>26</v>
       </c>
@@ -3593,8 +4454,11 @@
       <c r="D211">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E211" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>26</v>
       </c>
@@ -3607,8 +4471,11 @@
       <c r="D212">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>26</v>
       </c>
@@ -3621,8 +4488,11 @@
       <c r="D213">
         <v>4</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E213" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -3635,8 +4505,11 @@
       <c r="D214">
         <v>4</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E214" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -3649,8 +4522,11 @@
       <c r="D215">
         <v>4.3499999999999996</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -3663,8 +4539,11 @@
       <c r="D216">
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -3677,8 +4556,11 @@
       <c r="D217">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>26</v>
       </c>
@@ -3691,8 +4573,11 @@
       <c r="D218">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>26</v>
       </c>
@@ -3705,8 +4590,11 @@
       <c r="D219">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>26</v>
       </c>
@@ -3719,8 +4607,11 @@
       <c r="D220">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E220" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>26</v>
       </c>
@@ -3733,8 +4624,11 @@
       <c r="D221">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>26</v>
       </c>
@@ -3747,8 +4641,11 @@
       <c r="D222">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E222" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>26</v>
       </c>
@@ -3761,8 +4658,11 @@
       <c r="D223">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E223" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>26</v>
       </c>
@@ -3775,8 +4675,11 @@
       <c r="D224">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E224" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>35</v>
       </c>
@@ -3789,8 +4692,11 @@
       <c r="D225">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E225" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>35</v>
       </c>
@@ -3803,8 +4709,11 @@
       <c r="D226">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E226" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>35</v>
       </c>
@@ -3817,8 +4726,11 @@
       <c r="D227">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E227" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>35</v>
       </c>
@@ -3832,7 +4744,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>35</v>
       </c>
@@ -3845,8 +4757,11 @@
       <c r="D229">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E229" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>35</v>
       </c>
@@ -3859,8 +4774,11 @@
       <c r="D230">
         <v>7.35</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E230" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>35</v>
       </c>
@@ -3873,8 +4791,11 @@
       <c r="D231">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E231" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>35</v>
       </c>
@@ -3887,8 +4808,11 @@
       <c r="D232">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E232" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>35</v>
       </c>
@@ -3901,8 +4825,11 @@
       <c r="D233">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E233" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>35</v>
       </c>
@@ -3915,8 +4842,11 @@
       <c r="D234">
         <v>7.15</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E234" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>35</v>
       </c>
@@ -3929,8 +4859,11 @@
       <c r="D235">
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E235" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>35</v>
       </c>
@@ -3943,8 +4876,11 @@
       <c r="D236">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E236" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>35</v>
       </c>
@@ -3957,8 +4893,11 @@
       <c r="D237">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E237" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>35</v>
       </c>
@@ -3971,8 +4910,11 @@
       <c r="D238">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E238" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>35</v>
       </c>
@@ -3985,8 +4927,11 @@
       <c r="D239">
         <v>5</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E239" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>35</v>
       </c>
@@ -3999,8 +4944,11 @@
       <c r="D240">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E240" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>35</v>
       </c>
@@ -4013,8 +4961,11 @@
       <c r="D241">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E241" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -4027,8 +4978,11 @@
       <c r="D242">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E242" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -4041,8 +4995,11 @@
       <c r="D243">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E243" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -4055,8 +5012,11 @@
       <c r="D244">
         <v>7</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E244" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -4070,7 +5030,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -4083,8 +5043,11 @@
       <c r="D246">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E246" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -4097,8 +5060,11 @@
       <c r="D247">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -4111,8 +5077,11 @@
       <c r="D248">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E248" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -4125,8 +5094,11 @@
       <c r="D249">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E249" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -4139,8 +5111,11 @@
       <c r="D250">
         <v>6.55</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E250" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -4153,8 +5128,11 @@
       <c r="D251">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E251" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -4167,8 +5145,11 @@
       <c r="D252">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E252" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -4181,8 +5162,11 @@
       <c r="D253">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E253" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -4195,8 +5179,11 @@
       <c r="D254">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E254" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>13</v>
       </c>
@@ -4209,8 +5196,11 @@
       <c r="D255">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E255" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -4223,8 +5213,11 @@
       <c r="D256">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E256" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -4237,8 +5230,11 @@
       <c r="D257">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E257" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -4251,8 +5247,11 @@
       <c r="D258">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E258" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -4265,8 +5264,11 @@
       <c r="D259">
         <v>10.95</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E259" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -4279,8 +5281,11 @@
       <c r="D260">
         <v>9.35</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E260" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -4293,8 +5298,11 @@
       <c r="D261">
         <v>9.65</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E261" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -4307,8 +5315,11 @@
       <c r="D262">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E262" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -4321,8 +5332,11 @@
       <c r="D263">
         <v>9.85</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E263" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -4335,8 +5349,11 @@
       <c r="D264">
         <v>9.85</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E264" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -4349,8 +5366,11 @@
       <c r="D265">
         <v>11</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E265" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -4363,8 +5383,11 @@
       <c r="D266">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E266" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -4377,8 +5400,11 @@
       <c r="D267">
         <v>8.9499999999999993</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E267" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -4391,8 +5417,11 @@
       <c r="D268">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E268" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -4405,8 +5434,11 @@
       <c r="D269">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E269" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -4419,8 +5451,11 @@
       <c r="D270">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E270" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -4433,8 +5468,11 @@
       <c r="D271">
         <v>9</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E271" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -4447,8 +5485,11 @@
       <c r="D272">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E272" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -4461,8 +5502,11 @@
       <c r="D273">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E273" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -4475,8 +5519,11 @@
       <c r="D274">
         <v>9.0500000000000007</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E274" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>4</v>
       </c>
@@ -4489,8 +5536,11 @@
       <c r="D275">
         <v>9.0500000000000007</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E275" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -4503,8 +5553,11 @@
       <c r="D276">
         <v>6.45</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E276" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -4517,8 +5570,11 @@
       <c r="D277">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E277" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -4531,8 +5587,11 @@
       <c r="D278">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E278" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -4545,8 +5604,11 @@
       <c r="D279">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E279" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -4559,8 +5621,11 @@
       <c r="D280">
         <v>8.35</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E280" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -4573,8 +5638,11 @@
       <c r="D281">
         <v>8.65</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E281" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>12</v>
       </c>
@@ -4587,8 +5655,11 @@
       <c r="D282">
         <v>7</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E282" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -4601,8 +5672,11 @@
       <c r="D283">
         <v>8.85</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E283" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -4615,8 +5689,11 @@
       <c r="D284">
         <v>8.85</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E284" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -4629,8 +5706,11 @@
       <c r="D285">
         <v>10</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E285" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -4643,8 +5723,11 @@
       <c r="D286">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E286" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -4657,8 +5740,11 @@
       <c r="D287">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E287" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>12</v>
       </c>
@@ -4671,8 +5757,11 @@
       <c r="D288">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E288" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -4685,8 +5774,11 @@
       <c r="D289">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E289" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>12</v>
       </c>
@@ -4699,8 +5791,11 @@
       <c r="D290">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E290" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -4713,8 +5808,11 @@
       <c r="D291">
         <v>8</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E291" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>12</v>
       </c>
@@ -4727,8 +5825,11 @@
       <c r="D292">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E292" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>12</v>
       </c>
@@ -4741,8 +5842,11 @@
       <c r="D293">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E293" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -4755,8 +5859,11 @@
       <c r="D294">
         <v>8.0500000000000007</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E294" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -4769,8 +5876,11 @@
       <c r="D295">
         <v>8.0500000000000007</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E295" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -4783,8 +5893,11 @@
       <c r="D296">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E296" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -4797,8 +5910,11 @@
       <c r="D297">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E297" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>13</v>
       </c>
@@ -4811,8 +5927,11 @@
       <c r="D298">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E298" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>13</v>
       </c>
@@ -4825,8 +5944,11 @@
       <c r="D299">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E299" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -4839,8 +5961,11 @@
       <c r="D300">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E300" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>13</v>
       </c>
@@ -4853,8 +5978,11 @@
       <c r="D301">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E301" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>13</v>
       </c>
@@ -4867,8 +5995,11 @@
       <c r="D302">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E302" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -4881,8 +6012,11 @@
       <c r="D303">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E303" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>13</v>
       </c>
@@ -4895,8 +6029,11 @@
       <c r="D304">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E304" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>13</v>
       </c>
@@ -4909,8 +6046,11 @@
       <c r="D305">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E305" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -4923,8 +6063,11 @@
       <c r="D306">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E306" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>13</v>
       </c>
@@ -4937,8 +6080,11 @@
       <c r="D307">
         <v>6.85</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E307" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>13</v>
       </c>
@@ -4951,8 +6097,11 @@
       <c r="D308">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E308" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>13</v>
       </c>
@@ -4965,8 +6114,11 @@
       <c r="D309">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E309" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -4979,8 +6131,11 @@
       <c r="D310">
         <v>7.45</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E310" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>13</v>
       </c>
@@ -4993,8 +6148,11 @@
       <c r="D311">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E311" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -5007,8 +6165,11 @@
       <c r="D312">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E312" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>13</v>
       </c>
@@ -5021,8 +6182,11 @@
       <c r="D313">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E313" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>13</v>
       </c>
@@ -5035,8 +6199,11 @@
       <c r="D314">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E314" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -5049,8 +6216,11 @@
       <c r="D315">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E315" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>13</v>
       </c>
@@ -5063,8 +6233,11 @@
       <c r="D316">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E316" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>14</v>
       </c>
@@ -5077,8 +6250,11 @@
       <c r="D317">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E317" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -5091,8 +6267,11 @@
       <c r="D318">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E318" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>14</v>
       </c>
@@ -5105,8 +6284,11 @@
       <c r="D319">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E319" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>14</v>
       </c>
@@ -5119,8 +6301,11 @@
       <c r="D320">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E320" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>14</v>
       </c>
@@ -5133,8 +6318,11 @@
       <c r="D321">
         <v>13.05</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E321" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -5147,8 +6335,11 @@
       <c r="D322">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E322" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -5161,8 +6352,11 @@
       <c r="D323">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E323" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -5175,8 +6369,11 @@
       <c r="D324">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E324" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>14</v>
       </c>
@@ -5189,8 +6386,11 @@
       <c r="D325">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E325" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>21</v>
       </c>
@@ -5203,8 +6403,11 @@
       <c r="D326">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E326" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>21</v>
       </c>
@@ -5217,8 +6420,11 @@
       <c r="D327">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E327" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>21</v>
       </c>
@@ -5231,8 +6437,11 @@
       <c r="D328">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E328" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>21</v>
       </c>
@@ -5245,8 +6454,11 @@
       <c r="D329">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E329" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>21</v>
       </c>
@@ -5259,8 +6471,11 @@
       <c r="D330">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E330" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>21</v>
       </c>
@@ -5273,8 +6488,11 @@
       <c r="D331">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E331" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>21</v>
       </c>
@@ -5287,8 +6505,11 @@
       <c r="D332">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E332" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>21</v>
       </c>
@@ -5301,8 +6522,11 @@
       <c r="D333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E333" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>26</v>
       </c>
@@ -5315,8 +6539,11 @@
       <c r="D334">
         <v>5</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E334" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>26</v>
       </c>
@@ -5329,8 +6556,11 @@
       <c r="D335">
         <v>5</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E335" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" t="s">
         <v>26</v>
       </c>
@@ -5343,8 +6573,11 @@
       <c r="D336">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E336" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>26</v>
       </c>
@@ -5357,8 +6590,11 @@
       <c r="D337">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E337" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>26</v>
       </c>
@@ -5371,8 +6607,11 @@
       <c r="D338">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E338" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>26</v>
       </c>
@@ -5385,8 +6624,11 @@
       <c r="D339">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E339" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>26</v>
       </c>
@@ -5399,8 +6641,11 @@
       <c r="D340">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E340" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>26</v>
       </c>
@@ -5413,8 +6658,11 @@
       <c r="D341">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E341" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>26</v>
       </c>
@@ -5427,8 +6675,11 @@
       <c r="D342">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E342" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>26</v>
       </c>
@@ -5441,8 +6692,11 @@
       <c r="D343">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E343" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>26</v>
       </c>
@@ -5455,8 +6709,11 @@
       <c r="D344">
         <v>3</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E344" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>26</v>
       </c>
@@ -5469,8 +6726,11 @@
       <c r="D345">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E345" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>26</v>
       </c>
@@ -5483,8 +6743,11 @@
       <c r="D346">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E346" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>26</v>
       </c>
@@ -5497,8 +6760,11 @@
       <c r="D347">
         <v>3</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E347" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" t="s">
         <v>26</v>
       </c>
@@ -5511,8 +6777,11 @@
       <c r="D348">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E348" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -5525,8 +6794,11 @@
       <c r="D349">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E349" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
       <c r="A350" t="s">
         <v>26</v>
       </c>
@@ -5539,8 +6811,11 @@
       <c r="D350">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E350" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351" t="s">
         <v>26</v>
       </c>
@@ -5553,8 +6828,11 @@
       <c r="D351">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E351" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
       <c r="A352" t="s">
         <v>26</v>
       </c>
@@ -5567,8 +6845,11 @@
       <c r="D352">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E352" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
       <c r="A353" t="s">
         <v>35</v>
       </c>
@@ -5581,8 +6862,11 @@
       <c r="D353">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E353" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
       <c r="A354" t="s">
         <v>35</v>
       </c>
@@ -5595,8 +6879,11 @@
       <c r="D354">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E354" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
       <c r="A355" t="s">
         <v>35</v>
       </c>
@@ -5609,8 +6896,11 @@
       <c r="D355">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E355" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
       <c r="A356" t="s">
         <v>35</v>
       </c>
@@ -5624,7 +6914,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357" t="s">
         <v>35</v>
       </c>
@@ -5637,8 +6927,11 @@
       <c r="D357">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E357" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
       <c r="A358" t="s">
         <v>35</v>
       </c>
@@ -5651,8 +6944,11 @@
       <c r="D358">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E358" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
       <c r="A359" t="s">
         <v>35</v>
       </c>
@@ -5665,8 +6961,11 @@
       <c r="D359">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E359" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
       <c r="A360" t="s">
         <v>35</v>
       </c>
@@ -5679,8 +6978,11 @@
       <c r="D360">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E360" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
       <c r="A361" t="s">
         <v>35</v>
       </c>
@@ -5693,8 +6995,11 @@
       <c r="D361">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E361" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
       <c r="A362" t="s">
         <v>35</v>
       </c>
@@ -5707,8 +7012,11 @@
       <c r="D362">
         <v>6.85</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E362" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
       <c r="A363" t="s">
         <v>35</v>
       </c>
@@ -5721,8 +7029,11 @@
       <c r="D363">
         <v>5</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E363" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
       <c r="A364" t="s">
         <v>35</v>
       </c>
@@ -5735,8 +7046,11 @@
       <c r="D364">
         <v>5.95</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E364" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
       <c r="A365" t="s">
         <v>35</v>
       </c>
@@ -5749,8 +7063,11 @@
       <c r="D365">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E365" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
       <c r="A366" t="s">
         <v>35</v>
       </c>
@@ -5763,8 +7080,11 @@
       <c r="D366">
         <v>5</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E366" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
       <c r="A367" t="s">
         <v>35</v>
       </c>
@@ -5777,8 +7097,11 @@
       <c r="D367">
         <v>5</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E367" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
       <c r="A368" t="s">
         <v>35</v>
       </c>
@@ -5791,8 +7114,11 @@
       <c r="D368">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E368" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
       <c r="A369" t="s">
         <v>35</v>
       </c>
@@ -5805,8 +7131,11 @@
       <c r="D369">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E369" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -5819,8 +7148,11 @@
       <c r="D370">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E370" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
       <c r="A371" t="s">
         <v>13</v>
       </c>
@@ -5833,8 +7165,11 @@
       <c r="D371">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E371" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
       <c r="A372" t="s">
         <v>13</v>
       </c>
@@ -5847,8 +7182,11 @@
       <c r="D372">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E372" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
       <c r="A373" t="s">
         <v>13</v>
       </c>
@@ -5862,7 +7200,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5">
       <c r="A374" t="s">
         <v>13</v>
       </c>
@@ -5875,8 +7213,11 @@
       <c r="D374">
         <v>7.35</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E374" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
       <c r="A375" t="s">
         <v>13</v>
       </c>
@@ -5889,8 +7230,11 @@
       <c r="D375">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E375" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
       <c r="A376" t="s">
         <v>13</v>
       </c>
@@ -5903,8 +7247,11 @@
       <c r="D376">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E376" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
       <c r="A377" t="s">
         <v>13</v>
       </c>
@@ -5917,8 +7264,11 @@
       <c r="D377">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E377" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
       <c r="A378" t="s">
         <v>13</v>
       </c>
@@ -5931,8 +7281,11 @@
       <c r="D378">
         <v>6.55</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E378" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
       <c r="A379" t="s">
         <v>13</v>
       </c>
@@ -5945,8 +7298,11 @@
       <c r="D379">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E379" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
       <c r="A380" t="s">
         <v>13</v>
       </c>
@@ -5959,8 +7315,11 @@
       <c r="D380">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E380" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
       <c r="A381" t="s">
         <v>13</v>
       </c>
@@ -5973,8 +7332,11 @@
       <c r="D381">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E381" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -5987,8 +7349,11 @@
       <c r="D382">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E382" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
       <c r="A383" t="s">
         <v>13</v>
       </c>
@@ -6001,8 +7366,11 @@
       <c r="D383">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E383" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
       <c r="A384" t="s">
         <v>13</v>
       </c>
@@ -6015,8 +7383,11 @@
       <c r="D384">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E384" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
       <c r="A385" t="s">
         <v>14</v>
       </c>
@@ -6029,8 +7400,11 @@
       <c r="D385">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E385" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -6043,8 +7417,11 @@
       <c r="D386">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E386" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
       <c r="A387" t="s">
         <v>4</v>
       </c>
@@ -6057,8 +7434,11 @@
       <c r="D387">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E387" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
       <c r="A388" t="s">
         <v>4</v>
       </c>
@@ -6071,8 +7451,11 @@
       <c r="D388">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E388" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -6085,8 +7468,11 @@
       <c r="D389">
         <v>9.4499999999999993</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E389" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
       <c r="A390" t="s">
         <v>4</v>
       </c>
@@ -6099,8 +7485,11 @@
       <c r="D390">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E390" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -6113,8 +7502,11 @@
       <c r="D391">
         <v>10.050000000000001</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E391" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -6127,8 +7519,11 @@
       <c r="D392">
         <v>10.050000000000001</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E392" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
       <c r="A393" t="s">
         <v>4</v>
       </c>
@@ -6141,8 +7536,11 @@
       <c r="D393">
         <v>11</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E393" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
       <c r="A394" t="s">
         <v>4</v>
       </c>
@@ -6155,8 +7553,11 @@
       <c r="D394">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E394" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
       <c r="A395" t="s">
         <v>4</v>
       </c>
@@ -6169,8 +7570,11 @@
       <c r="D395">
         <v>8.9499999999999993</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E395" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
       <c r="A396" t="s">
         <v>4</v>
       </c>
@@ -6183,8 +7587,11 @@
       <c r="D396">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E396" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
       <c r="A397" t="s">
         <v>4</v>
       </c>
@@ -6197,8 +7604,11 @@
       <c r="D397">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E397" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
       <c r="A398" t="s">
         <v>4</v>
       </c>
@@ -6211,8 +7621,11 @@
       <c r="D398">
         <v>10</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E398" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
       <c r="A399" t="s">
         <v>4</v>
       </c>
@@ -6225,8 +7638,11 @@
       <c r="D399">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E399" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
       <c r="A400" t="s">
         <v>4</v>
       </c>
@@ -6239,8 +7655,11 @@
       <c r="D400">
         <v>8.35</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E400" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
       <c r="A401" t="s">
         <v>4</v>
       </c>
@@ -6253,8 +7672,11 @@
       <c r="D401">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E401" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
       <c r="A402" t="s">
         <v>4</v>
       </c>
@@ -6267,8 +7689,11 @@
       <c r="D402">
         <v>9.0500000000000007</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E402" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
       <c r="A403" t="s">
         <v>4</v>
       </c>
@@ -6281,8 +7706,11 @@
       <c r="D403">
         <v>9.0500000000000007</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E403" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
       <c r="A404" t="s">
         <v>4</v>
       </c>
@@ -6295,8 +7723,11 @@
       <c r="D404">
         <v>6.45</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E404" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
       <c r="A405" t="s">
         <v>4</v>
       </c>
@@ -6309,8 +7740,11 @@
       <c r="D405">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E405" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
       <c r="A406" t="s">
         <v>12</v>
       </c>
@@ -6323,8 +7757,11 @@
       <c r="D406">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E406" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -6337,8 +7774,11 @@
       <c r="D407">
         <v>9.75</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E407" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
       <c r="A408" t="s">
         <v>12</v>
       </c>
@@ -6351,8 +7791,11 @@
       <c r="D408">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E408" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
       <c r="A409" t="s">
         <v>12</v>
       </c>
@@ -6365,8 +7808,11 @@
       <c r="D409">
         <v>8.4499999999999993</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E409" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
       <c r="A410" t="s">
         <v>12</v>
       </c>
@@ -6379,8 +7825,11 @@
       <c r="D410">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E410" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
       <c r="A411" t="s">
         <v>12</v>
       </c>
@@ -6393,8 +7842,11 @@
       <c r="D411">
         <v>9.0500000000000007</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E411" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
       <c r="A412" t="s">
         <v>12</v>
       </c>
@@ -6407,8 +7859,11 @@
       <c r="D412">
         <v>9.0500000000000007</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E412" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
       <c r="A413" t="s">
         <v>12</v>
       </c>
@@ -6421,8 +7876,11 @@
       <c r="D413">
         <v>10</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E413" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
       <c r="A414" t="s">
         <v>12</v>
       </c>
@@ -6435,8 +7893,11 @@
       <c r="D414">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E414" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
       <c r="A415" t="s">
         <v>12</v>
       </c>
@@ -6449,8 +7910,11 @@
       <c r="D415">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E415" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
       <c r="A416" t="s">
         <v>12</v>
       </c>
@@ -6463,8 +7927,11 @@
       <c r="D416">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E416" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
       <c r="A417" t="s">
         <v>12</v>
       </c>
@@ -6477,8 +7944,11 @@
       <c r="D417">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E417" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
       <c r="A418" t="s">
         <v>12</v>
       </c>
@@ -6491,8 +7961,11 @@
       <c r="D418">
         <v>9</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E418" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
       <c r="A419" t="s">
         <v>12</v>
       </c>
@@ -6505,8 +7978,11 @@
       <c r="D419">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E419" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
       <c r="A420" t="s">
         <v>12</v>
       </c>
@@ -6519,8 +7995,11 @@
       <c r="D420">
         <v>7.35</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E420" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
       <c r="A421" t="s">
         <v>12</v>
       </c>
@@ -6533,8 +8012,11 @@
       <c r="D421">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E421" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
       <c r="A422" t="s">
         <v>12</v>
       </c>
@@ -6547,8 +8029,11 @@
       <c r="D422">
         <v>8.0500000000000007</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E422" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
       <c r="A423" t="s">
         <v>12</v>
       </c>
@@ -6561,8 +8046,11 @@
       <c r="D423">
         <v>8.0500000000000007</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E423" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
       <c r="A424" t="s">
         <v>12</v>
       </c>
@@ -6575,8 +8063,11 @@
       <c r="D424">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E424" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
       <c r="A425" t="s">
         <v>12</v>
       </c>
@@ -6589,8 +8080,11 @@
       <c r="D425">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E425" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
       <c r="A426" t="s">
         <v>13</v>
       </c>
@@ -6603,8 +8097,11 @@
       <c r="D426">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E426" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -6617,8 +8114,11 @@
       <c r="D427">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E427" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
       <c r="A428" t="s">
         <v>13</v>
       </c>
@@ -6631,8 +8131,11 @@
       <c r="D428">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E428" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -6645,8 +8148,11 @@
       <c r="D429">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E429" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
       <c r="A430" t="s">
         <v>13</v>
       </c>
@@ -6659,8 +8165,11 @@
       <c r="D430">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E430" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
       <c r="A431" t="s">
         <v>13</v>
       </c>
@@ -6673,8 +8182,11 @@
       <c r="D431">
         <v>7</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E431" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
       <c r="A432" t="s">
         <v>13</v>
       </c>
@@ -6687,8 +8199,11 @@
       <c r="D432">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E432" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -6701,8 +8216,11 @@
       <c r="D433">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E433" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
       <c r="A434" t="s">
         <v>13</v>
       </c>
@@ -6715,8 +8233,11 @@
       <c r="D434">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E434" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
       <c r="A435" t="s">
         <v>13</v>
       </c>
@@ -6729,8 +8250,11 @@
       <c r="D435">
         <v>6.85</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E435" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
       <c r="A436" t="s">
         <v>13</v>
       </c>
@@ -6743,8 +8267,11 @@
       <c r="D436">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E436" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -6757,8 +8284,11 @@
       <c r="D437">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E437" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
       <c r="A438" t="s">
         <v>13</v>
       </c>
@@ -6771,8 +8301,11 @@
       <c r="D438">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E438" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
       <c r="A439" t="s">
         <v>13</v>
       </c>
@@ -6785,8 +8318,11 @@
       <c r="D439">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E439" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -6799,8 +8335,11 @@
       <c r="D440">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E440" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
       <c r="A441" t="s">
         <v>13</v>
       </c>
@@ -6813,8 +8352,11 @@
       <c r="D441">
         <v>3</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E441" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
       <c r="A442" t="s">
         <v>13</v>
       </c>
@@ -6827,8 +8369,11 @@
       <c r="D442">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E442" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -6841,8 +8386,11 @@
       <c r="D443">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E443" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
       <c r="A444" t="s">
         <v>13</v>
       </c>
@@ -6855,8 +8403,11 @@
       <c r="D444">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E444" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
       <c r="A445" t="s">
         <v>14</v>
       </c>
@@ -6869,8 +8420,11 @@
       <c r="D445">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E445" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
       <c r="A446" t="s">
         <v>14</v>
       </c>
@@ -6883,8 +8437,11 @@
       <c r="D446">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E446" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
       <c r="A447" t="s">
         <v>14</v>
       </c>
@@ -6897,8 +8454,11 @@
       <c r="D447">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E447" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
       <c r="A448" t="s">
         <v>14</v>
       </c>
@@ -6911,8 +8471,11 @@
       <c r="D448">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E448" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
       <c r="A449" t="s">
         <v>14</v>
       </c>
@@ -6925,8 +8488,11 @@
       <c r="D449">
         <v>13.15</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E449" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
       <c r="A450" t="s">
         <v>14</v>
       </c>
@@ -6939,8 +8505,11 @@
       <c r="D450">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E450" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
       <c r="A451" t="s">
         <v>14</v>
       </c>
@@ -6953,8 +8522,11 @@
       <c r="D451">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E451" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
       <c r="A452" t="s">
         <v>14</v>
       </c>
@@ -6967,8 +8539,11 @@
       <c r="D452">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E452" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
       <c r="A453" t="s">
         <v>14</v>
       </c>
@@ -6981,8 +8556,11 @@
       <c r="D453">
         <v>3</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E453" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
       <c r="A454" t="s">
         <v>21</v>
       </c>
@@ -6995,8 +8573,11 @@
       <c r="D454">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E454" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
       <c r="A455" t="s">
         <v>21</v>
       </c>
@@ -7009,8 +8590,11 @@
       <c r="D455">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E455" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
       <c r="A456" t="s">
         <v>21</v>
       </c>
@@ -7023,8 +8607,11 @@
       <c r="D456">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E456" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
       <c r="A457" t="s">
         <v>21</v>
       </c>
@@ -7037,8 +8624,11 @@
       <c r="D457">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E457" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
       <c r="A458" t="s">
         <v>21</v>
       </c>
@@ -7051,8 +8641,11 @@
       <c r="D458">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E458" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
       <c r="A459" t="s">
         <v>21</v>
       </c>
@@ -7065,8 +8658,11 @@
       <c r="D459">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E459" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
       <c r="A460" t="s">
         <v>21</v>
       </c>
@@ -7079,8 +8675,11 @@
       <c r="D460">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E460" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
       <c r="A461" t="s">
         <v>21</v>
       </c>
@@ -7093,8 +8692,11 @@
       <c r="D461">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E461" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
       <c r="A462" t="s">
         <v>26</v>
       </c>
@@ -7107,8 +8709,11 @@
       <c r="D462">
         <v>5</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E462" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
       <c r="A463" t="s">
         <v>26</v>
       </c>
@@ -7121,8 +8726,11 @@
       <c r="D463">
         <v>5</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E463" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
       <c r="A464" t="s">
         <v>26</v>
       </c>
@@ -7135,8 +8743,11 @@
       <c r="D464">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E464" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
       <c r="A465" t="s">
         <v>26</v>
       </c>
@@ -7149,8 +8760,11 @@
       <c r="D465">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E465" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
       <c r="A466" t="s">
         <v>26</v>
       </c>
@@ -7163,8 +8777,11 @@
       <c r="D466">
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E466" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
       <c r="A467" t="s">
         <v>26</v>
       </c>
@@ -7177,8 +8794,11 @@
       <c r="D467">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E467" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
       <c r="A468" t="s">
         <v>26</v>
       </c>
@@ -7191,8 +8811,11 @@
       <c r="D468">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E468" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
       <c r="A469" t="s">
         <v>26</v>
       </c>
@@ -7205,8 +8828,11 @@
       <c r="D469">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E469" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
       <c r="A470" t="s">
         <v>26</v>
       </c>
@@ -7219,8 +8845,11 @@
       <c r="D470">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E470" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
       <c r="A471" t="s">
         <v>26</v>
       </c>
@@ -7233,8 +8862,11 @@
       <c r="D471">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E471" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
       <c r="A472" t="s">
         <v>26</v>
       </c>
@@ -7247,8 +8879,11 @@
       <c r="D472">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E472" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
       <c r="A473" t="s">
         <v>26</v>
       </c>
@@ -7261,8 +8896,11 @@
       <c r="D473">
         <v>4</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E473" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
       <c r="A474" t="s">
         <v>26</v>
       </c>
@@ -7275,8 +8913,11 @@
       <c r="D474">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E474" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
       <c r="A475" t="s">
         <v>26</v>
       </c>
@@ -7289,8 +8930,11 @@
       <c r="D475">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E475" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
       <c r="A476" t="s">
         <v>26</v>
       </c>
@@ -7303,8 +8947,11 @@
       <c r="D476">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E476" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
       <c r="A477" t="s">
         <v>26</v>
       </c>
@@ -7317,8 +8964,11 @@
       <c r="D477">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E477" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
       <c r="A478" t="s">
         <v>26</v>
       </c>
@@ -7331,8 +8981,11 @@
       <c r="D478">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E478" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
       <c r="A479" t="s">
         <v>26</v>
       </c>
@@ -7345,8 +8998,11 @@
       <c r="D479">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E479" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
       <c r="A480" t="s">
         <v>26</v>
       </c>
@@ -7359,8 +9015,11 @@
       <c r="D480">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E480" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
       <c r="A481" t="s">
         <v>35</v>
       </c>
@@ -7373,8 +9032,11 @@
       <c r="D481">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E481" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
       <c r="A482" t="s">
         <v>35</v>
       </c>
@@ -7387,8 +9049,11 @@
       <c r="D482">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E482" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
       <c r="A483" t="s">
         <v>35</v>
       </c>
@@ -7401,8 +9066,11 @@
       <c r="D483">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E483" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
       <c r="A484" t="s">
         <v>35</v>
       </c>
@@ -7416,7 +9084,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5">
       <c r="A485" t="s">
         <v>35</v>
       </c>
@@ -7429,8 +9097,11 @@
       <c r="D485">
         <v>9</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E485" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
       <c r="A486" t="s">
         <v>35</v>
       </c>
@@ -7443,8 +9114,11 @@
       <c r="D486">
         <v>8</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E486" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
       <c r="A487" t="s">
         <v>35</v>
       </c>
@@ -7457,8 +9131,11 @@
       <c r="D487">
         <v>6.45</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E487" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
       <c r="A488" t="s">
         <v>35</v>
       </c>
@@ -7471,8 +9148,11 @@
       <c r="D488">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E488" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
       <c r="A489" t="s">
         <v>35</v>
       </c>
@@ -7485,8 +9165,11 @@
       <c r="D489">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E489" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
       <c r="A490" t="s">
         <v>35</v>
       </c>
@@ -7499,8 +9182,11 @@
       <c r="D490">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E490" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
       <c r="A491" t="s">
         <v>35</v>
       </c>
@@ -7513,8 +9199,11 @@
       <c r="D491">
         <v>5</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E491" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
       <c r="A492" t="s">
         <v>35</v>
       </c>
@@ -7527,8 +9216,11 @@
       <c r="D492">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E492" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
       <c r="A493" t="s">
         <v>35</v>
       </c>
@@ -7541,8 +9233,11 @@
       <c r="D493">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E493" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
       <c r="A494" t="s">
         <v>35</v>
       </c>
@@ -7555,8 +9250,11 @@
       <c r="D494">
         <v>5</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E494" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
       <c r="A495" t="s">
         <v>35</v>
       </c>
@@ -7569,8 +9267,11 @@
       <c r="D495">
         <v>5</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E495" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
       <c r="A496" t="s">
         <v>35</v>
       </c>
@@ -7583,8 +9284,11 @@
       <c r="D496">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E496" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
       <c r="A497" t="s">
         <v>35</v>
       </c>
@@ -7597,8 +9301,11 @@
       <c r="D497">
         <v>6.45</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E497" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
       <c r="A498" t="s">
         <v>13</v>
       </c>
@@ -7611,8 +9318,11 @@
       <c r="D498">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E498" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
       <c r="A499" t="s">
         <v>13</v>
       </c>
@@ -7625,8 +9335,11 @@
       <c r="D499">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E499" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
       <c r="A500" t="s">
         <v>13</v>
       </c>
@@ -7639,8 +9352,11 @@
       <c r="D500">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E500" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
       <c r="A501" t="s">
         <v>13</v>
       </c>
@@ -7654,7 +9370,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5">
       <c r="A502" t="s">
         <v>13</v>
       </c>
@@ -7667,8 +9383,11 @@
       <c r="D502">
         <v>7.45</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E502" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -7681,8 +9400,11 @@
       <c r="D503">
         <v>6.45</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E503" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
       <c r="A504" t="s">
         <v>13</v>
       </c>
@@ -7695,8 +9417,11 @@
       <c r="D504">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E504" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
       <c r="A505" t="s">
         <v>13</v>
       </c>
@@ -7709,8 +9434,11 @@
       <c r="D505">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E505" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
       <c r="A506" t="s">
         <v>13</v>
       </c>
@@ -7723,8 +9451,11 @@
       <c r="D506">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E506" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -7737,8 +9468,11 @@
       <c r="D507">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E507" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
       <c r="A508" t="s">
         <v>13</v>
       </c>
@@ -7751,8 +9485,11 @@
       <c r="D508">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E508" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
       <c r="A509" t="s">
         <v>13</v>
       </c>
@@ -7765,8 +9502,11 @@
       <c r="D509">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E509" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
       <c r="A510" t="s">
         <v>13</v>
       </c>
@@ -7779,8 +9519,11 @@
       <c r="D510">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E510" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -7793,8 +9536,11 @@
       <c r="D511">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E511" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
       <c r="A512" t="s">
         <v>13</v>
       </c>
@@ -7807,8 +9553,11 @@
       <c r="D512">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E512" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
       <c r="A513" t="s">
         <v>14</v>
       </c>
@@ -7821,8 +9570,11 @@
       <c r="D513">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E513" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
       <c r="A514" t="s">
         <v>4</v>
       </c>
@@ -7835,8 +9587,11 @@
       <c r="D514">
         <v>10</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E514" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
       <c r="A515" t="s">
         <v>4</v>
       </c>
@@ -7849,8 +9604,11 @@
       <c r="D515">
         <v>10.95</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E515" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
       <c r="A516" t="s">
         <v>4</v>
       </c>
@@ -7863,8 +9621,11 @@
       <c r="D516">
         <v>9.35</v>
       </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E516" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
       <c r="A517" t="s">
         <v>4</v>
       </c>
@@ -7877,8 +9638,11 @@
       <c r="D517">
         <v>9.65</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E517" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
       <c r="A518" t="s">
         <v>4</v>
       </c>
@@ -7891,8 +9655,11 @@
       <c r="D518">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E518" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
       <c r="A519" t="s">
         <v>4</v>
       </c>
@@ -7905,8 +9672,11 @@
       <c r="D519">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E519" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
       <c r="A520" t="s">
         <v>4</v>
       </c>
@@ -7919,8 +9689,11 @@
       <c r="D520">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E520" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
       <c r="A521" t="s">
         <v>4</v>
       </c>
@@ -7933,8 +9706,11 @@
       <c r="D521">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E521" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
       <c r="A522" t="s">
         <v>4</v>
       </c>
@@ -7947,8 +9723,11 @@
       <c r="D522">
         <v>11</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E522" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
       <c r="A523" t="s">
         <v>4</v>
       </c>
@@ -7961,8 +9740,11 @@
       <c r="D523">
         <v>8.9499999999999993</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E523" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
       <c r="A524" t="s">
         <v>4</v>
       </c>
@@ -7975,8 +9757,11 @@
       <c r="D524">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E524" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
       <c r="A525" t="s">
         <v>4</v>
       </c>
@@ -7989,8 +9774,11 @@
       <c r="D525">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E525" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
       <c r="A526" t="s">
         <v>4</v>
       </c>
@@ -8003,8 +9791,11 @@
       <c r="D526">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E526" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
       <c r="A527" t="s">
         <v>4</v>
       </c>
@@ -8017,8 +9808,11 @@
       <c r="D527">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E527" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
       <c r="A528" t="s">
         <v>4</v>
       </c>
@@ -8031,8 +9825,11 @@
       <c r="D528">
         <v>8.35</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E528" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
       <c r="A529" t="s">
         <v>4</v>
       </c>
@@ -8042,8 +9839,11 @@
       <c r="C529" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E529" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
       <c r="A530" t="s">
         <v>4</v>
       </c>
@@ -8056,8 +9856,11 @@
       <c r="D530">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E530" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
       <c r="A531" t="s">
         <v>4</v>
       </c>
@@ -8070,8 +9873,11 @@
       <c r="D531">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E531" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
       <c r="A532" t="s">
         <v>4</v>
       </c>
@@ -8081,8 +9887,11 @@
       <c r="C532" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E532" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
       <c r="A533" t="s">
         <v>4</v>
       </c>
@@ -8092,8 +9901,11 @@
       <c r="C533" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E533" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
       <c r="A534" t="s">
         <v>12</v>
       </c>
@@ -8106,8 +9918,11 @@
       <c r="D534">
         <v>9</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E534" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
       <c r="A535" t="s">
         <v>12</v>
       </c>
@@ -8120,8 +9935,11 @@
       <c r="D535">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E535" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
       <c r="A536" t="s">
         <v>12</v>
       </c>
@@ -8134,8 +9952,11 @@
       <c r="D536">
         <v>8.35</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E536" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
       <c r="A537" t="s">
         <v>12</v>
       </c>
@@ -8148,8 +9969,11 @@
       <c r="D537">
         <v>8.65</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E537" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
       <c r="A538" t="s">
         <v>12</v>
       </c>
@@ -8162,8 +9986,11 @@
       <c r="D538">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E538" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
       <c r="A539" t="s">
         <v>12</v>
       </c>
@@ -8176,8 +10003,11 @@
       <c r="D539">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E539" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
       <c r="A540" t="s">
         <v>12</v>
       </c>
@@ -8190,8 +10020,11 @@
       <c r="D540">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E540" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
       <c r="A541" t="s">
         <v>12</v>
       </c>
@@ -8204,8 +10037,11 @@
       <c r="D541">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E541" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
       <c r="A542" t="s">
         <v>12</v>
       </c>
@@ -8218,8 +10054,11 @@
       <c r="D542">
         <v>10</v>
       </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E542" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
       <c r="A543" t="s">
         <v>12</v>
       </c>
@@ -8232,8 +10071,11 @@
       <c r="D543">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E543" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
       <c r="A544" t="s">
         <v>12</v>
       </c>
@@ -8246,8 +10088,11 @@
       <c r="D544">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E544" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
       <c r="A545" t="s">
         <v>12</v>
       </c>
@@ -8260,8 +10105,11 @@
       <c r="D545">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E545" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
       <c r="A546" t="s">
         <v>12</v>
       </c>
@@ -8274,8 +10122,11 @@
       <c r="D546">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E546" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
       <c r="A547" t="s">
         <v>12</v>
       </c>
@@ -8288,8 +10139,11 @@
       <c r="D547">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E547" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
       <c r="A548" t="s">
         <v>12</v>
       </c>
@@ -8302,8 +10156,11 @@
       <c r="D548">
         <v>7.35</v>
       </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E548" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
       <c r="A549" t="s">
         <v>12</v>
       </c>
@@ -8313,8 +10170,11 @@
       <c r="C549" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E549" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
       <c r="A550" t="s">
         <v>12</v>
       </c>
@@ -8327,8 +10187,11 @@
       <c r="D550">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E550" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
       <c r="A551" t="s">
         <v>12</v>
       </c>
@@ -8341,8 +10204,11 @@
       <c r="D551">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E551" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
       <c r="A552" t="s">
         <v>12</v>
       </c>
@@ -8352,8 +10218,11 @@
       <c r="C552" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E552" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
       <c r="A553" t="s">
         <v>12</v>
       </c>
@@ -8363,8 +10232,11 @@
       <c r="C553" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E553" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
       <c r="A554" t="s">
         <v>13</v>
       </c>
@@ -8377,8 +10249,11 @@
       <c r="D554">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E554" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
       <c r="A555" t="s">
         <v>13</v>
       </c>
@@ -8391,8 +10266,11 @@
       <c r="D555">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E555" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5">
       <c r="A556" t="s">
         <v>13</v>
       </c>
@@ -8405,8 +10283,11 @@
       <c r="D556">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E556" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
       <c r="A557" t="s">
         <v>13</v>
       </c>
@@ -8419,8 +10300,11 @@
       <c r="D557">
         <v>6.45</v>
       </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E557" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
       <c r="A558" t="s">
         <v>13</v>
       </c>
@@ -8433,8 +10317,11 @@
       <c r="D558">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E558" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
       <c r="A559" t="s">
         <v>13</v>
       </c>
@@ -8447,8 +10334,11 @@
       <c r="D559">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E559" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
       <c r="A560" t="s">
         <v>13</v>
       </c>
@@ -8461,8 +10351,11 @@
       <c r="D560">
         <v>19</v>
       </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E560" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
       <c r="A561" t="s">
         <v>13</v>
       </c>
@@ -8475,8 +10368,11 @@
       <c r="D561">
         <v>8.0500000000000007</v>
       </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E561" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
       <c r="A562" t="s">
         <v>13</v>
       </c>
@@ -8489,8 +10385,11 @@
       <c r="D562">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E562" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
       <c r="A563" t="s">
         <v>13</v>
       </c>
@@ -8503,8 +10402,11 @@
       <c r="D563">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E563" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
       <c r="A564" t="s">
         <v>13</v>
       </c>
@@ -8517,8 +10419,11 @@
       <c r="D564">
         <v>6.55</v>
       </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E564" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
       <c r="A565" t="s">
         <v>13</v>
       </c>
@@ -8531,8 +10436,11 @@
       <c r="D565">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E565" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
       <c r="A566" t="s">
         <v>13</v>
       </c>
@@ -8545,8 +10453,11 @@
       <c r="D566">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E566" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
       <c r="A567" t="s">
         <v>13</v>
       </c>
@@ -8559,8 +10470,11 @@
       <c r="D567">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E567" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
       <c r="A568" t="s">
         <v>13</v>
       </c>
@@ -8573,8 +10487,11 @@
       <c r="D568">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E568" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
       <c r="A569" t="s">
         <v>13</v>
       </c>
@@ -8587,8 +10504,11 @@
       <c r="D569">
         <v>4</v>
       </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E569" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
       <c r="A570" t="s">
         <v>13</v>
       </c>
@@ -8601,8 +10521,11 @@
       <c r="D570">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E570" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
       <c r="A571" t="s">
         <v>13</v>
       </c>
@@ -8615,8 +10538,11 @@
       <c r="D571">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E571" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
       <c r="A572" t="s">
         <v>13</v>
       </c>
@@ -8629,8 +10555,11 @@
       <c r="D572">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E572" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
       <c r="A573" t="s">
         <v>14</v>
       </c>
@@ -8643,8 +10572,11 @@
       <c r="D573">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E573" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
       <c r="A574" t="s">
         <v>14</v>
       </c>
@@ -8657,8 +10589,11 @@
       <c r="D574">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E574" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
       <c r="A575" t="s">
         <v>14</v>
       </c>
@@ -8671,8 +10606,11 @@
       <c r="D575">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E575" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
       <c r="A576" t="s">
         <v>14</v>
       </c>
@@ -8685,8 +10623,11 @@
       <c r="D576">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E576" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
       <c r="A577" t="s">
         <v>14</v>
       </c>
@@ -8699,8 +10640,11 @@
       <c r="D577">
         <v>13.75</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E577" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
       <c r="A578" t="s">
         <v>14</v>
       </c>
@@ -8713,8 +10657,11 @@
       <c r="D578">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E578" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
       <c r="A579" t="s">
         <v>14</v>
       </c>
@@ -8727,8 +10674,11 @@
       <c r="D579">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E579" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5">
       <c r="A580" t="s">
         <v>14</v>
       </c>
@@ -8741,8 +10691,11 @@
       <c r="D580">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E580" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5">
       <c r="A581" t="s">
         <v>14</v>
       </c>
@@ -8755,8 +10708,11 @@
       <c r="D581">
         <v>3</v>
       </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E581" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5">
       <c r="A582" t="s">
         <v>21</v>
       </c>
@@ -8769,8 +10725,11 @@
       <c r="D582">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E582" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5">
       <c r="A583" t="s">
         <v>21</v>
       </c>
@@ -8783,8 +10742,11 @@
       <c r="D583">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E583" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5">
       <c r="A584" t="s">
         <v>21</v>
       </c>
@@ -8797,8 +10759,11 @@
       <c r="D584">
         <v>3.85</v>
       </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E584" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
       <c r="A585" t="s">
         <v>21</v>
       </c>
@@ -8811,8 +10776,11 @@
       <c r="D585">
         <v>3.85</v>
       </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E585" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5">
       <c r="A586" t="s">
         <v>21</v>
       </c>
@@ -8825,8 +10793,11 @@
       <c r="D586">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E586" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5">
       <c r="A587" t="s">
         <v>21</v>
       </c>
@@ -8839,8 +10810,11 @@
       <c r="D587">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E587" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
       <c r="A588" t="s">
         <v>21</v>
       </c>
@@ -8853,8 +10827,11 @@
       <c r="D588">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E588" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5">
       <c r="A589" t="s">
         <v>21</v>
       </c>
@@ -8867,8 +10844,11 @@
       <c r="D589">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E589" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
       <c r="A590" t="s">
         <v>26</v>
       </c>
@@ -8881,8 +10861,11 @@
       <c r="D590">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E590" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
       <c r="A591" t="s">
         <v>26</v>
       </c>
@@ -8895,8 +10878,11 @@
       <c r="D591">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E591" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
       <c r="A592" t="s">
         <v>26</v>
       </c>
@@ -8909,8 +10895,11 @@
       <c r="D592">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E592" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
       <c r="A593" t="s">
         <v>26</v>
       </c>
@@ -8923,8 +10912,11 @@
       <c r="D593">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E593" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
       <c r="A594" t="s">
         <v>26</v>
       </c>
@@ -8937,8 +10929,11 @@
       <c r="D594">
         <v>4</v>
       </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E594" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
       <c r="A595" t="s">
         <v>26</v>
       </c>
@@ -8951,8 +10946,11 @@
       <c r="D595">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E595" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
       <c r="A596" t="s">
         <v>26</v>
       </c>
@@ -8965,8 +10963,11 @@
       <c r="D596">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E596" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
       <c r="A597" t="s">
         <v>26</v>
       </c>
@@ -8979,8 +10980,11 @@
       <c r="D597">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E597" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
       <c r="A598" t="s">
         <v>26</v>
       </c>
@@ -8993,8 +10997,11 @@
       <c r="D598">
         <v>4.45</v>
       </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E598" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
       <c r="A599" t="s">
         <v>26</v>
       </c>
@@ -9007,8 +11014,11 @@
       <c r="D599">
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E599" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
       <c r="A600" t="s">
         <v>26</v>
       </c>
@@ -9021,8 +11031,11 @@
       <c r="D600">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E600" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
       <c r="A601" t="s">
         <v>26</v>
       </c>
@@ -9035,8 +11048,11 @@
       <c r="D601">
         <v>4</v>
       </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E601" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
       <c r="A602" t="s">
         <v>26</v>
       </c>
@@ -9049,8 +11065,11 @@
       <c r="D602">
         <v>3</v>
       </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E602" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
       <c r="A603" t="s">
         <v>26</v>
       </c>
@@ -9063,8 +11082,11 @@
       <c r="D603">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E603" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
       <c r="A604" t="s">
         <v>26</v>
       </c>
@@ -9077,8 +11099,11 @@
       <c r="D604">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E604" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
       <c r="A605" t="s">
         <v>26</v>
       </c>
@@ -9091,8 +11116,11 @@
       <c r="D605">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E605" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
       <c r="A606" t="s">
         <v>26</v>
       </c>
@@ -9105,8 +11133,11 @@
       <c r="D606">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E606" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
       <c r="A607" t="s">
         <v>26</v>
       </c>
@@ -9119,8 +11150,11 @@
       <c r="D607">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E607" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
       <c r="A608" t="s">
         <v>26</v>
       </c>
@@ -9133,8 +11167,11 @@
       <c r="D608">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E608" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
       <c r="A609" t="s">
         <v>35</v>
       </c>
@@ -9147,8 +11184,11 @@
       <c r="D609">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E609" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
       <c r="A610" t="s">
         <v>35</v>
       </c>
@@ -9161,8 +11201,11 @@
       <c r="D610">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E610" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
       <c r="A611" t="s">
         <v>35</v>
       </c>
@@ -9175,8 +11218,11 @@
       <c r="D611">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E611" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
       <c r="A612" t="s">
         <v>35</v>
       </c>
@@ -9190,7 +11236,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5">
       <c r="A613" t="s">
         <v>35</v>
       </c>
@@ -9203,8 +11249,11 @@
       <c r="D613">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E613" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
       <c r="A614" t="s">
         <v>35</v>
       </c>
@@ -9217,8 +11266,11 @@
       <c r="D614">
         <v>8</v>
       </c>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E614" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
       <c r="A615" t="s">
         <v>35</v>
       </c>
@@ -9231,8 +11283,11 @@
       <c r="D615">
         <v>7.15</v>
       </c>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E615" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
       <c r="A616" t="s">
         <v>35</v>
       </c>
@@ -9245,8 +11300,11 @@
       <c r="D616">
         <v>6.85</v>
       </c>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E616" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
       <c r="A617" t="s">
         <v>35</v>
       </c>
@@ -9259,8 +11317,11 @@
       <c r="D617">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E617" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
       <c r="A618" t="s">
         <v>35</v>
       </c>
@@ -9273,8 +11334,11 @@
       <c r="D618">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E618" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
       <c r="A619" t="s">
         <v>35</v>
       </c>
@@ -9287,8 +11351,11 @@
       <c r="D619">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E619" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
       <c r="A620" t="s">
         <v>35</v>
       </c>
@@ -9301,8 +11368,11 @@
       <c r="D620">
         <v>6.55</v>
       </c>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E620" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
       <c r="A621" t="s">
         <v>35</v>
       </c>
@@ -9315,8 +11385,11 @@
       <c r="D621">
         <v>6.55</v>
       </c>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E621" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
       <c r="A622" t="s">
         <v>35</v>
       </c>
@@ -9329,8 +11402,11 @@
       <c r="D622">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E622" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
       <c r="A623" t="s">
         <v>35</v>
       </c>
@@ -9343,8 +11419,11 @@
       <c r="D623">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E623" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
       <c r="A624" t="s">
         <v>35</v>
       </c>
@@ -9357,8 +11436,11 @@
       <c r="D624">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E624" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
       <c r="A625" t="s">
         <v>35</v>
       </c>
@@ -9371,8 +11453,11 @@
       <c r="D625">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E625" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
       <c r="A626" t="s">
         <v>13</v>
       </c>
@@ -9385,8 +11470,11 @@
       <c r="D626">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E626" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
       <c r="A627" t="s">
         <v>13</v>
       </c>
@@ -9399,8 +11487,11 @@
       <c r="D627">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E627" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
       <c r="A628" t="s">
         <v>13</v>
       </c>
@@ -9413,8 +11504,11 @@
       <c r="D628">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E628" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
       <c r="A629" t="s">
         <v>13</v>
       </c>
@@ -9428,7 +11522,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5">
       <c r="A630" t="s">
         <v>13</v>
       </c>
@@ -9441,8 +11535,11 @@
       <c r="D630">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E630" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
       <c r="A631" t="s">
         <v>13</v>
       </c>
@@ -9455,8 +11552,11 @@
       <c r="D631">
         <v>6.55</v>
       </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E631" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
       <c r="A632" t="s">
         <v>13</v>
       </c>
@@ -9469,8 +11569,11 @@
       <c r="D632">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E632" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
       <c r="A633" t="s">
         <v>13</v>
       </c>
@@ -9483,8 +11586,11 @@
       <c r="D633">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E633" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
       <c r="A634" t="s">
         <v>13</v>
       </c>
@@ -9497,8 +11603,11 @@
       <c r="D634">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E634" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
       <c r="A635" t="s">
         <v>13</v>
       </c>
@@ -9511,8 +11620,11 @@
       <c r="D635">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E635" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
       <c r="A636" t="s">
         <v>13</v>
       </c>
@@ -9525,8 +11637,11 @@
       <c r="D636">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E636" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
       <c r="A637" t="s">
         <v>13</v>
       </c>
@@ -9539,8 +11654,11 @@
       <c r="D637">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E637" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
       <c r="A638" t="s">
         <v>13</v>
       </c>
@@ -9553,8 +11671,11 @@
       <c r="D638">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E638" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
       <c r="A639" t="s">
         <v>13</v>
       </c>
@@ -9567,8 +11688,11 @@
       <c r="D639">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E639" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
       <c r="A640" t="s">
         <v>13</v>
       </c>
@@ -9581,8 +11705,11 @@
       <c r="D640">
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E640" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
       <c r="A641" t="s">
         <v>14</v>
       </c>
@@ -9595,9 +11722,628 @@
       <c r="D641">
         <v>2.85</v>
       </c>
+      <c r="E641" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="E642" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D641" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E642" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{53C6EBAC-04CF-C441-88FE-500B30F05CC6}"/>
+    <hyperlink ref="E24" r:id="rId2" xr:uid="{2FFCED32-EA01-434B-936E-143E7EFDA0EC}"/>
+    <hyperlink ref="E44" r:id="rId3" xr:uid="{592C6266-9E56-3F47-93F2-9C600C769A62}"/>
+    <hyperlink ref="E132" r:id="rId4" xr:uid="{60AC049C-8463-2E4A-A189-62E60FDBA4FB}"/>
+    <hyperlink ref="E152" r:id="rId5" xr:uid="{12A3950A-DA8E-A547-9648-A790DC4A5805}"/>
+    <hyperlink ref="E172" r:id="rId6" xr:uid="{87D42BAE-4AA8-464E-BC90-224FE75F08FC}"/>
+    <hyperlink ref="E260" r:id="rId7" xr:uid="{B0B50339-6902-8346-8ED0-1BE9121970F1}"/>
+    <hyperlink ref="E280" r:id="rId8" xr:uid="{624C1BA7-09A0-A144-A239-C79248C6A9DD}"/>
+    <hyperlink ref="E300" r:id="rId9" xr:uid="{B9352ACE-1AD6-AC44-A9F5-8DC77C626FC8}"/>
+    <hyperlink ref="E388" r:id="rId10" xr:uid="{BBFBA861-8705-1D47-AACC-DCF52EEE358C}"/>
+    <hyperlink ref="E408" r:id="rId11" xr:uid="{78F34514-CF29-A942-8859-4FDE670E3699}"/>
+    <hyperlink ref="E428" r:id="rId12" xr:uid="{D7AEA5E4-A24A-2245-9151-8A52912BD76C}"/>
+    <hyperlink ref="E516" r:id="rId13" xr:uid="{40D9A2F8-4E8B-864D-B37F-1E183741EF76}"/>
+    <hyperlink ref="E536" r:id="rId14" xr:uid="{DF5863E8-B009-464E-953C-61FF40C31CBA}"/>
+    <hyperlink ref="E556" r:id="rId15" xr:uid="{2AE933B0-580C-3743-834A-27B84D9D16F3}"/>
+    <hyperlink ref="E13" r:id="rId16" xr:uid="{55D59FD6-B597-BC43-B1CD-E8863C6060E6}"/>
+    <hyperlink ref="E33" r:id="rId17" xr:uid="{696F0FEC-1CDD-254B-92BF-117FB7B66FB7}"/>
+    <hyperlink ref="E53" r:id="rId18" xr:uid="{046597F7-C515-3540-8978-8AA00F36AF7D}"/>
+    <hyperlink ref="E113" r:id="rId19" xr:uid="{F2C96C2F-6E4B-E845-ABEA-EBDF070EDADA}"/>
+    <hyperlink ref="E141" r:id="rId20" xr:uid="{CFC0FC57-5E2A-4148-8924-02DDED82828A}"/>
+    <hyperlink ref="E161" r:id="rId21" xr:uid="{242BB61E-32DA-994D-A01E-13301203797C}"/>
+    <hyperlink ref="E181" r:id="rId22" xr:uid="{D48A06A0-2E3B-D94F-B918-12C6335A513E}"/>
+    <hyperlink ref="E241" r:id="rId23" xr:uid="{B3F319B8-6514-8D43-9101-A50037FCF33F}"/>
+    <hyperlink ref="E269" r:id="rId24" xr:uid="{52BC61B1-3C94-5F46-B0A3-25574BB3F726}"/>
+    <hyperlink ref="E289" r:id="rId25" xr:uid="{16272277-B070-CD4E-A0F5-91E0166A04E9}"/>
+    <hyperlink ref="E309" r:id="rId26" xr:uid="{427767BB-A27D-3E41-95CE-5E5702EBA2E2}"/>
+    <hyperlink ref="E369" r:id="rId27" xr:uid="{CAE3C738-03D3-6247-B591-0C0DB5D1D3C2}"/>
+    <hyperlink ref="E397" r:id="rId28" xr:uid="{B128052E-AC4D-6045-8D4E-3E95E8E4AD7B}"/>
+    <hyperlink ref="E417" r:id="rId29" xr:uid="{D25D4F6F-A8EF-8A4E-8C0B-542A67C112D8}"/>
+    <hyperlink ref="E437" r:id="rId30" xr:uid="{84579CEE-12A7-494B-98D4-3C37C8734681}"/>
+    <hyperlink ref="E497" r:id="rId31" xr:uid="{C41577F7-0A42-C747-961B-020AAA0CD5EA}"/>
+    <hyperlink ref="E525" r:id="rId32" xr:uid="{A562D956-71BA-4845-B1FD-0B1844C2BFF8}"/>
+    <hyperlink ref="E545" r:id="rId33" xr:uid="{A63D13EC-30FB-F04A-9FDC-507158DEEB8A}"/>
+    <hyperlink ref="E565" r:id="rId34" xr:uid="{83D8674A-4C62-2744-95FD-BA4AC64D9B29}"/>
+    <hyperlink ref="E625" r:id="rId35" xr:uid="{6B16DF8D-8F2F-7C4E-B60A-AD2D11743118}"/>
+    <hyperlink ref="E3" r:id="rId36" xr:uid="{4DB53B90-1161-504D-BC01-90E154DFB120}"/>
+    <hyperlink ref="E23" r:id="rId37" xr:uid="{99F2060D-B45D-E248-910B-F38D2FDFD088}"/>
+    <hyperlink ref="E43" r:id="rId38" xr:uid="{7CC89D04-1CAC-2648-AE42-D571F54FAA17}"/>
+    <hyperlink ref="E131" r:id="rId39" xr:uid="{9BFF11D9-69A0-4D40-B6CD-692549886750}"/>
+    <hyperlink ref="E151" r:id="rId40" xr:uid="{136C8AF2-C06C-D441-9062-8DE60B563276}"/>
+    <hyperlink ref="E171" r:id="rId41" xr:uid="{6CB6F2EB-EC1F-3E47-BB29-459BDDBFE85E}"/>
+    <hyperlink ref="E259" r:id="rId42" xr:uid="{8D871C23-4360-0A45-9611-D96A3643164F}"/>
+    <hyperlink ref="E279" r:id="rId43" xr:uid="{FFD80654-779A-1E46-9947-34844843F15E}"/>
+    <hyperlink ref="E299" r:id="rId44" xr:uid="{3DEFA0D2-FF20-644B-9237-50A8D212B938}"/>
+    <hyperlink ref="E387" r:id="rId45" xr:uid="{071C8026-3392-C94C-BFBE-532AF61FF598}"/>
+    <hyperlink ref="E407" r:id="rId46" xr:uid="{41B83D8C-5D2A-914F-8881-5BB1343062DD}"/>
+    <hyperlink ref="E427" r:id="rId47" xr:uid="{6C610103-FE52-6448-8712-DA5E0C988C8D}"/>
+    <hyperlink ref="E515" r:id="rId48" xr:uid="{743B6215-B56F-C743-806B-62DF38984D6A}"/>
+    <hyperlink ref="E535" r:id="rId49" xr:uid="{D2F3836F-4738-C64B-8B59-6B230451722C}"/>
+    <hyperlink ref="E555" r:id="rId50" xr:uid="{A85C51C5-3FFD-A54E-9E70-DD87791667AE}"/>
+    <hyperlink ref="E20" r:id="rId51" xr:uid="{A8E6FC55-88D8-B247-987E-5E1F525B1CB1}"/>
+    <hyperlink ref="E40" r:id="rId52" xr:uid="{7B20B3F2-EF2C-E241-9358-ADA073122313}"/>
+    <hyperlink ref="E56" r:id="rId53" xr:uid="{BC6B4B55-0F54-4D47-B4D8-CC0FB1CA4BAC}"/>
+    <hyperlink ref="E148" r:id="rId54" xr:uid="{042867EB-5252-344A-A125-7871D2625356}"/>
+    <hyperlink ref="E168" r:id="rId55" xr:uid="{66496497-9BA1-3741-8C80-5AFE4FA408F8}"/>
+    <hyperlink ref="E184" r:id="rId56" xr:uid="{0D157B24-1D10-0046-BCD3-AE67D1109E68}"/>
+    <hyperlink ref="E276" r:id="rId57" xr:uid="{0B7F82EB-3657-D14F-AD7F-42F1E498356D}"/>
+    <hyperlink ref="E296" r:id="rId58" xr:uid="{715B8FBE-F348-1249-8026-C068F8D2DA14}"/>
+    <hyperlink ref="E312" r:id="rId59" xr:uid="{3E202AB3-CFE2-094F-A385-C6F515BCCE68}"/>
+    <hyperlink ref="E404" r:id="rId60" xr:uid="{44133AB5-A6F2-8A4D-8EFD-22D4C398B3D2}"/>
+    <hyperlink ref="E424" r:id="rId61" xr:uid="{FBE925C7-9980-6C45-AED2-F74015B69ADB}"/>
+    <hyperlink ref="E440" r:id="rId62" xr:uid="{CB923822-596D-C445-877D-18F7D45059DA}"/>
+    <hyperlink ref="E532" r:id="rId63" xr:uid="{6B8036A6-61C2-7D49-B87B-622130275FC6}"/>
+    <hyperlink ref="E552" r:id="rId64" xr:uid="{097095CC-9A25-C84E-AE76-29A909AE79D2}"/>
+    <hyperlink ref="E568" r:id="rId65" xr:uid="{3554E68E-55CE-5049-872C-013F8FB3CC47}"/>
+    <hyperlink ref="E6" r:id="rId66" xr:uid="{576F3582-1F28-9341-97C0-04CAE6E35B1B}"/>
+    <hyperlink ref="E26" r:id="rId67" xr:uid="{DFCD3944-207B-D54C-896E-CE1109306FFF}"/>
+    <hyperlink ref="E46" r:id="rId68" xr:uid="{A349A442-143D-2E4A-9AD5-0389ECF40C21}"/>
+    <hyperlink ref="E134" r:id="rId69" xr:uid="{5A620141-42E2-B94F-B3C2-1ED5EC3C573E}"/>
+    <hyperlink ref="E154" r:id="rId70" xr:uid="{58DE9D60-31B6-F342-B31F-31C7A075DB2B}"/>
+    <hyperlink ref="E174" r:id="rId71" xr:uid="{62D9503C-C9EE-0345-AE84-9E062DF4A0D5}"/>
+    <hyperlink ref="E262" r:id="rId72" xr:uid="{1ED0C203-2D8F-C549-B3E7-753416F35569}"/>
+    <hyperlink ref="E282" r:id="rId73" xr:uid="{2E74745A-9042-4049-9830-F059CFDD943E}"/>
+    <hyperlink ref="E302" r:id="rId74" xr:uid="{410645C9-6D56-E84F-B5F6-0D3BBB47B26B}"/>
+    <hyperlink ref="E390" r:id="rId75" xr:uid="{88400DA2-6392-B147-8C8F-40DBBE1E0835}"/>
+    <hyperlink ref="E410" r:id="rId76" xr:uid="{88F5C248-994B-AE4B-AC50-509706308D2B}"/>
+    <hyperlink ref="E430" r:id="rId77" xr:uid="{F9A28A49-544F-624A-A8C2-9CB0AE203079}"/>
+    <hyperlink ref="E518" r:id="rId78" xr:uid="{26B53D2B-3077-004D-8242-95BFEAD511CB}"/>
+    <hyperlink ref="E538" r:id="rId79" xr:uid="{0E0D8C74-3036-8D4C-A350-4F4B8672A856}"/>
+    <hyperlink ref="E558" r:id="rId80" xr:uid="{CEC048CB-D7C6-2948-9A70-CD2C5151A34A}"/>
+    <hyperlink ref="E11" r:id="rId81" xr:uid="{7408FCFC-465F-BE4C-B0BB-B4993BAF6BE7}"/>
+    <hyperlink ref="E31" r:id="rId82" xr:uid="{88FAC1C4-044F-934F-9392-709C98CC756D}"/>
+    <hyperlink ref="E51" r:id="rId83" xr:uid="{769F0E46-803D-A84C-B0D5-63AAD4A051A9}"/>
+    <hyperlink ref="E139" r:id="rId84" xr:uid="{B3F31C14-74DB-3B49-B6AC-B0B229498DCB}"/>
+    <hyperlink ref="E159" r:id="rId85" xr:uid="{942F41B5-7A07-6C40-B078-FC79A4F876CB}"/>
+    <hyperlink ref="E179" r:id="rId86" xr:uid="{F9014784-ED79-404C-817B-6774DC3E40F8}"/>
+    <hyperlink ref="E267" r:id="rId87" xr:uid="{9FBA29EB-DD39-9A41-9D9A-684E7A2A3E48}"/>
+    <hyperlink ref="E287" r:id="rId88" xr:uid="{9BF713B3-633C-644D-9B63-03891E9811FC}"/>
+    <hyperlink ref="E307" r:id="rId89" xr:uid="{4C287C8D-4263-D144-A7C9-ADDC26BFF774}"/>
+    <hyperlink ref="E395" r:id="rId90" xr:uid="{98A3D8F9-D02A-AD4F-8D1E-23299F22B0EA}"/>
+    <hyperlink ref="E415" r:id="rId91" xr:uid="{9D6CE135-6E00-2243-8584-2132F259010C}"/>
+    <hyperlink ref="E435" r:id="rId92" xr:uid="{D5FA25FE-B768-E74C-B9F4-67F894CD4759}"/>
+    <hyperlink ref="E523" r:id="rId93" xr:uid="{BB42869D-2321-C045-A362-E3CE9C74E6DC}"/>
+    <hyperlink ref="E543" r:id="rId94" xr:uid="{DD8EBE1E-BC70-6243-B24E-B255D4853585}"/>
+    <hyperlink ref="E563" r:id="rId95" xr:uid="{DB7317EC-B569-7C4D-8E41-B635973D9B9C}"/>
+    <hyperlink ref="E10" r:id="rId96" xr:uid="{1CA853C1-ACC7-204E-A97F-AED502CE99A6}"/>
+    <hyperlink ref="E30" r:id="rId97" xr:uid="{BC7F2D43-1014-8644-9463-18DE68AB3212}"/>
+    <hyperlink ref="E50" r:id="rId98" xr:uid="{FA7AB617-CBB6-354B-9B5B-C51263AF0DE6}"/>
+    <hyperlink ref="E138" r:id="rId99" xr:uid="{DB4C6B82-1AD5-1D43-B0FD-03DB05A2C2BF}"/>
+    <hyperlink ref="E158" r:id="rId100" xr:uid="{3962052F-2842-934B-BEE1-81FA610B1016}"/>
+    <hyperlink ref="E178" r:id="rId101" xr:uid="{5DC4F528-AFD6-7445-9EF9-CDD1E60132DF}"/>
+    <hyperlink ref="E266" r:id="rId102" xr:uid="{23AA0F61-0D43-8642-9B20-492848DA3CAC}"/>
+    <hyperlink ref="E286" r:id="rId103" xr:uid="{FAA66B22-F414-9F42-B585-1BBB10EF9BD8}"/>
+    <hyperlink ref="E306" r:id="rId104" xr:uid="{0C31103B-3C8F-1045-B733-464255D7106C}"/>
+    <hyperlink ref="E394" r:id="rId105" xr:uid="{BCB541F7-1F7B-0145-B9DA-7D78121A7D55}"/>
+    <hyperlink ref="E414" r:id="rId106" xr:uid="{E4F0FA8A-FECA-5F42-BAC0-13565F9CE332}"/>
+    <hyperlink ref="E434" r:id="rId107" xr:uid="{D1C6DB2F-630D-344C-BD42-CD5F765BAEDF}"/>
+    <hyperlink ref="E522" r:id="rId108" xr:uid="{9FDC90AB-685F-C644-A421-8043B2FB7C1F}"/>
+    <hyperlink ref="E542" r:id="rId109" xr:uid="{20D416E6-E4DC-5A48-9014-60617ADE71B5}"/>
+    <hyperlink ref="E562" r:id="rId110" xr:uid="{1E403DA1-8305-AD47-B6D5-CD1EE9E47601}"/>
+    <hyperlink ref="E12" r:id="rId111" xr:uid="{2394A629-6134-5B45-B110-29A00AB3A666}"/>
+    <hyperlink ref="E32" r:id="rId112" xr:uid="{42752DA9-0340-734F-AC5C-48E5B329B291}"/>
+    <hyperlink ref="E52" r:id="rId113" xr:uid="{E540D758-1809-A344-9AB7-0B0B1CD7B233}"/>
+    <hyperlink ref="E112" r:id="rId114" xr:uid="{02E5062D-2CCE-864D-AC72-5FB41531ECA6}"/>
+    <hyperlink ref="E140" r:id="rId115" xr:uid="{16B0993B-1230-564E-80F5-FE203762A302}"/>
+    <hyperlink ref="E160" r:id="rId116" xr:uid="{08DC7DEE-B33D-E442-9E58-464DAD85CD46}"/>
+    <hyperlink ref="E180" r:id="rId117" xr:uid="{92E8375C-CC38-694F-823D-5530317CFAC4}"/>
+    <hyperlink ref="E240" r:id="rId118" xr:uid="{59006397-6AC9-934B-84D1-A19C1C23AA65}"/>
+    <hyperlink ref="E268" r:id="rId119" xr:uid="{60BA9BE6-DB89-9949-89BE-37DFFC60523D}"/>
+    <hyperlink ref="E288" r:id="rId120" xr:uid="{1CE6AF09-BFD7-0C4D-A386-BA4C17E88155}"/>
+    <hyperlink ref="E308" r:id="rId121" xr:uid="{B25522D7-E803-664C-9F3B-4B8F964D0205}"/>
+    <hyperlink ref="E368" r:id="rId122" xr:uid="{BE77144B-5156-A54E-A4F8-8B9522C5B705}"/>
+    <hyperlink ref="E396" r:id="rId123" xr:uid="{CA7FF2CA-DC8C-FD49-A56B-DEF621AF4AAD}"/>
+    <hyperlink ref="E416" r:id="rId124" xr:uid="{D1D2587A-993B-E443-AD03-8A35EB109BCC}"/>
+    <hyperlink ref="E436" r:id="rId125" xr:uid="{F4E3CF63-4181-7D4E-9EAA-D16B501C2F9B}"/>
+    <hyperlink ref="E496" r:id="rId126" xr:uid="{8149123D-BFC0-C748-AFAB-D54F91433BA7}"/>
+    <hyperlink ref="E524" r:id="rId127" xr:uid="{3F4B9698-CFF3-E840-81F4-4D9347D672D5}"/>
+    <hyperlink ref="E544" r:id="rId128" xr:uid="{AF525767-98E0-6948-AFCB-725EF37485D8}"/>
+    <hyperlink ref="E564" r:id="rId129" xr:uid="{B5BA432A-8493-C243-864B-35BAC87F2B88}"/>
+    <hyperlink ref="E624" r:id="rId130" xr:uid="{EA1F633D-6555-B646-8248-4F10FE0DA7E3}"/>
+    <hyperlink ref="E17" r:id="rId131" xr:uid="{8DBDE351-E3E6-6041-A5E7-16C4E84D55FC}"/>
+    <hyperlink ref="E37" r:id="rId132" xr:uid="{84B17ED2-C5A6-D24F-8FF9-B339FA219BA3}"/>
+    <hyperlink ref="E57" r:id="rId133" xr:uid="{CD768009-BCB9-CD45-B761-E8A28F317D49}"/>
+    <hyperlink ref="E145" r:id="rId134" xr:uid="{CC9BA2E4-3C1B-EF4B-847C-9049E7C48F6A}"/>
+    <hyperlink ref="E165" r:id="rId135" xr:uid="{EE3B6C29-7C66-E14E-B5F7-5BAEE22819CB}"/>
+    <hyperlink ref="E185" r:id="rId136" xr:uid="{ABACD4BD-D971-1F47-91A2-91288A92E1B5}"/>
+    <hyperlink ref="E273" r:id="rId137" xr:uid="{261E8451-269C-214C-8A89-CF6679896B31}"/>
+    <hyperlink ref="E293" r:id="rId138" xr:uid="{C58B9A5E-96A5-7545-A7BC-6FD67483551D}"/>
+    <hyperlink ref="E313" r:id="rId139" xr:uid="{4A48BCDE-84A9-1E4B-9095-AE7D55ED5592}"/>
+    <hyperlink ref="E401" r:id="rId140" xr:uid="{C7CD4C63-36AE-0540-8A84-FEFA5B7682D6}"/>
+    <hyperlink ref="E421" r:id="rId141" xr:uid="{7142A94A-B845-3E40-B88B-18A5328CEB8A}"/>
+    <hyperlink ref="E441" r:id="rId142" xr:uid="{59AEB2AD-706F-B54E-BB00-85F6717990E2}"/>
+    <hyperlink ref="E529" r:id="rId143" xr:uid="{14FA4FE4-D55F-0E49-A3EF-6D9158C16BD5}"/>
+    <hyperlink ref="E549" r:id="rId144" xr:uid="{DC83FBE5-BD4E-D94F-AADA-EDB13ABC133D}"/>
+    <hyperlink ref="E569" r:id="rId145" xr:uid="{B38A4FE3-44A6-584C-9F69-AEA67BFFC60C}"/>
+    <hyperlink ref="E5" r:id="rId146" xr:uid="{C5EB9E3C-2A97-C441-BA71-F698289E1027}"/>
+    <hyperlink ref="E25" r:id="rId147" xr:uid="{DA145D5C-7327-4F47-BF9D-15B6FEFB0E0F}"/>
+    <hyperlink ref="E45" r:id="rId148" xr:uid="{7A89CCA5-EB61-C644-A808-BCFE96046095}"/>
+    <hyperlink ref="E133" r:id="rId149" xr:uid="{9DD3CEA3-7333-B24B-91C1-8D4F3AEAA0B8}"/>
+    <hyperlink ref="E153" r:id="rId150" xr:uid="{CF6926DA-0EE9-B14E-9719-FD005A758794}"/>
+    <hyperlink ref="E173" r:id="rId151" xr:uid="{8076BDD1-D007-D345-8116-15ED0DBE3D8C}"/>
+    <hyperlink ref="E261" r:id="rId152" xr:uid="{1CF87AC0-DBF7-1E49-B26B-BD970EEC2264}"/>
+    <hyperlink ref="E281" r:id="rId153" xr:uid="{6D849234-E302-4046-8406-851FFC5CF4C8}"/>
+    <hyperlink ref="E301" r:id="rId154" xr:uid="{491DEC1F-79A9-0E4F-82C8-B670A4A6FA14}"/>
+    <hyperlink ref="E389" r:id="rId155" xr:uid="{B6163A35-1996-7D4F-BCF4-E4EF15375372}"/>
+    <hyperlink ref="E409" r:id="rId156" xr:uid="{4DA2352D-3E80-7845-9B0C-14574ED5D097}"/>
+    <hyperlink ref="E429" r:id="rId157" xr:uid="{F85B7FE0-A809-5745-8A4C-71338BD1DD10}"/>
+    <hyperlink ref="E517" r:id="rId158" xr:uid="{34BE6690-579E-BC4C-A1EB-0F446245602D}"/>
+    <hyperlink ref="E537" r:id="rId159" xr:uid="{1125A451-7CC4-D244-A782-3C1A6EF95409}"/>
+    <hyperlink ref="E557" r:id="rId160" xr:uid="{52AA5A92-9674-3A41-8D47-00226482788B}"/>
+    <hyperlink ref="E9" r:id="rId161" xr:uid="{BA322832-B77C-BF45-9EB7-EEC2652C5F9D}"/>
+    <hyperlink ref="E29" r:id="rId162" xr:uid="{47EDE755-501F-974D-8076-9A6E7360C1BA}"/>
+    <hyperlink ref="E49" r:id="rId163" xr:uid="{5A7E54F9-2A36-3F4F-896A-ED74B1BA5FBB}"/>
+    <hyperlink ref="E137" r:id="rId164" xr:uid="{63A53244-FDD4-CB40-AA56-79D657337E6E}"/>
+    <hyperlink ref="E157" r:id="rId165" xr:uid="{0CB3805B-7E47-8849-A4D0-38140DFEEA2C}"/>
+    <hyperlink ref="E177" r:id="rId166" xr:uid="{46B16477-D7C6-D940-B0D4-8AFA4DAFBA32}"/>
+    <hyperlink ref="E265" r:id="rId167" xr:uid="{44609EC2-9AD7-2B4F-961A-FE8AF248C1E4}"/>
+    <hyperlink ref="E285" r:id="rId168" xr:uid="{2424F09C-7ADB-8C4A-A3BC-01C5CBDAB566}"/>
+    <hyperlink ref="E305" r:id="rId169" xr:uid="{5F6B8D62-C2F1-3F43-A75D-15D47A3AEAEB}"/>
+    <hyperlink ref="E393" r:id="rId170" xr:uid="{93497B9F-7716-3B4A-B458-B319316FF93E}"/>
+    <hyperlink ref="E413" r:id="rId171" xr:uid="{5118BACB-3A7D-8548-9675-16CCB9D3FC18}"/>
+    <hyperlink ref="E433" r:id="rId172" xr:uid="{0B4122E4-D993-5B4A-A193-A39BF3649A89}"/>
+    <hyperlink ref="E521" r:id="rId173" xr:uid="{3E73CC3C-A337-D441-BAAE-E85515C21A77}"/>
+    <hyperlink ref="E541" r:id="rId174" xr:uid="{82A98CF4-A985-A341-8675-DB85F7F335F7}"/>
+    <hyperlink ref="E561" r:id="rId175" xr:uid="{1BD68FCF-FEE7-9F4A-A1E5-C6ADEB2AB24D}"/>
+    <hyperlink ref="E7" r:id="rId176" xr:uid="{93E34E97-2E10-1F4E-A5F5-6C3A7A766CB2}"/>
+    <hyperlink ref="E8" r:id="rId177" xr:uid="{5CABFA95-F784-904C-AE03-8B64A6F916A1}"/>
+    <hyperlink ref="E27:E28" r:id="rId178" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{9E544F47-FF4F-2941-B284-D9C7E9B03624}"/>
+    <hyperlink ref="E47" r:id="rId179" xr:uid="{343C3278-4119-774A-9118-5DD58429C07B}"/>
+    <hyperlink ref="E135:E136" r:id="rId180" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{4D87441E-F814-AD42-91FC-BDCD4FF017C0}"/>
+    <hyperlink ref="E155:E156" r:id="rId181" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{1779A7AB-2343-4642-BCDA-F7C497A760F5}"/>
+    <hyperlink ref="E175" r:id="rId182" xr:uid="{FC0A67A1-9E7D-4B49-AC50-60131687B7D2}"/>
+    <hyperlink ref="E263:E264" r:id="rId183" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{88969EBA-C3A3-3548-B0F2-2F436D78A962}"/>
+    <hyperlink ref="E283:E284" r:id="rId184" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{6919EEC4-4A15-C34B-8F40-BDC7D87158EC}"/>
+    <hyperlink ref="E303" r:id="rId185" xr:uid="{4D106F4D-2434-AB4B-A4D6-35CA6BB4EF3F}"/>
+    <hyperlink ref="E391:E392" r:id="rId186" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{C1C4ECAF-EA65-114A-A77C-1ABA1947BB9D}"/>
+    <hyperlink ref="E411:E412" r:id="rId187" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{983C80DD-8BB1-9141-9A1A-7DE46FC33397}"/>
+    <hyperlink ref="E431" r:id="rId188" xr:uid="{B9AC2D03-73E6-564A-A2EE-F49F8060385A}"/>
+    <hyperlink ref="E519:E520" r:id="rId189" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{AC19DC78-BC2E-0341-82ED-D241E3C1490A}"/>
+    <hyperlink ref="E539:E540" r:id="rId190" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{22880354-BA6E-D848-8267-EBFB870C1F5D}"/>
+    <hyperlink ref="E559" r:id="rId191" xr:uid="{ECFED108-92E7-2C48-B0F9-55360F16562D}"/>
+    <hyperlink ref="E48" r:id="rId192" xr:uid="{8579CC14-AD9A-1448-BFF0-33FF4ABC627B}"/>
+    <hyperlink ref="E176" r:id="rId193" xr:uid="{7E5C8699-A4E4-0B45-ADEB-364B2D44C290}"/>
+    <hyperlink ref="E304" r:id="rId194" xr:uid="{1D0B3092-ADD4-2B4A-843D-86D2AB253F38}"/>
+    <hyperlink ref="E432" r:id="rId195" xr:uid="{4514CCE5-B1D5-684B-9142-2BC41C05A1A9}"/>
+    <hyperlink ref="E560" r:id="rId196" xr:uid="{1F5831CE-3C20-E34F-BFCA-0ED270029D6C}"/>
+    <hyperlink ref="E15" r:id="rId197" xr:uid="{E228B421-8951-5C42-B126-4DD98969E58E}"/>
+    <hyperlink ref="E35" r:id="rId198" xr:uid="{E8D04C6C-EB0A-2444-9EBD-804881FF938D}"/>
+    <hyperlink ref="E55" r:id="rId199" xr:uid="{BE62FCC3-354E-AC49-A8D8-DBD7E759FF8D}"/>
+    <hyperlink ref="E143" r:id="rId200" xr:uid="{9DBE499C-FE9B-9348-93C8-B15DCF51470B}"/>
+    <hyperlink ref="E163" r:id="rId201" xr:uid="{5F06E789-5338-BF41-B57A-E6C5716D13A7}"/>
+    <hyperlink ref="E183" r:id="rId202" xr:uid="{0654A80C-1F35-CF44-828D-DA039400E4D8}"/>
+    <hyperlink ref="E271" r:id="rId203" xr:uid="{CDBF6014-062C-AA43-B34D-FC1350178D66}"/>
+    <hyperlink ref="E291" r:id="rId204" xr:uid="{3E0D683B-85B3-7A4F-A60A-DBCB730AEDC4}"/>
+    <hyperlink ref="E311" r:id="rId205" xr:uid="{6AC0D95D-A9AF-814C-A9D1-2DF0E5AE909D}"/>
+    <hyperlink ref="E399" r:id="rId206" xr:uid="{2A236C58-16B4-644F-AF26-F1E414F625A2}"/>
+    <hyperlink ref="E419" r:id="rId207" xr:uid="{2C708E12-3169-054E-B721-28B0906ED17D}"/>
+    <hyperlink ref="E439" r:id="rId208" xr:uid="{03149B43-AA07-8449-96F6-EC594BBA12D1}"/>
+    <hyperlink ref="E527" r:id="rId209" xr:uid="{0F274B41-70BE-8145-980A-5145105F2ADC}"/>
+    <hyperlink ref="E547" r:id="rId210" xr:uid="{A24B4343-4DB3-554F-94FB-58562DC57B10}"/>
+    <hyperlink ref="E567" r:id="rId211" xr:uid="{43854FFD-D572-3349-8EDC-CABFE2EFB909}"/>
+    <hyperlink ref="E14" r:id="rId212" xr:uid="{B9901A7B-920A-FF42-9356-F5DEA03746B5}"/>
+    <hyperlink ref="E34" r:id="rId213" xr:uid="{692D1E62-357B-0F40-8E65-3FC78208AD4F}"/>
+    <hyperlink ref="E54" r:id="rId214" xr:uid="{8D539190-D962-5E45-9044-276BCD61DBB6}"/>
+    <hyperlink ref="E142" r:id="rId215" xr:uid="{302C1678-57FC-5E43-BE4A-4B1310EFA55E}"/>
+    <hyperlink ref="E162" r:id="rId216" xr:uid="{737192C0-EC99-284E-A0DF-B38ECB6A1D4D}"/>
+    <hyperlink ref="E182" r:id="rId217" xr:uid="{165D3AAD-9161-834E-80B8-ED438753D97B}"/>
+    <hyperlink ref="E270" r:id="rId218" xr:uid="{219CCD01-954C-7F46-8012-87A16F7B29C6}"/>
+    <hyperlink ref="E290" r:id="rId219" xr:uid="{6467ED67-BEC1-D545-88C9-869EF6B8C439}"/>
+    <hyperlink ref="E310" r:id="rId220" xr:uid="{BEEE85D7-ACD9-1642-B355-DACEC43AA763}"/>
+    <hyperlink ref="E398" r:id="rId221" xr:uid="{481430FA-5A47-4443-8074-EF5B11215ABB}"/>
+    <hyperlink ref="E418" r:id="rId222" xr:uid="{5B904AFD-A52A-0944-8A22-A664978B1D1B}"/>
+    <hyperlink ref="E438" r:id="rId223" xr:uid="{92BEC331-CDD2-FD4C-AADC-A31B2AF13B77}"/>
+    <hyperlink ref="E526" r:id="rId224" xr:uid="{449688AD-104D-D949-A10E-9CF26AFD6713}"/>
+    <hyperlink ref="E546" r:id="rId225" xr:uid="{DEBC2A3D-E4C9-0347-B243-EC8C05C78A5E}"/>
+    <hyperlink ref="E566" r:id="rId226" xr:uid="{621A6CF0-B3FF-E446-9504-11D30552EBF6}"/>
+    <hyperlink ref="E65" r:id="rId227" xr:uid="{0C32FF86-E1B0-5541-BB7C-3451039D0D97}"/>
+    <hyperlink ref="E193" r:id="rId228" xr:uid="{2E04ACB8-66D3-9E43-B335-501CB7A409E6}"/>
+    <hyperlink ref="E321" r:id="rId229" xr:uid="{72CE33A7-714E-6042-A532-1011BA68DB2F}"/>
+    <hyperlink ref="E449" r:id="rId230" xr:uid="{17320089-70E6-1E4B-817D-2592D2E205C6}"/>
+    <hyperlink ref="E577" r:id="rId231" xr:uid="{945338D1-8640-9142-AE63-5C0C8FAF48EF}"/>
+    <hyperlink ref="E69" r:id="rId232" xr:uid="{19CC2D14-5CE9-AE48-A266-10045E7BDCFC}"/>
+    <hyperlink ref="E197" r:id="rId233" xr:uid="{7E054F16-7E24-8045-8A1D-F7F4B5E24D7F}"/>
+    <hyperlink ref="E325" r:id="rId234" xr:uid="{02B832E0-F751-6548-AD76-150CECF1B52E}"/>
+    <hyperlink ref="E453" r:id="rId235" xr:uid="{1F7187E9-5D9D-404A-90EF-506E420D9041}"/>
+    <hyperlink ref="E581" r:id="rId236" xr:uid="{C6D7CF26-09A5-B041-9135-27D6EB2C9B53}"/>
+    <hyperlink ref="E16" r:id="rId237" xr:uid="{6D3DCAFB-0E99-7D45-9829-3F1DCD3CA0AA}"/>
+    <hyperlink ref="E36" r:id="rId238" xr:uid="{2D0528DD-70C3-2C4A-BA2E-BBB3083B7349}"/>
+    <hyperlink ref="E64" r:id="rId239" xr:uid="{F30278CC-0E95-1048-AA5B-4B4ACC9A1393}"/>
+    <hyperlink ref="E144" r:id="rId240" xr:uid="{0065542C-072C-1342-9939-979C3856EAF5}"/>
+    <hyperlink ref="E164" r:id="rId241" xr:uid="{BFBC62F9-553E-034B-A52C-382289833B28}"/>
+    <hyperlink ref="E192" r:id="rId242" xr:uid="{8725E135-BCBB-E343-8B68-41BFDFD0928C}"/>
+    <hyperlink ref="E272" r:id="rId243" xr:uid="{3342087D-CDCB-484F-9D4F-7DB8F3974DEE}"/>
+    <hyperlink ref="E292" r:id="rId244" xr:uid="{17020C9D-B631-974A-8389-1501732FF5DB}"/>
+    <hyperlink ref="E320" r:id="rId245" xr:uid="{7E03FDFE-C7CC-A44F-AD4D-479F2FF66AED}"/>
+    <hyperlink ref="E400" r:id="rId246" xr:uid="{BB8EFB08-BF6F-9649-8F39-B0DD469A2403}"/>
+    <hyperlink ref="E420" r:id="rId247" xr:uid="{BDEBCFF4-4080-9346-8D7D-79BD8CA1FBB4}"/>
+    <hyperlink ref="E448" r:id="rId248" xr:uid="{1EAE7BEC-3E4C-CD44-8E1F-48F43B69CA4C}"/>
+    <hyperlink ref="E528" r:id="rId249" xr:uid="{8B2E4A57-2C53-994A-8821-44FA8857611E}"/>
+    <hyperlink ref="E548" r:id="rId250" xr:uid="{DCC4428F-5241-544C-A195-32E7508ED047}"/>
+    <hyperlink ref="E576" r:id="rId251" xr:uid="{BB96E72A-AA8A-BF41-91A8-FEDE2563C5E3}"/>
+    <hyperlink ref="E18" r:id="rId252" xr:uid="{379DE4D6-D203-6448-99CD-E724EA9BBA8C}"/>
+    <hyperlink ref="E38" r:id="rId253" xr:uid="{AA6EC971-C011-B541-9201-D3BF1158FE20}"/>
+    <hyperlink ref="E58" r:id="rId254" xr:uid="{6B5CEE7D-2C4E-844B-88F4-806359021B42}"/>
+    <hyperlink ref="E146" r:id="rId255" xr:uid="{67A1B8B3-606E-B440-9860-0EE2336A7AAD}"/>
+    <hyperlink ref="E166" r:id="rId256" xr:uid="{0133BB93-9F80-F046-A6EF-98F59BE2E1AA}"/>
+    <hyperlink ref="E186" r:id="rId257" xr:uid="{9D18D69A-4D96-1C46-8053-738F68B524C1}"/>
+    <hyperlink ref="E274" r:id="rId258" xr:uid="{293874B3-D420-BB40-9CE8-AECAABDEBF9D}"/>
+    <hyperlink ref="E294" r:id="rId259" xr:uid="{43C9ABB5-FA78-6145-9C0F-28BB0F2229FC}"/>
+    <hyperlink ref="E314" r:id="rId260" xr:uid="{7C09A030-54F8-E94B-8BC2-0138170D7B9D}"/>
+    <hyperlink ref="E402" r:id="rId261" xr:uid="{2E757B37-F5C8-7943-A684-6444C1968DCA}"/>
+    <hyperlink ref="E422" r:id="rId262" xr:uid="{DB33C444-379F-7343-A88F-28C7F0C10DC9}"/>
+    <hyperlink ref="E442" r:id="rId263" xr:uid="{BBA19AAA-3F8E-3D41-B22E-33E49460B05A}"/>
+    <hyperlink ref="E530" r:id="rId264" xr:uid="{AD75D116-ADEC-BF46-8536-77ACE4CE9DEA}"/>
+    <hyperlink ref="E550" r:id="rId265" xr:uid="{80F9294A-EF59-5840-99BC-28423FD0FB58}"/>
+    <hyperlink ref="E570" r:id="rId266" xr:uid="{D80EB90A-A49F-5D46-A5FD-E9430866B123}"/>
+    <hyperlink ref="E19" r:id="rId267" xr:uid="{8E0BA78F-7ED8-B140-88BA-98F77A2BB34D}"/>
+    <hyperlink ref="E39" r:id="rId268" xr:uid="{AA97DDD2-0E0B-924F-B039-3CD1F991BCC8}"/>
+    <hyperlink ref="E59" r:id="rId269" xr:uid="{1BE572E3-8B08-484E-A863-5D6F568ACF80}"/>
+    <hyperlink ref="E147" r:id="rId270" xr:uid="{EFD1A658-366F-FB4E-98A1-ABA82125A65E}"/>
+    <hyperlink ref="E167" r:id="rId271" xr:uid="{D7F4FFB0-22EB-DC49-8B88-690B17A510AE}"/>
+    <hyperlink ref="E187" r:id="rId272" xr:uid="{2B96CDDC-EBCD-D740-8246-6A44F657A8FC}"/>
+    <hyperlink ref="E275" r:id="rId273" xr:uid="{265661CA-55F5-E14B-9B33-652772701C81}"/>
+    <hyperlink ref="E295" r:id="rId274" xr:uid="{3060177B-ECAA-B848-B607-0930DBE382EF}"/>
+    <hyperlink ref="E315" r:id="rId275" xr:uid="{420AF9BC-9E73-6C4C-A1F2-4BD0EA6BA6B1}"/>
+    <hyperlink ref="E403" r:id="rId276" xr:uid="{9A90DC3B-8B18-FB4F-8BB8-294F953A81CD}"/>
+    <hyperlink ref="E423" r:id="rId277" xr:uid="{EF7409F3-3467-174A-8175-B1CDD6F638BE}"/>
+    <hyperlink ref="E443" r:id="rId278" xr:uid="{9332E1FC-E752-E44D-949C-8EE361D1248D}"/>
+    <hyperlink ref="E531" r:id="rId279" xr:uid="{8205FD45-49B4-9142-ABC4-16C43B119534}"/>
+    <hyperlink ref="E551" r:id="rId280" xr:uid="{987BADB9-7962-7A4A-84E7-CFFD252ACE00}"/>
+    <hyperlink ref="E571" r:id="rId281" xr:uid="{D4514C35-18F4-654E-9E58-CFC754A3102C}"/>
+    <hyperlink ref="E102" r:id="rId282" xr:uid="{596077BE-5A82-554A-86F3-39F0E5ECD77B}"/>
+    <hyperlink ref="E119" r:id="rId283" xr:uid="{0E4FF34D-2781-8D4C-9601-95506E70CFC4}"/>
+    <hyperlink ref="E230" r:id="rId284" xr:uid="{51E2F56B-A91D-3C48-BAC0-DF508FBCB778}"/>
+    <hyperlink ref="E247" r:id="rId285" xr:uid="{318FAE24-7428-0B4B-A32B-3F2D7B7F9711}"/>
+    <hyperlink ref="E358" r:id="rId286" xr:uid="{2E9351A7-677D-6447-93B1-021529598805}"/>
+    <hyperlink ref="E375" r:id="rId287" xr:uid="{CD69F5CF-1537-FC46-9C38-5187AFD46EA3}"/>
+    <hyperlink ref="E486" r:id="rId288" xr:uid="{402EA39F-54FC-E146-AD83-793EB606EF49}"/>
+    <hyperlink ref="E503" r:id="rId289" xr:uid="{8AF927C8-FFB9-7046-A241-DF4B4991742A}"/>
+    <hyperlink ref="E614" r:id="rId290" xr:uid="{150C7A9D-7E47-004C-8AC8-D9CACF818CC2}"/>
+    <hyperlink ref="E631" r:id="rId291" xr:uid="{541DEBBB-CBF5-C54B-8629-9B75F4453E65}"/>
+    <hyperlink ref="E101" r:id="rId292" xr:uid="{7A3BF476-EC2B-5D45-998C-3EEBE88CCB48}"/>
+    <hyperlink ref="E118" r:id="rId293" xr:uid="{708F7938-C526-5B45-85A0-139F35F86B95}"/>
+    <hyperlink ref="E229" r:id="rId294" xr:uid="{9E1F3D19-5638-FF4C-9FB7-9B134EF66E4C}"/>
+    <hyperlink ref="E246" r:id="rId295" xr:uid="{39F6A5B5-6AE1-AF4B-AE3B-8EFC0526A200}"/>
+    <hyperlink ref="E357" r:id="rId296" xr:uid="{74160366-72D5-F04B-A275-66CC5A85A3DF}"/>
+    <hyperlink ref="E374" r:id="rId297" xr:uid="{766E4B7B-141F-3041-A571-EC69B6D48E7E}"/>
+    <hyperlink ref="E485" r:id="rId298" xr:uid="{40267B64-15E6-8948-8925-8679ED8F1816}"/>
+    <hyperlink ref="E502" r:id="rId299" xr:uid="{7912C3F4-D687-1742-80FA-BB145D1A1509}"/>
+    <hyperlink ref="E613" r:id="rId300" xr:uid="{FB1D1A58-79CF-DC40-97D1-DC7F8CED36FF}"/>
+    <hyperlink ref="E630" r:id="rId301" xr:uid="{C7411F09-96BA-1644-BC80-3A0F11A44F29}"/>
+    <hyperlink ref="E106" r:id="rId302" xr:uid="{9B67DD84-7FCA-8C4A-B46F-BA2BD6D9215A}"/>
+    <hyperlink ref="E123" r:id="rId303" xr:uid="{278FF8F5-DCD8-7E4B-A5B1-57322994A8D7}"/>
+    <hyperlink ref="E234" r:id="rId304" xr:uid="{65DBB48B-DC4C-CE4E-928B-0AAE893D93D0}"/>
+    <hyperlink ref="E251" r:id="rId305" xr:uid="{D483B42E-C092-F045-B7E7-C7DAEDA47A35}"/>
+    <hyperlink ref="E362" r:id="rId306" xr:uid="{856429A2-E8AA-FE42-880C-46B537241002}"/>
+    <hyperlink ref="E379" r:id="rId307" xr:uid="{BFC12B5C-FBE2-7C4C-A7BD-5426A2096CEE}"/>
+    <hyperlink ref="E490" r:id="rId308" xr:uid="{20E8646F-EC8D-124D-953B-C8D0C5559D58}"/>
+    <hyperlink ref="E507" r:id="rId309" xr:uid="{827D4F9C-986D-F84E-85E6-AC12BD6AC2C9}"/>
+    <hyperlink ref="E618" r:id="rId310" xr:uid="{C43FAA6D-B5C1-6742-AC10-D6747614F018}"/>
+    <hyperlink ref="E635" r:id="rId311" xr:uid="{9C937D99-CF1F-A646-AE9A-30211335E1B5}"/>
+    <hyperlink ref="E105" r:id="rId312" xr:uid="{90FC790F-92B8-A148-A5EC-AA806537C05B}"/>
+    <hyperlink ref="E122" r:id="rId313" xr:uid="{4B692123-83A9-B149-AA70-6F38854D302E}"/>
+    <hyperlink ref="E233" r:id="rId314" xr:uid="{F7FC4A59-83CB-EF41-9F8B-1B9573B494E7}"/>
+    <hyperlink ref="E250" r:id="rId315" xr:uid="{A230E3F4-0EA7-DE4F-99CF-0CEB14124ED7}"/>
+    <hyperlink ref="E361" r:id="rId316" xr:uid="{0E8A0B79-133B-1E43-9F2C-F40130DCCB83}"/>
+    <hyperlink ref="E378" r:id="rId317" xr:uid="{A0C58F11-412E-664C-862A-A3B58819A7F4}"/>
+    <hyperlink ref="E489" r:id="rId318" xr:uid="{411E9757-C3EC-B54F-B3A7-F4385A9DFF1F}"/>
+    <hyperlink ref="E506" r:id="rId319" xr:uid="{B09F302C-101B-D84A-A053-7BEE36CAA53D}"/>
+    <hyperlink ref="E617" r:id="rId320" xr:uid="{A8C3870A-BC20-AB4A-9D0C-0D67B8CE9D18}"/>
+    <hyperlink ref="E634" r:id="rId321" xr:uid="{93A3C372-F5AF-994C-8AE8-7DC0A34CAEFD}"/>
+    <hyperlink ref="E103" r:id="rId322" xr:uid="{2F3C2302-1B5A-D044-BFD5-DFC461148919}"/>
+    <hyperlink ref="E120" r:id="rId323" xr:uid="{474B82AD-6069-D64E-A9CB-B4C46D06EB70}"/>
+    <hyperlink ref="E231" r:id="rId324" xr:uid="{E81FE743-2924-E44A-82DA-1D74CFD0E54D}"/>
+    <hyperlink ref="E248" r:id="rId325" xr:uid="{BDD23A32-1B02-6745-A861-C0B953515E08}"/>
+    <hyperlink ref="E359" r:id="rId326" xr:uid="{28E06FC1-44A0-4E46-8864-66BC1FE88CE2}"/>
+    <hyperlink ref="E376" r:id="rId327" xr:uid="{24144449-E87D-EB47-95A5-A664337B2A5A}"/>
+    <hyperlink ref="E487" r:id="rId328" xr:uid="{DFDCE9D0-2016-6F41-82AA-45DE67D7AF3B}"/>
+    <hyperlink ref="E504" r:id="rId329" xr:uid="{45BB9423-993F-3E44-A0F3-FF84E7389CC0}"/>
+    <hyperlink ref="E615" r:id="rId330" xr:uid="{DF1BCCA6-1699-DB47-9D8E-26B66985E1D2}"/>
+    <hyperlink ref="E632" r:id="rId331" xr:uid="{720EAB3E-7F60-694F-AB76-D08A93CF7A82}"/>
+    <hyperlink ref="E104" r:id="rId332" xr:uid="{C9B3036E-9584-5740-B494-88C62E944E19}"/>
+    <hyperlink ref="E121" r:id="rId333" xr:uid="{D8F3C289-4118-8A4E-92A3-11047900E7EB}"/>
+    <hyperlink ref="E232" r:id="rId334" xr:uid="{FD7B9C1A-4BF9-5143-ADFF-5C5E13F57733}"/>
+    <hyperlink ref="E249" r:id="rId335" xr:uid="{F56C883F-B902-B744-9376-2A1A9698B3BE}"/>
+    <hyperlink ref="E360" r:id="rId336" xr:uid="{79EBF08B-5E92-594B-83D9-E741E46F0D23}"/>
+    <hyperlink ref="E377" r:id="rId337" xr:uid="{3DE0C158-015D-6E4F-875E-E9F5414D39F0}"/>
+    <hyperlink ref="E488" r:id="rId338" xr:uid="{8EFDE01F-5998-4446-B818-D2662BDC6102}"/>
+    <hyperlink ref="E505" r:id="rId339" xr:uid="{C18105E2-652B-C34A-B0A3-5EEF97475001}"/>
+    <hyperlink ref="E616" r:id="rId340" xr:uid="{AAD3F4ED-5EAB-3C4E-8CF5-369C6F537404}"/>
+    <hyperlink ref="E633" r:id="rId341" xr:uid="{545821D5-CA0F-514A-BCCC-1BD7DF024C52}"/>
+    <hyperlink ref="E111" r:id="rId342" xr:uid="{EA378D49-4B71-D84E-B431-E411AEA2051A}"/>
+    <hyperlink ref="E128" r:id="rId343" xr:uid="{756A5026-EE21-0F49-94C6-7B70615C8D87}"/>
+    <hyperlink ref="E239" r:id="rId344" xr:uid="{AD22BD7F-81C7-C64B-AB28-F572A62E02F6}"/>
+    <hyperlink ref="E256" r:id="rId345" xr:uid="{F6A91DB9-82FC-C347-B5FB-D2499A7D526B}"/>
+    <hyperlink ref="E367" r:id="rId346" xr:uid="{D8BAED0F-5EC0-FA47-9D03-DB0FBAE447FC}"/>
+    <hyperlink ref="E384" r:id="rId347" xr:uid="{C10EBAFD-D895-8D43-8043-E1A1AEDDFAC6}"/>
+    <hyperlink ref="E495" r:id="rId348" xr:uid="{430C5CD1-4387-1D49-B9E6-4DC8CA1602A7}"/>
+    <hyperlink ref="E512" r:id="rId349" xr:uid="{6CFA20B6-7842-E246-9744-27499D080DD9}"/>
+    <hyperlink ref="E623" r:id="rId350" xr:uid="{49E8515D-BE84-1F41-A17F-FEDC89934EBA}"/>
+    <hyperlink ref="E640" r:id="rId351" xr:uid="{6563D03B-6279-D74B-B18E-ED9AD4ADFC9E}"/>
+    <hyperlink ref="E110" r:id="rId352" xr:uid="{9F27A8FB-355C-4647-9B61-B8DF294DC836}"/>
+    <hyperlink ref="E127" r:id="rId353" xr:uid="{8C847FDB-78C8-D944-A5C3-4B664E2FE0A8}"/>
+    <hyperlink ref="E238" r:id="rId354" xr:uid="{A7A422AA-ED5E-594E-A268-F4BAD8E9604B}"/>
+    <hyperlink ref="E255" r:id="rId355" xr:uid="{4ED5061C-F371-DA49-BDC4-BF6BEA561BDA}"/>
+    <hyperlink ref="E366" r:id="rId356" xr:uid="{F54147D5-CBD5-4E4E-A77D-90459802A2E8}"/>
+    <hyperlink ref="E383" r:id="rId357" xr:uid="{775C5A5D-3395-B940-A11E-409E216B5DEC}"/>
+    <hyperlink ref="E494" r:id="rId358" xr:uid="{13190FF4-B7FE-974B-AF27-677D0BE6F02A}"/>
+    <hyperlink ref="E511" r:id="rId359" xr:uid="{704AA257-E1A9-BE4C-BEBC-6599DAC85623}"/>
+    <hyperlink ref="E622" r:id="rId360" xr:uid="{213C0E59-CB5B-404B-8016-3EFC21017D8A}"/>
+    <hyperlink ref="E639" r:id="rId361" xr:uid="{90FB22B2-E5F8-5A4F-98FA-1E3213FDD937}"/>
+    <hyperlink ref="E107" r:id="rId362" xr:uid="{EE8AEC8F-6A35-824E-AA84-C1FBA614A186}"/>
+    <hyperlink ref="E125" r:id="rId363" xr:uid="{96B5FD0D-55C4-844A-AC5A-3B04579892B3}"/>
+    <hyperlink ref="E235" r:id="rId364" xr:uid="{96F241DD-9558-DE4F-BC94-19BF883A583A}"/>
+    <hyperlink ref="E253" r:id="rId365" xr:uid="{C9070B25-9D80-B344-9538-0B5A8C26C980}"/>
+    <hyperlink ref="E363" r:id="rId366" xr:uid="{703735E4-F6A9-1441-8F05-79294C55A510}"/>
+    <hyperlink ref="E381" r:id="rId367" xr:uid="{293714FC-8BE6-AB44-AE6F-7193AC0E8CA0}"/>
+    <hyperlink ref="E491" r:id="rId368" xr:uid="{EE9E2BDB-F27A-2F4D-8275-9C636DEEF2C5}"/>
+    <hyperlink ref="E509" r:id="rId369" xr:uid="{71EF6FD1-3932-8E40-8926-A9D7F0240317}"/>
+    <hyperlink ref="E619" r:id="rId370" xr:uid="{4A15CA85-0B2B-A344-B017-2B8A5148423C}"/>
+    <hyperlink ref="E637" r:id="rId371" xr:uid="{DC5738B0-D563-9343-9265-1B4207CD5FB9}"/>
+    <hyperlink ref="E108" r:id="rId372" xr:uid="{4CE37862-CDFA-4741-87C9-5B2BB63BA5D0}"/>
+    <hyperlink ref="E124" r:id="rId373" xr:uid="{26F54FDA-1704-1C41-925F-D49CA72D2E90}"/>
+    <hyperlink ref="E236" r:id="rId374" xr:uid="{5D5C34AF-3186-6F4A-ADAF-CCB812103731}"/>
+    <hyperlink ref="E252" r:id="rId375" xr:uid="{6D7C98EC-D379-BE41-A9CC-A9BF3ADEFE6E}"/>
+    <hyperlink ref="E364" r:id="rId376" xr:uid="{132CD748-C94F-0C40-8CDD-62D5262038B5}"/>
+    <hyperlink ref="E380" r:id="rId377" xr:uid="{48666F12-AB5D-6F4B-8CF3-EDD10AF9AE90}"/>
+    <hyperlink ref="E492" r:id="rId378" xr:uid="{3C4A94D2-19EA-4E4B-B7A5-25BD6E2AC842}"/>
+    <hyperlink ref="E508" r:id="rId379" xr:uid="{456FCA6E-E816-0B40-8F6E-77B82D8FBABF}"/>
+    <hyperlink ref="E620" r:id="rId380" xr:uid="{58E827A7-5004-A54B-8292-CF952E468F5E}"/>
+    <hyperlink ref="E636" r:id="rId381" xr:uid="{B0E42FC5-B71E-BC46-9543-0CA8E044BB90}"/>
+    <hyperlink ref="E109" r:id="rId382" xr:uid="{A9DF63E8-B25D-D74B-9A6C-09831F587747}"/>
+    <hyperlink ref="E126" r:id="rId383" xr:uid="{B2642FAE-D778-944F-8F80-65DC157FDFD3}"/>
+    <hyperlink ref="E237" r:id="rId384" xr:uid="{5E13F32C-11DF-BE4A-9CB5-7F263F1AD741}"/>
+    <hyperlink ref="E254" r:id="rId385" xr:uid="{2864B8CD-C94B-2F47-A5D9-01D091D4F134}"/>
+    <hyperlink ref="E365" r:id="rId386" xr:uid="{22B8F6EE-6C4A-814C-9079-BD3AE23DA31A}"/>
+    <hyperlink ref="E382" r:id="rId387" xr:uid="{234E1874-7D64-3F40-B943-42C6A71A71DC}"/>
+    <hyperlink ref="E493" r:id="rId388" xr:uid="{B7C8761F-E805-9843-AC4D-B73A8208AA45}"/>
+    <hyperlink ref="E510" r:id="rId389" xr:uid="{5366038E-D8EC-C040-8181-9501C1F5899F}"/>
+    <hyperlink ref="E621" r:id="rId390" xr:uid="{2F353FD8-754E-6643-A5E6-C912128D40D2}"/>
+    <hyperlink ref="E638" r:id="rId391" xr:uid="{D2C77416-7148-D34D-9CBB-492B24601D71}"/>
+    <hyperlink ref="E63" r:id="rId392" xr:uid="{E8BC7691-71C9-2A4F-8A6C-60711EB5969D}"/>
+    <hyperlink ref="E191" r:id="rId393" xr:uid="{86184692-C4AE-3043-B901-E37756F6390B}"/>
+    <hyperlink ref="E319" r:id="rId394" xr:uid="{59C31FE4-CA10-1440-8835-87CAE0A36BE4}"/>
+    <hyperlink ref="E447" r:id="rId395" xr:uid="{00D61E4C-8C32-C241-9B96-6B06E775656B}"/>
+    <hyperlink ref="E575" r:id="rId396" xr:uid="{BD87922B-5BA8-434D-B240-13C4100BCEFC}"/>
+    <hyperlink ref="E67" r:id="rId397" xr:uid="{AFC73C51-B4A9-5B4A-8149-F7F88836EFF2}"/>
+    <hyperlink ref="E195" r:id="rId398" xr:uid="{83F6C1C8-CF1E-B24B-9F6E-791F2B3DB39B}"/>
+    <hyperlink ref="E323" r:id="rId399" xr:uid="{A06055EA-6B24-7B4D-AC1A-0F42D48E32B4}"/>
+    <hyperlink ref="E451" r:id="rId400" xr:uid="{243F69D3-83E7-494E-BA9D-1B7271C75EEB}"/>
+    <hyperlink ref="E579" r:id="rId401" xr:uid="{3EEFA3A2-75DC-4B4B-AFF7-23A6FE66ECA1}"/>
+    <hyperlink ref="E66" r:id="rId402" xr:uid="{0C2E504E-9A14-0849-AAB9-53D077F8339A}"/>
+    <hyperlink ref="E194" r:id="rId403" xr:uid="{25567AF6-88B1-B54A-90F0-7BCE9521567F}"/>
+    <hyperlink ref="E322" r:id="rId404" xr:uid="{A11AA388-784C-3D41-BDA8-36DF88F532C9}"/>
+    <hyperlink ref="E450" r:id="rId405" xr:uid="{09354B36-EDAC-BB4D-AB8A-4AE934C70A5B}"/>
+    <hyperlink ref="E578" r:id="rId406" xr:uid="{068A4CC0-9D32-DF4E-AA65-453718B82FE1}"/>
+    <hyperlink ref="E129" r:id="rId407" xr:uid="{1D9B23F4-07E4-7F4D-B51F-C93DD4D4A820}"/>
+    <hyperlink ref="E257" r:id="rId408" xr:uid="{FE308518-1CF3-AE41-8D10-DD157828059F}"/>
+    <hyperlink ref="E385" r:id="rId409" xr:uid="{9E2998BA-FE87-9E49-91A7-7D40DC0423CE}"/>
+    <hyperlink ref="E513" r:id="rId410" xr:uid="{F9783FAC-BF54-F049-9E00-BD7B36E74D1E}"/>
+    <hyperlink ref="E641" r:id="rId411" xr:uid="{2465A5F0-BAD7-904F-BB81-F05EBC194E2C}"/>
+    <hyperlink ref="E77" r:id="rId412" xr:uid="{4DC99B8E-705F-7640-9CCC-BE072135E84A}"/>
+    <hyperlink ref="E205" r:id="rId413" xr:uid="{1A96AA1D-28D5-5F4D-B60F-816F5E1EE94B}"/>
+    <hyperlink ref="E333" r:id="rId414" xr:uid="{9EA22E59-92C3-4B44-A59A-3CA10CCCB0E6}"/>
+    <hyperlink ref="E461" r:id="rId415" xr:uid="{D56F4819-D20B-6040-BB96-8F17A34BBA7A}"/>
+    <hyperlink ref="E589" r:id="rId416" xr:uid="{FE7156E5-43AE-B34F-BC90-5BAAA25EE323}"/>
+    <hyperlink ref="E76" r:id="rId417" xr:uid="{9AE20D52-7A0E-2841-BE2E-13DD5432A2D9}"/>
+    <hyperlink ref="E204" r:id="rId418" xr:uid="{4889EB23-1925-0842-81A5-36E35100068F}"/>
+    <hyperlink ref="E332" r:id="rId419" xr:uid="{C7B291A3-7D91-1549-9176-ED8470834E5E}"/>
+    <hyperlink ref="E460" r:id="rId420" xr:uid="{EF1268C7-DE3A-8640-9040-B30DA4C05C57}"/>
+    <hyperlink ref="E588" r:id="rId421" xr:uid="{0ACF8860-B72A-6B4C-8441-153E67BA34C2}"/>
+    <hyperlink ref="E202" r:id="rId422" xr:uid="{12216533-7E23-284B-8D6A-81B1FFDD8EF9}"/>
+    <hyperlink ref="E330" r:id="rId423" xr:uid="{DBA8220E-C782-5747-A9C4-45AF895B4151}"/>
+    <hyperlink ref="E458" r:id="rId424" xr:uid="{157ED40F-BFF2-1040-9BF1-16B9B756ED9C}"/>
+    <hyperlink ref="E586" r:id="rId425" xr:uid="{99CDEF41-2518-3241-ABC0-1C5E60A7290D}"/>
+    <hyperlink ref="E74" r:id="rId426" xr:uid="{5D1B743B-7ADF-7948-B573-D4BFFBDF6DB1}"/>
+    <hyperlink ref="E75" r:id="rId427" xr:uid="{5552FD91-5380-9346-BB9D-8D6F952BA8A3}"/>
+    <hyperlink ref="E203" r:id="rId428" xr:uid="{3DEA1BF5-E18C-5242-A014-D9ACA68BA489}"/>
+    <hyperlink ref="E331" r:id="rId429" xr:uid="{E6BC2613-9439-6942-976E-69D78BB88F0C}"/>
+    <hyperlink ref="E459" r:id="rId430" xr:uid="{90FED099-64F2-E542-9394-BA610C4ED0ED}"/>
+    <hyperlink ref="E587" r:id="rId431" xr:uid="{F4BB6C3E-4E5B-2A46-AB86-7949C7713DD7}"/>
+    <hyperlink ref="E71" r:id="rId432" xr:uid="{5DAAB078-A1D2-B64E-A57D-AF5FFCCC0862}"/>
+    <hyperlink ref="E199" r:id="rId433" xr:uid="{F8512256-05DD-D544-A601-9C8EDB5E2C3B}"/>
+    <hyperlink ref="E327" r:id="rId434" xr:uid="{DF8FF4D9-4595-1748-A517-9B9743CBA3E8}"/>
+    <hyperlink ref="E455" r:id="rId435" xr:uid="{7AB18F22-D4B6-F140-B697-0448CB438CA2}"/>
+    <hyperlink ref="E583" r:id="rId436" xr:uid="{A3B45AB1-5499-5343-84B7-49E722486E3C}"/>
+    <hyperlink ref="E72" r:id="rId437" xr:uid="{2FDFF352-6C8D-0E43-BC3A-B2B519876BBD}"/>
+    <hyperlink ref="E200" r:id="rId438" xr:uid="{B19D0977-E7B5-0F42-BD64-8B0FB6EACE07}"/>
+    <hyperlink ref="E328" r:id="rId439" xr:uid="{8EBFD20C-E1F1-1D46-84CE-0A7257F3EA45}"/>
+    <hyperlink ref="E456" r:id="rId440" xr:uid="{4C481184-741A-C241-82A8-3E6DEDA39F09}"/>
+    <hyperlink ref="E584" r:id="rId441" xr:uid="{09E91045-7E09-774B-90F5-AF722A2C81DE}"/>
+    <hyperlink ref="E73" r:id="rId442" xr:uid="{5F1625CC-6BE9-6843-9D7C-0C18CD99C6BB}"/>
+    <hyperlink ref="E201" r:id="rId443" xr:uid="{4E82F2C7-689B-9F48-89BD-1DF31AD92B8C}"/>
+    <hyperlink ref="E329" r:id="rId444" xr:uid="{ED1BA273-DB61-3D4E-80A3-E7FE56336932}"/>
+    <hyperlink ref="E457" r:id="rId445" xr:uid="{74381BAB-BE8C-8040-A8C2-49D9D24CD1C6}"/>
+    <hyperlink ref="E585" r:id="rId446" xr:uid="{EB8CAFDA-3967-274B-9F0C-A382A344A93B}"/>
+    <hyperlink ref="E86" r:id="rId447" xr:uid="{6781EE61-891B-8C4C-84DE-D12A6F73BC99}"/>
+    <hyperlink ref="E214" r:id="rId448" xr:uid="{49B8160E-91EA-754E-863F-739209887A99}"/>
+    <hyperlink ref="E342" r:id="rId449" xr:uid="{CB2C1DD2-7FA4-714B-A80C-408BDE71B6D9}"/>
+    <hyperlink ref="E470" r:id="rId450" xr:uid="{A044C6D1-F95F-D042-835A-68414A03CE8C}"/>
+    <hyperlink ref="E598" r:id="rId451" xr:uid="{9D565CEE-E9CB-A440-8786-B6F103DF665E}"/>
+    <hyperlink ref="E87" r:id="rId452" xr:uid="{6D7171F5-BCC4-CF4A-B54E-2069F1876992}"/>
+    <hyperlink ref="E215" r:id="rId453" xr:uid="{CD652C72-8362-FE49-A552-2A6C82B39570}"/>
+    <hyperlink ref="E343" r:id="rId454" xr:uid="{20353C2F-0089-E142-9B80-2F938EA16077}"/>
+    <hyperlink ref="E471" r:id="rId455" xr:uid="{04080994-728C-3B4C-9ACF-B567EC2B7AA5}"/>
+    <hyperlink ref="E599" r:id="rId456" xr:uid="{B1EA46FA-4C3A-1E43-9240-CA40EEA12C7F}"/>
+    <hyperlink ref="E81" r:id="rId457" xr:uid="{EE54C213-862E-E94E-B93A-EC9B06D98F20}"/>
+    <hyperlink ref="E209" r:id="rId458" xr:uid="{97CEEF64-51FF-0945-8932-683A02943D14}"/>
+    <hyperlink ref="E337" r:id="rId459" xr:uid="{19EEED22-5EF5-3242-9CBF-B8F0F19B21D6}"/>
+    <hyperlink ref="E465" r:id="rId460" xr:uid="{728A9D29-990F-1D40-8CE0-8BBD296C8E02}"/>
+    <hyperlink ref="E593" r:id="rId461" xr:uid="{A93145AA-D807-7F4A-B2D6-37BC37C37912}"/>
+    <hyperlink ref="E80" r:id="rId462" xr:uid="{B69C00ED-D856-F14B-A939-2405484E8697}"/>
+    <hyperlink ref="E208" r:id="rId463" xr:uid="{CC904AB3-E5B7-BD46-83E0-395482DF35E4}"/>
+    <hyperlink ref="E336" r:id="rId464" xr:uid="{CB5DE2C4-5A79-154A-BA26-339262D77CC8}"/>
+    <hyperlink ref="E464" r:id="rId465" xr:uid="{7AFEBC36-AAC2-B64A-8A0B-72B34B60EA14}"/>
+    <hyperlink ref="E592" r:id="rId466" xr:uid="{B983FDC0-484D-6D4D-85E4-08744538A495}"/>
+    <hyperlink ref="E85" r:id="rId467" xr:uid="{131C8FA9-E3DC-3549-94B4-531A85BC1138}"/>
+    <hyperlink ref="E213" r:id="rId468" xr:uid="{2E8B5D60-37E3-2647-8938-C18898A9EF70}"/>
+    <hyperlink ref="E341" r:id="rId469" xr:uid="{9B4A3138-63FA-4943-A967-BD82C8F6C164}"/>
+    <hyperlink ref="E469" r:id="rId470" xr:uid="{F67C59DD-AFB3-D74D-851C-D9F0EFA545C1}"/>
+    <hyperlink ref="E597" r:id="rId471" xr:uid="{C83F856F-558A-D648-B2F2-69EFDB14F664}"/>
+    <hyperlink ref="E88" r:id="rId472" xr:uid="{7D4B85B0-4ECD-7048-96ED-0A2CA4DB62A0}"/>
+    <hyperlink ref="E216" r:id="rId473" xr:uid="{7A3A6D55-0855-4845-BC65-D2B2E59AD77A}"/>
+    <hyperlink ref="E344" r:id="rId474" xr:uid="{C00B2355-0FE5-D44B-AAEF-630000744C40}"/>
+    <hyperlink ref="E472" r:id="rId475" xr:uid="{67FFB2D5-4C2E-CE43-A56E-D374B8962D09}"/>
+    <hyperlink ref="E600" r:id="rId476" xr:uid="{49BD68BD-ECA3-2B4D-BC88-D89992E68B90}"/>
+    <hyperlink ref="E91" r:id="rId477" xr:uid="{C80ECF62-EEB0-9947-B4DD-AB0EEE27CBB7}"/>
+    <hyperlink ref="E219" r:id="rId478" xr:uid="{E762BF89-8185-BE4A-8C88-7734E5CBA933}"/>
+    <hyperlink ref="E347" r:id="rId479" xr:uid="{F8D2FE32-4AB0-8449-ADB8-DCDF2AE46AEE}"/>
+    <hyperlink ref="E475" r:id="rId480" xr:uid="{EBA48D6A-1380-864D-B238-EDBF615B0BFB}"/>
+    <hyperlink ref="E603" r:id="rId481" xr:uid="{E9209A08-4CB7-4448-808D-C31C74AA2F28}"/>
+    <hyperlink ref="E92" r:id="rId482" xr:uid="{26E50E27-9E9C-DD41-B663-78C81C1FB996}"/>
+    <hyperlink ref="E220" r:id="rId483" xr:uid="{9932E94A-ED1C-DD4D-ABF6-F1D385CDA3B5}"/>
+    <hyperlink ref="E348" r:id="rId484" xr:uid="{4B3046B1-95B9-9743-89B7-D3A68264005D}"/>
+    <hyperlink ref="E476" r:id="rId485" xr:uid="{A06DF429-68A0-664B-B491-C07BBD9AA488}"/>
+    <hyperlink ref="E604" r:id="rId486" xr:uid="{FE738038-E1F4-6C4C-9F68-61BCBD51264F}"/>
+    <hyperlink ref="E82" r:id="rId487" xr:uid="{0A9272F6-5068-3548-A380-593114B36949}"/>
+    <hyperlink ref="E210" r:id="rId488" xr:uid="{B547183F-8E54-9D49-A1D0-EF0E3DC997CB}"/>
+    <hyperlink ref="E338" r:id="rId489" xr:uid="{EB4D994F-C4D3-8B4C-9A1E-547CFC3FAD46}"/>
+    <hyperlink ref="E466" r:id="rId490" xr:uid="{B1AC08BA-B2B7-8B4F-8AE0-1F6085B0A4F3}"/>
+    <hyperlink ref="E594" r:id="rId491" xr:uid="{0DB3EEA8-2F78-8941-BAA2-DC4F0AC84031}"/>
+    <hyperlink ref="E68" r:id="rId492" xr:uid="{DAFBE700-911B-8246-875C-494A717C9C75}"/>
+    <hyperlink ref="E196" r:id="rId493" xr:uid="{43FE6F15-8E76-6149-8825-936C017FAD93}"/>
+    <hyperlink ref="E324" r:id="rId494" xr:uid="{CD16FD8F-B677-E64B-A1AE-25CD44639591}"/>
+    <hyperlink ref="E452" r:id="rId495" xr:uid="{CD2D38C4-C266-7846-B41E-8CA3FA93A0D0}"/>
+    <hyperlink ref="E580" r:id="rId496" xr:uid="{0931778E-BF43-6640-ABD7-65F57C886DAE}"/>
+    <hyperlink ref="E61" r:id="rId497" xr:uid="{083F06A3-2DFD-FA48-9433-B8F82AFD13A2}"/>
+    <hyperlink ref="E189" r:id="rId498" xr:uid="{C0C91959-14CF-D441-BF7C-8029962A220E}"/>
+    <hyperlink ref="E317" r:id="rId499" xr:uid="{433A99B2-5D38-A84F-806E-B596BF40C2B4}"/>
+    <hyperlink ref="E445" r:id="rId500" xr:uid="{023BE504-7542-A841-B169-BF014BD6AD50}"/>
+    <hyperlink ref="E573" r:id="rId501" xr:uid="{28F5F6DD-B1A7-8E48-BC0C-878E45A56FF2}"/>
+    <hyperlink ref="E95" r:id="rId502" xr:uid="{E3A2F1CE-25BC-424A-9F39-9AD600B83719}"/>
+    <hyperlink ref="E223" r:id="rId503" xr:uid="{C9A9A93B-1E46-BA42-A6A8-3613BE6318CB}"/>
+    <hyperlink ref="E351" r:id="rId504" xr:uid="{36B028FF-F1B4-7348-819C-AE536BE21695}"/>
+    <hyperlink ref="E479" r:id="rId505" xr:uid="{B1BF2A58-5B56-5B4C-BFBF-6D96718F0462}"/>
+    <hyperlink ref="E607" r:id="rId506" xr:uid="{2122252D-788B-2543-A59B-A552D9EF0F00}"/>
+    <hyperlink ref="E90" r:id="rId507" xr:uid="{F5B77B08-2D5E-DB4A-8DF6-50E64929DC78}"/>
+    <hyperlink ref="E218" r:id="rId508" xr:uid="{FB84A0B8-88BA-B044-9D6A-F9DFD25C142C}"/>
+    <hyperlink ref="E346" r:id="rId509" xr:uid="{B07E38F3-7796-C74B-9442-CE8FADCCB9C7}"/>
+    <hyperlink ref="E474" r:id="rId510" xr:uid="{76BD484A-726D-6344-A79B-1F42C52F9CFA}"/>
+    <hyperlink ref="E602" r:id="rId511" xr:uid="{08E2CE59-B4DC-CC42-9CD5-14A7B2CA39FB}"/>
+    <hyperlink ref="E84" r:id="rId512" xr:uid="{F91DED98-C111-3A46-B196-5130C83D8312}"/>
+    <hyperlink ref="E212" r:id="rId513" xr:uid="{1DCECB2F-6034-FA46-8E85-38323D24979D}"/>
+    <hyperlink ref="E340" r:id="rId514" xr:uid="{8F01B646-4093-6A45-B541-430784C125C9}"/>
+    <hyperlink ref="E468" r:id="rId515" xr:uid="{E51FA7AA-C8F5-3E47-BCD6-E43F252E51CC}"/>
+    <hyperlink ref="E596" r:id="rId516" xr:uid="{CD34F8AE-31D2-A64A-A2CF-D9D26D3007D8}"/>
+    <hyperlink ref="E83" r:id="rId517" xr:uid="{B3E2FFFA-B76F-244C-9CD0-D3E746BA8236}"/>
+    <hyperlink ref="E211" r:id="rId518" xr:uid="{439C7FDB-B936-B143-ABB4-E8E60C6C7250}"/>
+    <hyperlink ref="E339" r:id="rId519" xr:uid="{2742E471-07A5-B64A-9F66-F620F76AD31B}"/>
+    <hyperlink ref="E467" r:id="rId520" xr:uid="{CC71430C-B064-1748-A939-FFD2557207D6}"/>
+    <hyperlink ref="E595" r:id="rId521" xr:uid="{92B88995-4CED-0746-B94D-8B26DBB0E987}"/>
+    <hyperlink ref="E21" r:id="rId522" xr:uid="{BADB2EF0-DFE6-BB4B-BCC3-6B4E91799827}"/>
+    <hyperlink ref="E41" r:id="rId523" xr:uid="{427982A7-E866-924E-82DC-44F6C8744FA0}"/>
+    <hyperlink ref="E60" r:id="rId524" xr:uid="{3A38EF6C-BCF9-824E-99CF-F1BD8CEAC2EE}"/>
+    <hyperlink ref="E149" r:id="rId525" xr:uid="{A47A07A9-F097-2841-9C0A-616B506CAB50}"/>
+    <hyperlink ref="E169" r:id="rId526" xr:uid="{3A4862E4-4FAB-9E46-B584-42BDF60BB70E}"/>
+    <hyperlink ref="E188" r:id="rId527" xr:uid="{663F7153-1BAD-844B-B434-C61EDC91E826}"/>
+    <hyperlink ref="E277" r:id="rId528" xr:uid="{D3E98AA9-3601-594A-AB6E-F01BB9171FA7}"/>
+    <hyperlink ref="E297" r:id="rId529" xr:uid="{D1E84DFD-C7D1-1444-B04E-BF5F60326F18}"/>
+    <hyperlink ref="E316" r:id="rId530" xr:uid="{BAD1AB21-8F97-494C-A43A-D27287C124E8}"/>
+    <hyperlink ref="E405" r:id="rId531" xr:uid="{A5272F02-50D2-F64A-AB02-05C226C543B2}"/>
+    <hyperlink ref="E425" r:id="rId532" xr:uid="{698534E4-ACF7-F646-9F6E-E8FF553EE7F3}"/>
+    <hyperlink ref="E444" r:id="rId533" xr:uid="{F5BC431F-CC91-5A43-A30F-D9FF591A663B}"/>
+    <hyperlink ref="E533" r:id="rId534" xr:uid="{41E571C6-ED92-5543-B11F-FA251D7DB5E8}"/>
+    <hyperlink ref="E553" r:id="rId535" xr:uid="{0AAB0CA6-AF52-9C49-9052-A7F9AE249247}"/>
+    <hyperlink ref="E572" r:id="rId536" xr:uid="{375C6FA6-CD30-2B45-859C-588E23D2F4BF}"/>
+    <hyperlink ref="E96" r:id="rId537" xr:uid="{271C361E-C043-4743-ABF6-6D8B9D4CF180}"/>
+    <hyperlink ref="E224" r:id="rId538" xr:uid="{2587AB59-8753-354C-A2B1-AAC7C4947CFB}"/>
+    <hyperlink ref="E352" r:id="rId539" xr:uid="{D4288C64-0555-8244-85AD-97700AD5F1AC}"/>
+    <hyperlink ref="E480" r:id="rId540" xr:uid="{ACFAC181-0475-C541-8C8E-C25096BF6D12}"/>
+    <hyperlink ref="E608" r:id="rId541" xr:uid="{E81BB935-A2B8-2747-B7DE-EEBE3417A99C}"/>
+    <hyperlink ref="E94" r:id="rId542" xr:uid="{BB5598C6-0A76-CF4C-B41A-4F3056328749}"/>
+    <hyperlink ref="E222" r:id="rId543" xr:uid="{DA947716-9FB8-E74E-8B6C-F977BAD3CF71}"/>
+    <hyperlink ref="E350" r:id="rId544" xr:uid="{32DB50A0-A24F-C141-AB54-ACEF691914AE}"/>
+    <hyperlink ref="E478" r:id="rId545" xr:uid="{9EDBF3ED-2843-B547-9ED5-E9983E9B81E8}"/>
+    <hyperlink ref="E606" r:id="rId546" xr:uid="{A4399020-CF2F-2C4B-A6C8-05751FB06696}"/>
+    <hyperlink ref="E93" r:id="rId547" xr:uid="{0A51E8F2-D455-E946-AA61-C9DCB1097DF5}"/>
+    <hyperlink ref="E221" r:id="rId548" xr:uid="{2B5979B5-8793-A242-9429-0E0FE727CA0A}"/>
+    <hyperlink ref="E349" r:id="rId549" xr:uid="{9D04F02E-5B54-9341-8C35-36B85D0B45C2}"/>
+    <hyperlink ref="E477" r:id="rId550" xr:uid="{82464515-7513-BA4E-94C2-F6F301021C9A}"/>
+    <hyperlink ref="E605" r:id="rId551" xr:uid="{D59F4571-A5DE-C94B-BBEA-3C6B175DA9D5}"/>
+    <hyperlink ref="E99" r:id="rId552" xr:uid="{A5601176-AC14-144F-909C-E9EFA3D12439}"/>
+    <hyperlink ref="E116" r:id="rId553" xr:uid="{FBB9F8DD-6F78-5942-84DE-B0762CCCFBED}"/>
+    <hyperlink ref="E227" r:id="rId554" xr:uid="{B7441BF8-B1B8-5743-B717-75DA0DF31CFA}"/>
+    <hyperlink ref="E244" r:id="rId555" xr:uid="{93B611AC-7312-244C-86EE-ED1A463E9C7A}"/>
+    <hyperlink ref="E355" r:id="rId556" xr:uid="{EA85251C-2628-6A49-B22B-F093146562C8}"/>
+    <hyperlink ref="E372" r:id="rId557" xr:uid="{8F1190EC-DB3B-394F-A15F-65A47DB1BE77}"/>
+    <hyperlink ref="E483" r:id="rId558" xr:uid="{A0F2622F-83DF-604A-822E-FF194B5449A7}"/>
+    <hyperlink ref="E500" r:id="rId559" xr:uid="{77380283-7A02-2C45-ADBC-8D860645E0B9}"/>
+    <hyperlink ref="E611" r:id="rId560" xr:uid="{76C8078F-D292-7444-B85C-CBC0A3098CF3}"/>
+    <hyperlink ref="E628" r:id="rId561" xr:uid="{E75A3325-9482-2542-920F-4271906512C5}"/>
+    <hyperlink ref="E98" r:id="rId562" xr:uid="{B241979C-50A1-014A-AD4C-51C02AE648C1}"/>
+    <hyperlink ref="E115" r:id="rId563" xr:uid="{8277B310-B73B-0C48-94D9-8322F1696185}"/>
+    <hyperlink ref="E226" r:id="rId564" xr:uid="{E1B16BAD-C5BA-BA4C-A255-CEE33B45A211}"/>
+    <hyperlink ref="E243" r:id="rId565" xr:uid="{64AA7759-805B-0F4E-B66B-ACB3E1EB7727}"/>
+    <hyperlink ref="E354" r:id="rId566" xr:uid="{4218D5AA-B0F8-0C42-92D0-732673DE8DB1}"/>
+    <hyperlink ref="E371" r:id="rId567" xr:uid="{94EE739B-74AC-CD42-AECD-B26B6AEB41D8}"/>
+    <hyperlink ref="E482" r:id="rId568" xr:uid="{4B9E3BF1-E99A-C241-9643-92DB570D69AE}"/>
+    <hyperlink ref="E499" r:id="rId569" xr:uid="{D526CEFC-D244-144A-A33D-6F02CCCD8A76}"/>
+    <hyperlink ref="E610" r:id="rId570" xr:uid="{798252CB-1105-FF49-8078-9A68CB665280}"/>
+    <hyperlink ref="E627" r:id="rId571" xr:uid="{A3670D25-D41D-FF41-AFD9-3CCEEAD7223C}"/>
+    <hyperlink ref="E97" r:id="rId572" xr:uid="{AE4C192E-30F7-C54D-9735-85923B20FD59}"/>
+    <hyperlink ref="E114" r:id="rId573" xr:uid="{91A6538B-C74B-3741-B33B-1C62C0154182}"/>
+    <hyperlink ref="E225" r:id="rId574" xr:uid="{DE0D7053-238D-AE47-91CA-CC89A801460B}"/>
+    <hyperlink ref="E242" r:id="rId575" xr:uid="{619D82B9-8DB1-EB4C-88B6-68328BA2270A}"/>
+    <hyperlink ref="E353" r:id="rId576" xr:uid="{71DA79FD-D5E3-6A49-9C9F-A1714B98757D}"/>
+    <hyperlink ref="E370" r:id="rId577" xr:uid="{EF6D3A4C-3DAA-9948-86CB-6A63A4034588}"/>
+    <hyperlink ref="E481" r:id="rId578" xr:uid="{118EE98E-761C-A844-B298-B1DC0EDB11D9}"/>
+    <hyperlink ref="E498" r:id="rId579" xr:uid="{B12F364C-6428-364A-B1BD-C484E04A92C3}"/>
+    <hyperlink ref="E609" r:id="rId580" xr:uid="{F518C769-62D1-3B43-8227-6CEEFB93D19A}"/>
+    <hyperlink ref="E626" r:id="rId581" xr:uid="{3507B603-0DB2-AC48-8A50-3683E6A1D9F3}"/>
+    <hyperlink ref="E2" r:id="rId582" xr:uid="{19C75EDA-16AC-404A-B59A-1E252444A177}"/>
+    <hyperlink ref="E22" r:id="rId583" xr:uid="{32DD517F-099F-EB41-B813-C9409EDF8783}"/>
+    <hyperlink ref="E42" r:id="rId584" xr:uid="{6244E683-CD6E-DB4B-914A-09D0D825AFA2}"/>
+    <hyperlink ref="E130" r:id="rId585" xr:uid="{193FFEB0-6041-A740-A0C3-85821FD7018C}"/>
+    <hyperlink ref="E150" r:id="rId586" xr:uid="{F28F9A0E-71BC-884A-BCDA-68AF90E69AB7}"/>
+    <hyperlink ref="E170" r:id="rId587" xr:uid="{3F437277-00CB-9844-A3E2-A19E58732FCB}"/>
+    <hyperlink ref="E258" r:id="rId588" xr:uid="{21F94EBD-6AB5-E742-8289-A599C0859515}"/>
+    <hyperlink ref="E278" r:id="rId589" xr:uid="{E3174439-6316-2D4D-ADFA-E4F349F45BF8}"/>
+    <hyperlink ref="E298" r:id="rId590" xr:uid="{7FA4B86D-44DE-6F4C-A80D-5703C027F993}"/>
+    <hyperlink ref="E386" r:id="rId591" xr:uid="{C9E7E5FC-90DE-3B44-943E-D103864CFE46}"/>
+    <hyperlink ref="E406" r:id="rId592" xr:uid="{81FF6B42-6B3C-F14E-AE5E-2A6F0DCEA0D1}"/>
+    <hyperlink ref="E426" r:id="rId593" xr:uid="{D9ABD36E-0E1E-DD4C-BE41-1444AA40ABC9}"/>
+    <hyperlink ref="E514" r:id="rId594" xr:uid="{63329566-F4E2-DB41-9D8D-8B038148BF64}"/>
+    <hyperlink ref="E534" r:id="rId595" xr:uid="{EB25EBB3-0F0B-D641-8DCA-41DA5B307099}"/>
+    <hyperlink ref="E554" r:id="rId596" xr:uid="{5299909E-D043-EF4B-812D-1B4FD3056B1B}"/>
+    <hyperlink ref="E79" r:id="rId597" xr:uid="{F5449C91-2717-C544-97E3-D7F71C89887B}"/>
+    <hyperlink ref="E78" r:id="rId598" xr:uid="{392EAE5F-2DFF-A746-B896-8D6E28F607CA}"/>
+    <hyperlink ref="E207" r:id="rId599" xr:uid="{4806F278-E503-C94C-8537-11C30042CBFA}"/>
+    <hyperlink ref="E206" r:id="rId600" xr:uid="{E65FAC30-0C2B-3545-9301-EBC95FEA0D4B}"/>
+    <hyperlink ref="E335" r:id="rId601" xr:uid="{E8FB4A3C-B70B-894B-A03A-07377D7AC881}"/>
+    <hyperlink ref="E334" r:id="rId602" xr:uid="{8A280D25-AC0D-854C-9F34-654E68B6BCFE}"/>
+    <hyperlink ref="E463" r:id="rId603" xr:uid="{E2555318-4C13-C946-AC95-F3E73341536E}"/>
+    <hyperlink ref="E462" r:id="rId604" xr:uid="{3588E350-15CA-BA4C-8151-7E4FEAA22339}"/>
+    <hyperlink ref="E591" r:id="rId605" xr:uid="{F145BFEE-01CE-474E-9AA3-8BF46057BA9C}"/>
+    <hyperlink ref="E590" r:id="rId606" xr:uid="{355CC7FE-DB0C-6549-954C-45EB5EA18D1C}"/>
+    <hyperlink ref="E89" r:id="rId607" xr:uid="{D2B9EA5F-C938-7F44-86C4-6359E402866F}"/>
+    <hyperlink ref="E217" r:id="rId608" xr:uid="{18AD5A75-F11D-7542-B08B-00E30A6B84A6}"/>
+    <hyperlink ref="E345" r:id="rId609" xr:uid="{69291EB5-C6A8-EB45-976A-9C47F049C9BA}"/>
+    <hyperlink ref="E473" r:id="rId610" xr:uid="{025C989B-1157-1A40-B793-B6D6FF096D40}"/>
+    <hyperlink ref="E601" r:id="rId611" xr:uid="{999EB5BE-B30B-0841-9B73-7511BC7F3BF1}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/mcdonalds_prices_new.xlsx
+++ b/data/mcdonalds_prices_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Github/would_you_like_some_fries_with_that/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C4D98A-E3F9-904B-9716-841CB2E3A16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09016C76-2C0F-E540-AFCA-79B39A7C584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,9 +448,6 @@
     <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-08/product-corn-350x350.png</t>
   </si>
   <si>
-    <t>https://static.mothership.sg/1/2023/02/Apple-Custard-Pie.png</t>
-  </si>
-  <si>
     <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2022-01/SMALL_SPRITE.png</t>
   </si>
   <si>
@@ -491,6 +488,9 @@
   </si>
   <si>
     <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/100%EF%BF%BD%20Pure%20Orange%20Juice_1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NicsLvl/McPredictor/master/images/acp.jpg</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
   <dimension ref="A1:E642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G646" sqref="G646"/>
+      <selection activeCell="E189" sqref="E189:E573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -926,7 +926,7 @@
         <v>8.9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1257,7 +1257,7 @@
         <v>7.9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1588,7 +1588,7 @@
         <v>6.35</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1911,7 +1911,7 @@
         <v>1.8</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1928,7 +1928,7 @@
         <v>3.6</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2064,7 +2064,7 @@
         <v>3.5</v>
       </c>
       <c r="E70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2285,7 +2285,7 @@
         <v>3.4</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2302,7 +2302,7 @@
         <v>3.4</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2387,7 +2387,7 @@
         <v>3.55</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2404,7 +2404,7 @@
         <v>2.6</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2455,7 +2455,7 @@
         <v>2.8</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2472,7 +2472,7 @@
         <v>2.8</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2489,7 +2489,7 @@
         <v>2.8</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2506,7 +2506,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2523,7 +2523,7 @@
         <v>6.8</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2540,7 +2540,7 @@
         <v>6.8</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2557,7 +2557,7 @@
         <v>7.9</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2809,7 +2809,7 @@
         <v>6.2</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2826,7 +2826,7 @@
         <v>6.2</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2843,7 +2843,7 @@
         <v>7</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3078,7 +3078,7 @@
         <v>9.6</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3418,7 +3418,7 @@
         <v>8.6</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3758,7 +3758,7 @@
         <v>6.8</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4081,7 +4081,7 @@
         <v>1.8</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4098,7 +4098,7 @@
         <v>3.95</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4234,7 +4234,7 @@
         <v>3.5</v>
       </c>
       <c r="E198" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4455,7 +4455,7 @@
         <v>3.8</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4472,7 +4472,7 @@
         <v>3.8</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4557,7 +4557,7 @@
         <v>3.95</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4574,7 +4574,7 @@
         <v>2.85</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4625,7 +4625,7 @@
         <v>3.1</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4642,7 +4642,7 @@
         <v>3.1</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4659,7 +4659,7 @@
         <v>3.1</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4676,7 +4676,7 @@
         <v>2.75</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4693,7 +4693,7 @@
         <v>6.8</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4710,7 +4710,7 @@
         <v>6.8</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4727,7 +4727,7 @@
         <v>7.9</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4979,7 +4979,7 @@
         <v>6.2</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4996,7 +4996,7 @@
         <v>6.2</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5013,7 +5013,7 @@
         <v>7</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5248,7 +5248,7 @@
         <v>9.6</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5588,7 +5588,7 @@
         <v>8.6</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5928,7 +5928,7 @@
         <v>6.95</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6251,7 +6251,7 @@
         <v>1.8</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6268,7 +6268,7 @@
         <v>4.05</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6404,7 +6404,7 @@
         <v>3.5</v>
       </c>
       <c r="E326" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6625,7 +6625,7 @@
         <v>3.9</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6642,7 +6642,7 @@
         <v>3.8</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6727,7 +6727,7 @@
         <v>4</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6744,7 +6744,7 @@
         <v>2.85</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6795,7 +6795,7 @@
         <v>3.15</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6812,7 +6812,7 @@
         <v>3.15</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6829,7 +6829,7 @@
         <v>3.15</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6846,7 +6846,7 @@
         <v>2.85</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6863,7 +6863,7 @@
         <v>6.8</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6880,7 +6880,7 @@
         <v>6.8</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6897,7 +6897,7 @@
         <v>8.1</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7149,7 +7149,7 @@
         <v>6.1</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7166,7 +7166,7 @@
         <v>6.1</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7183,7 +7183,7 @@
         <v>6.9</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7418,7 +7418,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7758,7 +7758,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -8098,7 +8098,7 @@
         <v>6.95</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -8421,7 +8421,7 @@
         <v>1.8</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -8438,7 +8438,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -8574,7 +8574,7 @@
         <v>3.7</v>
       </c>
       <c r="E454" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8795,7 +8795,7 @@
         <v>3.95</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8812,7 +8812,7 @@
         <v>3.95</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8897,7 +8897,7 @@
         <v>4</v>
       </c>
       <c r="E473" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8914,7 +8914,7 @@
         <v>2.9</v>
       </c>
       <c r="E474" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8965,7 +8965,7 @@
         <v>3.15</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8982,7 +8982,7 @@
         <v>3.15</v>
       </c>
       <c r="E478" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8999,7 +8999,7 @@
         <v>3.15</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -9016,7 +9016,7 @@
         <v>2.85</v>
       </c>
       <c r="E480" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -9033,7 +9033,7 @@
         <v>6.8</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -9050,7 +9050,7 @@
         <v>6.8</v>
       </c>
       <c r="E482" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -9067,7 +9067,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -9319,7 +9319,7 @@
         <v>6.1</v>
       </c>
       <c r="E498" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -9336,7 +9336,7 @@
         <v>6.1</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -9353,7 +9353,7 @@
         <v>6.9</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -9588,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="E514" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -9919,7 +9919,7 @@
         <v>9</v>
       </c>
       <c r="E534" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -10250,7 +10250,7 @@
         <v>7.6</v>
       </c>
       <c r="E554" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -10573,7 +10573,7 @@
         <v>1.9</v>
       </c>
       <c r="E573" s="3" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -10590,7 +10590,7 @@
         <v>4.3</v>
       </c>
       <c r="E574" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -10726,7 +10726,7 @@
         <v>3.9</v>
       </c>
       <c r="E582" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -10947,7 +10947,7 @@
         <v>3.9</v>
       </c>
       <c r="E595" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -10964,7 +10964,7 @@
         <v>3.9</v>
       </c>
       <c r="E596" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -11049,7 +11049,7 @@
         <v>4</v>
       </c>
       <c r="E601" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -11066,7 +11066,7 @@
         <v>3</v>
       </c>
       <c r="E602" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -11117,7 +11117,7 @@
         <v>3.15</v>
       </c>
       <c r="E605" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -11134,7 +11134,7 @@
         <v>3.15</v>
       </c>
       <c r="E606" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -11151,7 +11151,7 @@
         <v>3.15</v>
       </c>
       <c r="E607" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -11168,7 +11168,7 @@
         <v>2.85</v>
       </c>
       <c r="E608" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -11185,7 +11185,7 @@
         <v>6.8</v>
       </c>
       <c r="E609" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -11202,7 +11202,7 @@
         <v>6.8</v>
       </c>
       <c r="E610" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -11219,7 +11219,7 @@
         <v>8.5</v>
       </c>
       <c r="E611" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -11471,7 +11471,7 @@
         <v>6.15</v>
       </c>
       <c r="E626" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -11488,7 +11488,7 @@
         <v>6.15</v>
       </c>
       <c r="E627" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -11505,7 +11505,7 @@
         <v>6.95</v>
       </c>
       <c r="E628" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -12228,121 +12228,116 @@
     <hyperlink ref="E324" r:id="rId494" xr:uid="{CD16FD8F-B677-E64B-A1AE-25CD44639591}"/>
     <hyperlink ref="E452" r:id="rId495" xr:uid="{CD2D38C4-C266-7846-B41E-8CA3FA93A0D0}"/>
     <hyperlink ref="E580" r:id="rId496" xr:uid="{0931778E-BF43-6640-ABD7-65F57C886DAE}"/>
-    <hyperlink ref="E61" r:id="rId497" xr:uid="{083F06A3-2DFD-FA48-9433-B8F82AFD13A2}"/>
-    <hyperlink ref="E189" r:id="rId498" xr:uid="{C0C91959-14CF-D441-BF7C-8029962A220E}"/>
-    <hyperlink ref="E317" r:id="rId499" xr:uid="{433A99B2-5D38-A84F-806E-B596BF40C2B4}"/>
-    <hyperlink ref="E445" r:id="rId500" xr:uid="{023BE504-7542-A841-B169-BF014BD6AD50}"/>
-    <hyperlink ref="E573" r:id="rId501" xr:uid="{28F5F6DD-B1A7-8E48-BC0C-878E45A56FF2}"/>
-    <hyperlink ref="E95" r:id="rId502" xr:uid="{E3A2F1CE-25BC-424A-9F39-9AD600B83719}"/>
-    <hyperlink ref="E223" r:id="rId503" xr:uid="{C9A9A93B-1E46-BA42-A6A8-3613BE6318CB}"/>
-    <hyperlink ref="E351" r:id="rId504" xr:uid="{36B028FF-F1B4-7348-819C-AE536BE21695}"/>
-    <hyperlink ref="E479" r:id="rId505" xr:uid="{B1BF2A58-5B56-5B4C-BFBF-6D96718F0462}"/>
-    <hyperlink ref="E607" r:id="rId506" xr:uid="{2122252D-788B-2543-A59B-A552D9EF0F00}"/>
-    <hyperlink ref="E90" r:id="rId507" xr:uid="{F5B77B08-2D5E-DB4A-8DF6-50E64929DC78}"/>
-    <hyperlink ref="E218" r:id="rId508" xr:uid="{FB84A0B8-88BA-B044-9D6A-F9DFD25C142C}"/>
-    <hyperlink ref="E346" r:id="rId509" xr:uid="{B07E38F3-7796-C74B-9442-CE8FADCCB9C7}"/>
-    <hyperlink ref="E474" r:id="rId510" xr:uid="{76BD484A-726D-6344-A79B-1F42C52F9CFA}"/>
-    <hyperlink ref="E602" r:id="rId511" xr:uid="{08E2CE59-B4DC-CC42-9CD5-14A7B2CA39FB}"/>
-    <hyperlink ref="E84" r:id="rId512" xr:uid="{F91DED98-C111-3A46-B196-5130C83D8312}"/>
-    <hyperlink ref="E212" r:id="rId513" xr:uid="{1DCECB2F-6034-FA46-8E85-38323D24979D}"/>
-    <hyperlink ref="E340" r:id="rId514" xr:uid="{8F01B646-4093-6A45-B541-430784C125C9}"/>
-    <hyperlink ref="E468" r:id="rId515" xr:uid="{E51FA7AA-C8F5-3E47-BCD6-E43F252E51CC}"/>
-    <hyperlink ref="E596" r:id="rId516" xr:uid="{CD34F8AE-31D2-A64A-A2CF-D9D26D3007D8}"/>
-    <hyperlink ref="E83" r:id="rId517" xr:uid="{B3E2FFFA-B76F-244C-9CD0-D3E746BA8236}"/>
-    <hyperlink ref="E211" r:id="rId518" xr:uid="{439C7FDB-B936-B143-ABB4-E8E60C6C7250}"/>
-    <hyperlink ref="E339" r:id="rId519" xr:uid="{2742E471-07A5-B64A-9F66-F620F76AD31B}"/>
-    <hyperlink ref="E467" r:id="rId520" xr:uid="{CC71430C-B064-1748-A939-FFD2557207D6}"/>
-    <hyperlink ref="E595" r:id="rId521" xr:uid="{92B88995-4CED-0746-B94D-8B26DBB0E987}"/>
-    <hyperlink ref="E21" r:id="rId522" xr:uid="{BADB2EF0-DFE6-BB4B-BCC3-6B4E91799827}"/>
-    <hyperlink ref="E41" r:id="rId523" xr:uid="{427982A7-E866-924E-82DC-44F6C8744FA0}"/>
-    <hyperlink ref="E60" r:id="rId524" xr:uid="{3A38EF6C-BCF9-824E-99CF-F1BD8CEAC2EE}"/>
-    <hyperlink ref="E149" r:id="rId525" xr:uid="{A47A07A9-F097-2841-9C0A-616B506CAB50}"/>
-    <hyperlink ref="E169" r:id="rId526" xr:uid="{3A4862E4-4FAB-9E46-B584-42BDF60BB70E}"/>
-    <hyperlink ref="E188" r:id="rId527" xr:uid="{663F7153-1BAD-844B-B434-C61EDC91E826}"/>
-    <hyperlink ref="E277" r:id="rId528" xr:uid="{D3E98AA9-3601-594A-AB6E-F01BB9171FA7}"/>
-    <hyperlink ref="E297" r:id="rId529" xr:uid="{D1E84DFD-C7D1-1444-B04E-BF5F60326F18}"/>
-    <hyperlink ref="E316" r:id="rId530" xr:uid="{BAD1AB21-8F97-494C-A43A-D27287C124E8}"/>
-    <hyperlink ref="E405" r:id="rId531" xr:uid="{A5272F02-50D2-F64A-AB02-05C226C543B2}"/>
-    <hyperlink ref="E425" r:id="rId532" xr:uid="{698534E4-ACF7-F646-9F6E-E8FF553EE7F3}"/>
-    <hyperlink ref="E444" r:id="rId533" xr:uid="{F5BC431F-CC91-5A43-A30F-D9FF591A663B}"/>
-    <hyperlink ref="E533" r:id="rId534" xr:uid="{41E571C6-ED92-5543-B11F-FA251D7DB5E8}"/>
-    <hyperlink ref="E553" r:id="rId535" xr:uid="{0AAB0CA6-AF52-9C49-9052-A7F9AE249247}"/>
-    <hyperlink ref="E572" r:id="rId536" xr:uid="{375C6FA6-CD30-2B45-859C-588E23D2F4BF}"/>
-    <hyperlink ref="E96" r:id="rId537" xr:uid="{271C361E-C043-4743-ABF6-6D8B9D4CF180}"/>
-    <hyperlink ref="E224" r:id="rId538" xr:uid="{2587AB59-8753-354C-A2B1-AAC7C4947CFB}"/>
-    <hyperlink ref="E352" r:id="rId539" xr:uid="{D4288C64-0555-8244-85AD-97700AD5F1AC}"/>
-    <hyperlink ref="E480" r:id="rId540" xr:uid="{ACFAC181-0475-C541-8C8E-C25096BF6D12}"/>
-    <hyperlink ref="E608" r:id="rId541" xr:uid="{E81BB935-A2B8-2747-B7DE-EEBE3417A99C}"/>
-    <hyperlink ref="E94" r:id="rId542" xr:uid="{BB5598C6-0A76-CF4C-B41A-4F3056328749}"/>
-    <hyperlink ref="E222" r:id="rId543" xr:uid="{DA947716-9FB8-E74E-8B6C-F977BAD3CF71}"/>
-    <hyperlink ref="E350" r:id="rId544" xr:uid="{32DB50A0-A24F-C141-AB54-ACEF691914AE}"/>
-    <hyperlink ref="E478" r:id="rId545" xr:uid="{9EDBF3ED-2843-B547-9ED5-E9983E9B81E8}"/>
-    <hyperlink ref="E606" r:id="rId546" xr:uid="{A4399020-CF2F-2C4B-A6C8-05751FB06696}"/>
-    <hyperlink ref="E93" r:id="rId547" xr:uid="{0A51E8F2-D455-E946-AA61-C9DCB1097DF5}"/>
-    <hyperlink ref="E221" r:id="rId548" xr:uid="{2B5979B5-8793-A242-9429-0E0FE727CA0A}"/>
-    <hyperlink ref="E349" r:id="rId549" xr:uid="{9D04F02E-5B54-9341-8C35-36B85D0B45C2}"/>
-    <hyperlink ref="E477" r:id="rId550" xr:uid="{82464515-7513-BA4E-94C2-F6F301021C9A}"/>
-    <hyperlink ref="E605" r:id="rId551" xr:uid="{D59F4571-A5DE-C94B-BBEA-3C6B175DA9D5}"/>
-    <hyperlink ref="E99" r:id="rId552" xr:uid="{A5601176-AC14-144F-909C-E9EFA3D12439}"/>
-    <hyperlink ref="E116" r:id="rId553" xr:uid="{FBB9F8DD-6F78-5942-84DE-B0762CCCFBED}"/>
-    <hyperlink ref="E227" r:id="rId554" xr:uid="{B7441BF8-B1B8-5743-B717-75DA0DF31CFA}"/>
-    <hyperlink ref="E244" r:id="rId555" xr:uid="{93B611AC-7312-244C-86EE-ED1A463E9C7A}"/>
-    <hyperlink ref="E355" r:id="rId556" xr:uid="{EA85251C-2628-6A49-B22B-F093146562C8}"/>
-    <hyperlink ref="E372" r:id="rId557" xr:uid="{8F1190EC-DB3B-394F-A15F-65A47DB1BE77}"/>
-    <hyperlink ref="E483" r:id="rId558" xr:uid="{A0F2622F-83DF-604A-822E-FF194B5449A7}"/>
-    <hyperlink ref="E500" r:id="rId559" xr:uid="{77380283-7A02-2C45-ADBC-8D860645E0B9}"/>
-    <hyperlink ref="E611" r:id="rId560" xr:uid="{76C8078F-D292-7444-B85C-CBC0A3098CF3}"/>
-    <hyperlink ref="E628" r:id="rId561" xr:uid="{E75A3325-9482-2542-920F-4271906512C5}"/>
-    <hyperlink ref="E98" r:id="rId562" xr:uid="{B241979C-50A1-014A-AD4C-51C02AE648C1}"/>
-    <hyperlink ref="E115" r:id="rId563" xr:uid="{8277B310-B73B-0C48-94D9-8322F1696185}"/>
-    <hyperlink ref="E226" r:id="rId564" xr:uid="{E1B16BAD-C5BA-BA4C-A255-CEE33B45A211}"/>
-    <hyperlink ref="E243" r:id="rId565" xr:uid="{64AA7759-805B-0F4E-B66B-ACB3E1EB7727}"/>
-    <hyperlink ref="E354" r:id="rId566" xr:uid="{4218D5AA-B0F8-0C42-92D0-732673DE8DB1}"/>
-    <hyperlink ref="E371" r:id="rId567" xr:uid="{94EE739B-74AC-CD42-AECD-B26B6AEB41D8}"/>
-    <hyperlink ref="E482" r:id="rId568" xr:uid="{4B9E3BF1-E99A-C241-9643-92DB570D69AE}"/>
-    <hyperlink ref="E499" r:id="rId569" xr:uid="{D526CEFC-D244-144A-A33D-6F02CCCD8A76}"/>
-    <hyperlink ref="E610" r:id="rId570" xr:uid="{798252CB-1105-FF49-8078-9A68CB665280}"/>
-    <hyperlink ref="E627" r:id="rId571" xr:uid="{A3670D25-D41D-FF41-AFD9-3CCEEAD7223C}"/>
-    <hyperlink ref="E97" r:id="rId572" xr:uid="{AE4C192E-30F7-C54D-9735-85923B20FD59}"/>
-    <hyperlink ref="E114" r:id="rId573" xr:uid="{91A6538B-C74B-3741-B33B-1C62C0154182}"/>
-    <hyperlink ref="E225" r:id="rId574" xr:uid="{DE0D7053-238D-AE47-91CA-CC89A801460B}"/>
-    <hyperlink ref="E242" r:id="rId575" xr:uid="{619D82B9-8DB1-EB4C-88B6-68328BA2270A}"/>
-    <hyperlink ref="E353" r:id="rId576" xr:uid="{71DA79FD-D5E3-6A49-9C9F-A1714B98757D}"/>
-    <hyperlink ref="E370" r:id="rId577" xr:uid="{EF6D3A4C-3DAA-9948-86CB-6A63A4034588}"/>
-    <hyperlink ref="E481" r:id="rId578" xr:uid="{118EE98E-761C-A844-B298-B1DC0EDB11D9}"/>
-    <hyperlink ref="E498" r:id="rId579" xr:uid="{B12F364C-6428-364A-B1BD-C484E04A92C3}"/>
-    <hyperlink ref="E609" r:id="rId580" xr:uid="{F518C769-62D1-3B43-8227-6CEEFB93D19A}"/>
-    <hyperlink ref="E626" r:id="rId581" xr:uid="{3507B603-0DB2-AC48-8A50-3683E6A1D9F3}"/>
-    <hyperlink ref="E2" r:id="rId582" xr:uid="{19C75EDA-16AC-404A-B59A-1E252444A177}"/>
-    <hyperlink ref="E22" r:id="rId583" xr:uid="{32DD517F-099F-EB41-B813-C9409EDF8783}"/>
-    <hyperlink ref="E42" r:id="rId584" xr:uid="{6244E683-CD6E-DB4B-914A-09D0D825AFA2}"/>
-    <hyperlink ref="E130" r:id="rId585" xr:uid="{193FFEB0-6041-A740-A0C3-85821FD7018C}"/>
-    <hyperlink ref="E150" r:id="rId586" xr:uid="{F28F9A0E-71BC-884A-BCDA-68AF90E69AB7}"/>
-    <hyperlink ref="E170" r:id="rId587" xr:uid="{3F437277-00CB-9844-A3E2-A19E58732FCB}"/>
-    <hyperlink ref="E258" r:id="rId588" xr:uid="{21F94EBD-6AB5-E742-8289-A599C0859515}"/>
-    <hyperlink ref="E278" r:id="rId589" xr:uid="{E3174439-6316-2D4D-ADFA-E4F349F45BF8}"/>
-    <hyperlink ref="E298" r:id="rId590" xr:uid="{7FA4B86D-44DE-6F4C-A80D-5703C027F993}"/>
-    <hyperlink ref="E386" r:id="rId591" xr:uid="{C9E7E5FC-90DE-3B44-943E-D103864CFE46}"/>
-    <hyperlink ref="E406" r:id="rId592" xr:uid="{81FF6B42-6B3C-F14E-AE5E-2A6F0DCEA0D1}"/>
-    <hyperlink ref="E426" r:id="rId593" xr:uid="{D9ABD36E-0E1E-DD4C-BE41-1444AA40ABC9}"/>
-    <hyperlink ref="E514" r:id="rId594" xr:uid="{63329566-F4E2-DB41-9D8D-8B038148BF64}"/>
-    <hyperlink ref="E534" r:id="rId595" xr:uid="{EB25EBB3-0F0B-D641-8DCA-41DA5B307099}"/>
-    <hyperlink ref="E554" r:id="rId596" xr:uid="{5299909E-D043-EF4B-812D-1B4FD3056B1B}"/>
-    <hyperlink ref="E79" r:id="rId597" xr:uid="{F5449C91-2717-C544-97E3-D7F71C89887B}"/>
-    <hyperlink ref="E78" r:id="rId598" xr:uid="{392EAE5F-2DFF-A746-B896-8D6E28F607CA}"/>
-    <hyperlink ref="E207" r:id="rId599" xr:uid="{4806F278-E503-C94C-8537-11C30042CBFA}"/>
-    <hyperlink ref="E206" r:id="rId600" xr:uid="{E65FAC30-0C2B-3545-9301-EBC95FEA0D4B}"/>
-    <hyperlink ref="E335" r:id="rId601" xr:uid="{E8FB4A3C-B70B-894B-A03A-07377D7AC881}"/>
-    <hyperlink ref="E334" r:id="rId602" xr:uid="{8A280D25-AC0D-854C-9F34-654E68B6BCFE}"/>
-    <hyperlink ref="E463" r:id="rId603" xr:uid="{E2555318-4C13-C946-AC95-F3E73341536E}"/>
-    <hyperlink ref="E462" r:id="rId604" xr:uid="{3588E350-15CA-BA4C-8151-7E4FEAA22339}"/>
-    <hyperlink ref="E591" r:id="rId605" xr:uid="{F145BFEE-01CE-474E-9AA3-8BF46057BA9C}"/>
-    <hyperlink ref="E590" r:id="rId606" xr:uid="{355CC7FE-DB0C-6549-954C-45EB5EA18D1C}"/>
-    <hyperlink ref="E89" r:id="rId607" xr:uid="{D2B9EA5F-C938-7F44-86C4-6359E402866F}"/>
-    <hyperlink ref="E217" r:id="rId608" xr:uid="{18AD5A75-F11D-7542-B08B-00E30A6B84A6}"/>
-    <hyperlink ref="E345" r:id="rId609" xr:uid="{69291EB5-C6A8-EB45-976A-9C47F049C9BA}"/>
-    <hyperlink ref="E473" r:id="rId610" xr:uid="{025C989B-1157-1A40-B793-B6D6FF096D40}"/>
-    <hyperlink ref="E601" r:id="rId611" xr:uid="{999EB5BE-B30B-0841-9B73-7511BC7F3BF1}"/>
+    <hyperlink ref="E95" r:id="rId497" xr:uid="{E3A2F1CE-25BC-424A-9F39-9AD600B83719}"/>
+    <hyperlink ref="E223" r:id="rId498" xr:uid="{C9A9A93B-1E46-BA42-A6A8-3613BE6318CB}"/>
+    <hyperlink ref="E351" r:id="rId499" xr:uid="{36B028FF-F1B4-7348-819C-AE536BE21695}"/>
+    <hyperlink ref="E479" r:id="rId500" xr:uid="{B1BF2A58-5B56-5B4C-BFBF-6D96718F0462}"/>
+    <hyperlink ref="E607" r:id="rId501" xr:uid="{2122252D-788B-2543-A59B-A552D9EF0F00}"/>
+    <hyperlink ref="E90" r:id="rId502" xr:uid="{F5B77B08-2D5E-DB4A-8DF6-50E64929DC78}"/>
+    <hyperlink ref="E218" r:id="rId503" xr:uid="{FB84A0B8-88BA-B044-9D6A-F9DFD25C142C}"/>
+    <hyperlink ref="E346" r:id="rId504" xr:uid="{B07E38F3-7796-C74B-9442-CE8FADCCB9C7}"/>
+    <hyperlink ref="E474" r:id="rId505" xr:uid="{76BD484A-726D-6344-A79B-1F42C52F9CFA}"/>
+    <hyperlink ref="E602" r:id="rId506" xr:uid="{08E2CE59-B4DC-CC42-9CD5-14A7B2CA39FB}"/>
+    <hyperlink ref="E84" r:id="rId507" xr:uid="{F91DED98-C111-3A46-B196-5130C83D8312}"/>
+    <hyperlink ref="E212" r:id="rId508" xr:uid="{1DCECB2F-6034-FA46-8E85-38323D24979D}"/>
+    <hyperlink ref="E340" r:id="rId509" xr:uid="{8F01B646-4093-6A45-B541-430784C125C9}"/>
+    <hyperlink ref="E468" r:id="rId510" xr:uid="{E51FA7AA-C8F5-3E47-BCD6-E43F252E51CC}"/>
+    <hyperlink ref="E596" r:id="rId511" xr:uid="{CD34F8AE-31D2-A64A-A2CF-D9D26D3007D8}"/>
+    <hyperlink ref="E83" r:id="rId512" xr:uid="{B3E2FFFA-B76F-244C-9CD0-D3E746BA8236}"/>
+    <hyperlink ref="E211" r:id="rId513" xr:uid="{439C7FDB-B936-B143-ABB4-E8E60C6C7250}"/>
+    <hyperlink ref="E339" r:id="rId514" xr:uid="{2742E471-07A5-B64A-9F66-F620F76AD31B}"/>
+    <hyperlink ref="E467" r:id="rId515" xr:uid="{CC71430C-B064-1748-A939-FFD2557207D6}"/>
+    <hyperlink ref="E595" r:id="rId516" xr:uid="{92B88995-4CED-0746-B94D-8B26DBB0E987}"/>
+    <hyperlink ref="E21" r:id="rId517" xr:uid="{BADB2EF0-DFE6-BB4B-BCC3-6B4E91799827}"/>
+    <hyperlink ref="E41" r:id="rId518" xr:uid="{427982A7-E866-924E-82DC-44F6C8744FA0}"/>
+    <hyperlink ref="E60" r:id="rId519" xr:uid="{3A38EF6C-BCF9-824E-99CF-F1BD8CEAC2EE}"/>
+    <hyperlink ref="E149" r:id="rId520" xr:uid="{A47A07A9-F097-2841-9C0A-616B506CAB50}"/>
+    <hyperlink ref="E169" r:id="rId521" xr:uid="{3A4862E4-4FAB-9E46-B584-42BDF60BB70E}"/>
+    <hyperlink ref="E188" r:id="rId522" xr:uid="{663F7153-1BAD-844B-B434-C61EDC91E826}"/>
+    <hyperlink ref="E277" r:id="rId523" xr:uid="{D3E98AA9-3601-594A-AB6E-F01BB9171FA7}"/>
+    <hyperlink ref="E297" r:id="rId524" xr:uid="{D1E84DFD-C7D1-1444-B04E-BF5F60326F18}"/>
+    <hyperlink ref="E316" r:id="rId525" xr:uid="{BAD1AB21-8F97-494C-A43A-D27287C124E8}"/>
+    <hyperlink ref="E405" r:id="rId526" xr:uid="{A5272F02-50D2-F64A-AB02-05C226C543B2}"/>
+    <hyperlink ref="E425" r:id="rId527" xr:uid="{698534E4-ACF7-F646-9F6E-E8FF553EE7F3}"/>
+    <hyperlink ref="E444" r:id="rId528" xr:uid="{F5BC431F-CC91-5A43-A30F-D9FF591A663B}"/>
+    <hyperlink ref="E533" r:id="rId529" xr:uid="{41E571C6-ED92-5543-B11F-FA251D7DB5E8}"/>
+    <hyperlink ref="E553" r:id="rId530" xr:uid="{0AAB0CA6-AF52-9C49-9052-A7F9AE249247}"/>
+    <hyperlink ref="E572" r:id="rId531" xr:uid="{375C6FA6-CD30-2B45-859C-588E23D2F4BF}"/>
+    <hyperlink ref="E96" r:id="rId532" xr:uid="{271C361E-C043-4743-ABF6-6D8B9D4CF180}"/>
+    <hyperlink ref="E224" r:id="rId533" xr:uid="{2587AB59-8753-354C-A2B1-AAC7C4947CFB}"/>
+    <hyperlink ref="E352" r:id="rId534" xr:uid="{D4288C64-0555-8244-85AD-97700AD5F1AC}"/>
+    <hyperlink ref="E480" r:id="rId535" xr:uid="{ACFAC181-0475-C541-8C8E-C25096BF6D12}"/>
+    <hyperlink ref="E608" r:id="rId536" xr:uid="{E81BB935-A2B8-2747-B7DE-EEBE3417A99C}"/>
+    <hyperlink ref="E94" r:id="rId537" xr:uid="{BB5598C6-0A76-CF4C-B41A-4F3056328749}"/>
+    <hyperlink ref="E222" r:id="rId538" xr:uid="{DA947716-9FB8-E74E-8B6C-F977BAD3CF71}"/>
+    <hyperlink ref="E350" r:id="rId539" xr:uid="{32DB50A0-A24F-C141-AB54-ACEF691914AE}"/>
+    <hyperlink ref="E478" r:id="rId540" xr:uid="{9EDBF3ED-2843-B547-9ED5-E9983E9B81E8}"/>
+    <hyperlink ref="E606" r:id="rId541" xr:uid="{A4399020-CF2F-2C4B-A6C8-05751FB06696}"/>
+    <hyperlink ref="E93" r:id="rId542" xr:uid="{0A51E8F2-D455-E946-AA61-C9DCB1097DF5}"/>
+    <hyperlink ref="E221" r:id="rId543" xr:uid="{2B5979B5-8793-A242-9429-0E0FE727CA0A}"/>
+    <hyperlink ref="E349" r:id="rId544" xr:uid="{9D04F02E-5B54-9341-8C35-36B85D0B45C2}"/>
+    <hyperlink ref="E477" r:id="rId545" xr:uid="{82464515-7513-BA4E-94C2-F6F301021C9A}"/>
+    <hyperlink ref="E605" r:id="rId546" xr:uid="{D59F4571-A5DE-C94B-BBEA-3C6B175DA9D5}"/>
+    <hyperlink ref="E99" r:id="rId547" xr:uid="{A5601176-AC14-144F-909C-E9EFA3D12439}"/>
+    <hyperlink ref="E116" r:id="rId548" xr:uid="{FBB9F8DD-6F78-5942-84DE-B0762CCCFBED}"/>
+    <hyperlink ref="E227" r:id="rId549" xr:uid="{B7441BF8-B1B8-5743-B717-75DA0DF31CFA}"/>
+    <hyperlink ref="E244" r:id="rId550" xr:uid="{93B611AC-7312-244C-86EE-ED1A463E9C7A}"/>
+    <hyperlink ref="E355" r:id="rId551" xr:uid="{EA85251C-2628-6A49-B22B-F093146562C8}"/>
+    <hyperlink ref="E372" r:id="rId552" xr:uid="{8F1190EC-DB3B-394F-A15F-65A47DB1BE77}"/>
+    <hyperlink ref="E483" r:id="rId553" xr:uid="{A0F2622F-83DF-604A-822E-FF194B5449A7}"/>
+    <hyperlink ref="E500" r:id="rId554" xr:uid="{77380283-7A02-2C45-ADBC-8D860645E0B9}"/>
+    <hyperlink ref="E611" r:id="rId555" xr:uid="{76C8078F-D292-7444-B85C-CBC0A3098CF3}"/>
+    <hyperlink ref="E628" r:id="rId556" xr:uid="{E75A3325-9482-2542-920F-4271906512C5}"/>
+    <hyperlink ref="E98" r:id="rId557" xr:uid="{B241979C-50A1-014A-AD4C-51C02AE648C1}"/>
+    <hyperlink ref="E115" r:id="rId558" xr:uid="{8277B310-B73B-0C48-94D9-8322F1696185}"/>
+    <hyperlink ref="E226" r:id="rId559" xr:uid="{E1B16BAD-C5BA-BA4C-A255-CEE33B45A211}"/>
+    <hyperlink ref="E243" r:id="rId560" xr:uid="{64AA7759-805B-0F4E-B66B-ACB3E1EB7727}"/>
+    <hyperlink ref="E354" r:id="rId561" xr:uid="{4218D5AA-B0F8-0C42-92D0-732673DE8DB1}"/>
+    <hyperlink ref="E371" r:id="rId562" xr:uid="{94EE739B-74AC-CD42-AECD-B26B6AEB41D8}"/>
+    <hyperlink ref="E482" r:id="rId563" xr:uid="{4B9E3BF1-E99A-C241-9643-92DB570D69AE}"/>
+    <hyperlink ref="E499" r:id="rId564" xr:uid="{D526CEFC-D244-144A-A33D-6F02CCCD8A76}"/>
+    <hyperlink ref="E610" r:id="rId565" xr:uid="{798252CB-1105-FF49-8078-9A68CB665280}"/>
+    <hyperlink ref="E627" r:id="rId566" xr:uid="{A3670D25-D41D-FF41-AFD9-3CCEEAD7223C}"/>
+    <hyperlink ref="E97" r:id="rId567" xr:uid="{AE4C192E-30F7-C54D-9735-85923B20FD59}"/>
+    <hyperlink ref="E114" r:id="rId568" xr:uid="{91A6538B-C74B-3741-B33B-1C62C0154182}"/>
+    <hyperlink ref="E225" r:id="rId569" xr:uid="{DE0D7053-238D-AE47-91CA-CC89A801460B}"/>
+    <hyperlink ref="E242" r:id="rId570" xr:uid="{619D82B9-8DB1-EB4C-88B6-68328BA2270A}"/>
+    <hyperlink ref="E353" r:id="rId571" xr:uid="{71DA79FD-D5E3-6A49-9C9F-A1714B98757D}"/>
+    <hyperlink ref="E370" r:id="rId572" xr:uid="{EF6D3A4C-3DAA-9948-86CB-6A63A4034588}"/>
+    <hyperlink ref="E481" r:id="rId573" xr:uid="{118EE98E-761C-A844-B298-B1DC0EDB11D9}"/>
+    <hyperlink ref="E498" r:id="rId574" xr:uid="{B12F364C-6428-364A-B1BD-C484E04A92C3}"/>
+    <hyperlink ref="E609" r:id="rId575" xr:uid="{F518C769-62D1-3B43-8227-6CEEFB93D19A}"/>
+    <hyperlink ref="E626" r:id="rId576" xr:uid="{3507B603-0DB2-AC48-8A50-3683E6A1D9F3}"/>
+    <hyperlink ref="E2" r:id="rId577" xr:uid="{19C75EDA-16AC-404A-B59A-1E252444A177}"/>
+    <hyperlink ref="E22" r:id="rId578" xr:uid="{32DD517F-099F-EB41-B813-C9409EDF8783}"/>
+    <hyperlink ref="E42" r:id="rId579" xr:uid="{6244E683-CD6E-DB4B-914A-09D0D825AFA2}"/>
+    <hyperlink ref="E130" r:id="rId580" xr:uid="{193FFEB0-6041-A740-A0C3-85821FD7018C}"/>
+    <hyperlink ref="E150" r:id="rId581" xr:uid="{F28F9A0E-71BC-884A-BCDA-68AF90E69AB7}"/>
+    <hyperlink ref="E170" r:id="rId582" xr:uid="{3F437277-00CB-9844-A3E2-A19E58732FCB}"/>
+    <hyperlink ref="E258" r:id="rId583" xr:uid="{21F94EBD-6AB5-E742-8289-A599C0859515}"/>
+    <hyperlink ref="E278" r:id="rId584" xr:uid="{E3174439-6316-2D4D-ADFA-E4F349F45BF8}"/>
+    <hyperlink ref="E298" r:id="rId585" xr:uid="{7FA4B86D-44DE-6F4C-A80D-5703C027F993}"/>
+    <hyperlink ref="E386" r:id="rId586" xr:uid="{C9E7E5FC-90DE-3B44-943E-D103864CFE46}"/>
+    <hyperlink ref="E406" r:id="rId587" xr:uid="{81FF6B42-6B3C-F14E-AE5E-2A6F0DCEA0D1}"/>
+    <hyperlink ref="E426" r:id="rId588" xr:uid="{D9ABD36E-0E1E-DD4C-BE41-1444AA40ABC9}"/>
+    <hyperlink ref="E514" r:id="rId589" xr:uid="{63329566-F4E2-DB41-9D8D-8B038148BF64}"/>
+    <hyperlink ref="E534" r:id="rId590" xr:uid="{EB25EBB3-0F0B-D641-8DCA-41DA5B307099}"/>
+    <hyperlink ref="E554" r:id="rId591" xr:uid="{5299909E-D043-EF4B-812D-1B4FD3056B1B}"/>
+    <hyperlink ref="E79" r:id="rId592" xr:uid="{F5449C91-2717-C544-97E3-D7F71C89887B}"/>
+    <hyperlink ref="E78" r:id="rId593" xr:uid="{392EAE5F-2DFF-A746-B896-8D6E28F607CA}"/>
+    <hyperlink ref="E207" r:id="rId594" xr:uid="{4806F278-E503-C94C-8537-11C30042CBFA}"/>
+    <hyperlink ref="E206" r:id="rId595" xr:uid="{E65FAC30-0C2B-3545-9301-EBC95FEA0D4B}"/>
+    <hyperlink ref="E335" r:id="rId596" xr:uid="{E8FB4A3C-B70B-894B-A03A-07377D7AC881}"/>
+    <hyperlink ref="E334" r:id="rId597" xr:uid="{8A280D25-AC0D-854C-9F34-654E68B6BCFE}"/>
+    <hyperlink ref="E463" r:id="rId598" xr:uid="{E2555318-4C13-C946-AC95-F3E73341536E}"/>
+    <hyperlink ref="E462" r:id="rId599" xr:uid="{3588E350-15CA-BA4C-8151-7E4FEAA22339}"/>
+    <hyperlink ref="E591" r:id="rId600" xr:uid="{F145BFEE-01CE-474E-9AA3-8BF46057BA9C}"/>
+    <hyperlink ref="E590" r:id="rId601" xr:uid="{355CC7FE-DB0C-6549-954C-45EB5EA18D1C}"/>
+    <hyperlink ref="E89" r:id="rId602" xr:uid="{D2B9EA5F-C938-7F44-86C4-6359E402866F}"/>
+    <hyperlink ref="E217" r:id="rId603" xr:uid="{18AD5A75-F11D-7542-B08B-00E30A6B84A6}"/>
+    <hyperlink ref="E345" r:id="rId604" xr:uid="{69291EB5-C6A8-EB45-976A-9C47F049C9BA}"/>
+    <hyperlink ref="E473" r:id="rId605" xr:uid="{025C989B-1157-1A40-B793-B6D6FF096D40}"/>
+    <hyperlink ref="E601" r:id="rId606" xr:uid="{999EB5BE-B30B-0841-9B73-7511BC7F3BF1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/mcdonalds_prices_new.xlsx
+++ b/data/mcdonalds_prices_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Github/would_you_like_some_fries_with_that/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09016C76-2C0F-E540-AFCA-79B39A7C584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B26D71-4AB8-C149-8ED6-CC901F715575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$642</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$641</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="157">
   <si>
     <t>Classification</t>
   </si>
@@ -313,18 +313,12 @@
     <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_FOFDbl.png</t>
   </si>
   <si>
-    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_Hamburger.png</t>
-  </si>
-  <si>
     <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_McChicken.png</t>
   </si>
   <si>
     <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_BigMac.png</t>
   </si>
   <si>
-    <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2023-02/1200x1200_MOP_BBPilot_Buttermilk.png</t>
-  </si>
-  <si>
     <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png</t>
   </si>
   <si>
@@ -478,19 +472,28 @@
     <t>https://www.mcdonalds.com.sg/sites/default/files/2023-03/ProductImg3-720x480.jpg</t>
   </si>
   <si>
-    <t>https://www.mcdonalds.com.sg/sites/default/files/2023-03/Frame%20106_0.jpg</t>
-  </si>
-  <si>
-    <t>https://www.mcdonalds.com.sg/sites/default/files/2023-03/Frame%20110.jpg</t>
-  </si>
-  <si>
-    <t>https://www.mcdonalds.com.sg/sites/default/files/2023-03/Frame%20107.jpg</t>
-  </si>
-  <si>
     <t>https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-09/100%EF%BF%BD%20Pure%20Orange%20Juice_1.png</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/NicsLvl/McPredictor/master/images/acp.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NicsLvl/McPredictor/master/images/bmc.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NicsLvl/McPredictor/master/images/cgf.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NicsLvl/McPredictor/master/images/hb.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NicsLvl/McPredictor/master/images/lbmf.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NicsLvl/McPredictor/master/images/smg.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/NicsLvl/McPredictor/master/images/tcb.jpg</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -884,10 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E642"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189:E573"/>
+      <selection activeCell="E22" sqref="E22:E554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -926,10 +930,10 @@
         <v>8.9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -946,7 +950,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -963,7 +967,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -977,10 +981,10 @@
         <v>8.6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -997,7 +1001,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1011,10 +1015,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1028,10 +1032,10 @@
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1045,10 +1049,10 @@
         <v>9.9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1116,7 +1120,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1130,10 +1134,10 @@
         <v>9.1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1147,10 +1151,10 @@
         <v>7.8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1164,10 +1168,10 @@
         <v>7.5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1178,10 +1182,10 @@
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1195,10 +1199,10 @@
         <v>8.15</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1212,10 +1216,10 @@
         <v>8.15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1233,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1257,10 +1261,10 @@
         <v>7.9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1308,10 +1312,10 @@
         <v>7.6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1342,10 +1346,10 @@
         <v>8</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1359,10 +1363,10 @@
         <v>8</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1376,10 +1380,10 @@
         <v>8.9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1461,10 +1465,10 @@
         <v>8.1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1478,10 +1482,10 @@
         <v>6.8</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1495,10 +1499,10 @@
         <v>6.5</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1509,10 +1513,10 @@
         <v>6</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1526,10 +1530,10 @@
         <v>7.15</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1543,10 +1547,10 @@
         <v>7.15</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1588,10 +1592,10 @@
         <v>6.35</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1625,7 +1629,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1639,10 +1643,10 @@
         <v>5.6</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1673,10 +1677,10 @@
         <v>6.8</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1690,10 +1694,10 @@
         <v>18.8</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1707,10 +1711,10 @@
         <v>6.9</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1744,7 +1748,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1792,10 +1796,10 @@
         <v>6.8</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -1809,10 +1813,10 @@
         <v>5.4</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1829,7 +1833,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -1843,10 +1847,10 @@
         <v>2.25</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -1860,10 +1864,10 @@
         <v>5.35</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -1877,10 +1881,10 @@
         <v>5.35</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -1894,10 +1898,10 @@
         <v>2.1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -1911,10 +1915,10 @@
         <v>1.8</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1931,7 +1935,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -1945,10 +1949,10 @@
         <v>1.9</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -1962,10 +1966,10 @@
         <v>4.05</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -1979,10 +1983,10 @@
         <v>11.65</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -1996,10 +2000,10 @@
         <v>1.9</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -2013,10 +2017,10 @@
         <v>1.4</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -2030,10 +2034,10 @@
         <v>1.6</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -2047,10 +2051,10 @@
         <v>2.6</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -2064,10 +2068,10 @@
         <v>3.5</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -2081,10 +2085,10 @@
         <v>2.95</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -2098,10 +2102,10 @@
         <v>3.25</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2115,10 +2119,10 @@
         <v>3.25</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -2132,10 +2136,10 @@
         <v>2</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -2149,10 +2153,10 @@
         <v>2</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -2166,10 +2170,10 @@
         <v>1.2</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -2183,10 +2187,10 @@
         <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -2200,10 +2204,10 @@
         <v>4.2</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -2217,10 +2221,10 @@
         <v>4.2</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -2234,10 +2238,10 @@
         <v>3.8</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -2251,10 +2255,10 @@
         <v>3.8</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -2268,10 +2272,10 @@
         <v>3.5</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -2285,10 +2289,10 @@
         <v>3.4</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -2302,10 +2306,10 @@
         <v>3.4</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -2319,10 +2323,10 @@
         <v>3.7</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -2336,10 +2340,10 @@
         <v>3.7</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2353,10 +2357,10 @@
         <v>3.9</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -2370,10 +2374,10 @@
         <v>2.7</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -2387,10 +2391,10 @@
         <v>3.55</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2404,10 +2408,10 @@
         <v>2.6</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -2421,10 +2425,10 @@
         <v>2.7</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -2438,10 +2442,10 @@
         <v>2.75</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -2455,10 +2459,10 @@
         <v>2.8</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -2472,10 +2476,10 @@
         <v>2.8</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -2489,10 +2493,10 @@
         <v>2.8</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -2506,10 +2510,10 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -2523,10 +2527,10 @@
         <v>6.8</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -2540,10 +2544,10 @@
         <v>6.8</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" t="s">
         <v>35</v>
       </c>
@@ -2557,10 +2561,10 @@
         <v>7.9</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -2573,8 +2577,11 @@
       <c r="D100">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="E100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -2588,10 +2595,10 @@
         <v>7.9</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" t="s">
         <v>35</v>
       </c>
@@ -2605,10 +2612,10 @@
         <v>6.65</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" t="s">
         <v>35</v>
       </c>
@@ -2622,10 +2629,10 @@
         <v>5.95</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -2639,10 +2646,10 @@
         <v>5.65</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -2656,10 +2663,10 @@
         <v>7.3</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" t="s">
         <v>35</v>
       </c>
@@ -2673,10 +2680,10 @@
         <v>6.4</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" t="s">
         <v>35</v>
       </c>
@@ -2690,10 +2697,10 @@
         <v>4.5</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" t="s">
         <v>35</v>
       </c>
@@ -2707,10 +2714,10 @@
         <v>5.45</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" t="s">
         <v>35</v>
       </c>
@@ -2724,10 +2731,10 @@
         <v>5.25</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -2741,10 +2748,10 @@
         <v>4.5</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" t="s">
         <v>35</v>
       </c>
@@ -2758,10 +2765,10 @@
         <v>4.5</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" t="s">
         <v>35</v>
       </c>
@@ -2778,7 +2785,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -2795,7 +2802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -2809,10 +2816,10 @@
         <v>6.2</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -2826,10 +2833,10 @@
         <v>6.2</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -2843,10 +2850,10 @@
         <v>7</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -2859,8 +2866,11 @@
       <c r="D117">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="E117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -2874,10 +2884,10 @@
         <v>6.55</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -2891,10 +2901,10 @@
         <v>5.55</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -2908,10 +2918,10 @@
         <v>4.95</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -2925,10 +2935,10 @@
         <v>4.5</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -2942,10 +2952,10 @@
         <v>5.9</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -2959,10 +2969,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -2976,10 +2986,10 @@
         <v>4.5</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -2993,10 +3003,10 @@
         <v>3.1</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -3010,10 +3020,10 @@
         <v>3.7</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -3027,10 +3037,10 @@
         <v>2.9</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -3044,10 +3054,10 @@
         <v>3.7</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -3061,7 +3071,7 @@
         <v>2.25</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3078,10 +3088,10 @@
         <v>9.6</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -3098,7 +3108,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -3115,7 +3125,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -3129,10 +3139,10 @@
         <v>9.4</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -3149,7 +3159,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -3163,10 +3173,10 @@
         <v>9.85</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -3180,10 +3190,10 @@
         <v>9.85</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -3197,10 +3207,10 @@
         <v>10.9</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -3217,7 +3227,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -3234,7 +3244,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" hidden="1">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -3251,7 +3261,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" hidden="1">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -3268,7 +3278,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" hidden="1">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -3282,10 +3292,10 @@
         <v>10</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -3299,10 +3309,10 @@
         <v>8.6</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -3316,10 +3326,10 @@
         <v>8.25</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -3333,10 +3343,10 @@
         <v>6.9</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -3350,10 +3360,10 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -3367,10 +3377,10 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -3387,7 +3397,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" hidden="1">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3401,7 +3411,7 @@
         <v>6.05</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3418,10 +3428,10 @@
         <v>8.6</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -3438,7 +3448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" hidden="1">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -3455,7 +3465,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" hidden="1">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -3469,10 +3479,10 @@
         <v>8.4</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -3489,7 +3499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" hidden="1">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -3503,10 +3513,10 @@
         <v>8.85</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" hidden="1">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -3520,10 +3530,10 @@
         <v>8.85</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -3537,10 +3547,10 @@
         <v>9.9</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" hidden="1">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -3557,7 +3567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" hidden="1">
       <c r="A159" t="s">
         <v>12</v>
       </c>
@@ -3574,7 +3584,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" hidden="1">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -3591,7 +3601,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -3608,7 +3618,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -3622,10 +3632,10 @@
         <v>9</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -3639,10 +3649,10 @@
         <v>7.6</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -3656,10 +3666,10 @@
         <v>7.25</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -3673,10 +3683,10 @@
         <v>5.9</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -3690,10 +3700,10 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -3707,10 +3717,10 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -3727,7 +3737,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -3741,7 +3751,7 @@
         <v>5.05</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3758,10 +3768,10 @@
         <v>6.8</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -3778,7 +3788,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -3795,7 +3805,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -3809,10 +3819,10 @@
         <v>6.25</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -3829,7 +3839,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" hidden="1">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -3843,10 +3853,10 @@
         <v>6.8</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" hidden="1">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -3860,10 +3870,10 @@
         <v>18.8</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" hidden="1">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -3877,10 +3887,10 @@
         <v>7.7</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" hidden="1">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -3897,7 +3907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" hidden="1">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -3914,7 +3924,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" hidden="1">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -3931,7 +3941,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" hidden="1">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -3948,7 +3958,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" hidden="1">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -3962,10 +3972,10 @@
         <v>7.6</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -3979,10 +3989,10 @@
         <v>6.05</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -3999,7 +4009,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" hidden="1">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -4013,10 +4023,10 @@
         <v>2.5</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" hidden="1">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -4030,10 +4040,10 @@
         <v>6</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -4047,10 +4057,10 @@
         <v>6</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -4064,10 +4074,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -4081,10 +4091,10 @@
         <v>1.8</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -4101,7 +4111,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -4115,10 +4125,10 @@
         <v>2.1</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" hidden="1">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -4132,10 +4142,10 @@
         <v>4.55</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -4149,10 +4159,10 @@
         <v>12.95</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -4166,10 +4176,10 @@
         <v>1.8</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -4183,10 +4193,10 @@
         <v>1.5</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -4200,10 +4210,10 @@
         <v>1.8</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -4217,10 +4227,10 @@
         <v>2.9</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -4234,10 +4244,10 @@
         <v>3.5</v>
       </c>
       <c r="E198" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -4251,10 +4261,10 @@
         <v>3.25</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" hidden="1">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -4268,10 +4278,10 @@
         <v>3.65</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -4285,10 +4295,10 @@
         <v>3.65</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" hidden="1">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -4302,10 +4312,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -4319,10 +4329,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -4336,10 +4346,10 @@
         <v>1.2</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -4353,10 +4363,10 @@
         <v>1</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -4370,10 +4380,10 @@
         <v>4.7</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" hidden="1">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -4387,10 +4397,10 @@
         <v>4.7</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208" t="s">
         <v>26</v>
       </c>
@@ -4404,10 +4414,10 @@
         <v>4.2</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -4421,10 +4431,10 @@
         <v>4.2</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210" t="s">
         <v>26</v>
       </c>
@@ -4438,10 +4448,10 @@
         <v>3.85</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211" t="s">
         <v>26</v>
       </c>
@@ -4455,10 +4465,10 @@
         <v>3.8</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" hidden="1">
       <c r="A212" t="s">
         <v>26</v>
       </c>
@@ -4472,10 +4482,10 @@
         <v>3.8</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213" t="s">
         <v>26</v>
       </c>
@@ -4489,10 +4499,10 @@
         <v>4</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -4506,10 +4516,10 @@
         <v>4</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" hidden="1">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -4523,10 +4533,10 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" hidden="1">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -4540,10 +4550,10 @@
         <v>3</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" hidden="1">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -4557,10 +4567,10 @@
         <v>3.95</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" hidden="1">
       <c r="A218" t="s">
         <v>26</v>
       </c>
@@ -4574,10 +4584,10 @@
         <v>2.85</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" hidden="1">
       <c r="A219" t="s">
         <v>26</v>
       </c>
@@ -4591,10 +4601,10 @@
         <v>3</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" hidden="1">
       <c r="A220" t="s">
         <v>26</v>
       </c>
@@ -4608,10 +4618,10 @@
         <v>3.15</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221" t="s">
         <v>26</v>
       </c>
@@ -4625,10 +4635,10 @@
         <v>3.1</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" hidden="1">
       <c r="A222" t="s">
         <v>26</v>
       </c>
@@ -4642,10 +4652,10 @@
         <v>3.1</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" hidden="1">
       <c r="A223" t="s">
         <v>26</v>
       </c>
@@ -4659,10 +4669,10 @@
         <v>3.1</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" hidden="1">
       <c r="A224" t="s">
         <v>26</v>
       </c>
@@ -4676,10 +4686,10 @@
         <v>2.75</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" hidden="1">
       <c r="A225" t="s">
         <v>35</v>
       </c>
@@ -4693,10 +4703,10 @@
         <v>6.8</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" hidden="1">
       <c r="A226" t="s">
         <v>35</v>
       </c>
@@ -4710,10 +4720,10 @@
         <v>6.8</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" hidden="1">
       <c r="A227" t="s">
         <v>35</v>
       </c>
@@ -4727,10 +4737,10 @@
         <v>7.9</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" hidden="1">
       <c r="A228" t="s">
         <v>35</v>
       </c>
@@ -4743,8 +4753,11 @@
       <c r="D228">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="E228" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" hidden="1">
       <c r="A229" t="s">
         <v>35</v>
       </c>
@@ -4758,10 +4771,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" hidden="1">
       <c r="A230" t="s">
         <v>35</v>
       </c>
@@ -4775,10 +4788,10 @@
         <v>7.35</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" hidden="1">
       <c r="A231" t="s">
         <v>35</v>
       </c>
@@ -4792,10 +4805,10 @@
         <v>6.7</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" hidden="1">
       <c r="A232" t="s">
         <v>35</v>
       </c>
@@ -4809,10 +4822,10 @@
         <v>6.25</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" hidden="1">
       <c r="A233" t="s">
         <v>35</v>
       </c>
@@ -4826,10 +4839,10 @@
         <v>8.1</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" hidden="1">
       <c r="A234" t="s">
         <v>35</v>
       </c>
@@ -4843,10 +4856,10 @@
         <v>7.15</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" hidden="1">
       <c r="A235" t="s">
         <v>35</v>
       </c>
@@ -4860,10 +4873,10 @@
         <v>5</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" hidden="1">
       <c r="A236" t="s">
         <v>35</v>
       </c>
@@ -4877,10 +4890,10 @@
         <v>6.05</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" hidden="1">
       <c r="A237" t="s">
         <v>35</v>
       </c>
@@ -4894,10 +4907,10 @@
         <v>5.85</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" hidden="1">
       <c r="A238" t="s">
         <v>35</v>
       </c>
@@ -4911,10 +4924,10 @@
         <v>5</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" hidden="1">
       <c r="A239" t="s">
         <v>35</v>
       </c>
@@ -4928,10 +4941,10 @@
         <v>5</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" hidden="1">
       <c r="A240" t="s">
         <v>35</v>
       </c>
@@ -4948,7 +4961,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" hidden="1">
       <c r="A241" t="s">
         <v>35</v>
       </c>
@@ -4965,7 +4978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" hidden="1">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -4979,10 +4992,10 @@
         <v>6.2</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" hidden="1">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -4996,10 +5009,10 @@
         <v>6.2</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" hidden="1">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -5013,10 +5026,10 @@
         <v>7</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" hidden="1">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -5029,8 +5042,11 @@
       <c r="D245">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="E245" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" hidden="1">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -5044,10 +5060,10 @@
         <v>7.25</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" hidden="1">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -5061,10 +5077,10 @@
         <v>6.15</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" hidden="1">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -5078,10 +5094,10 @@
         <v>5.5</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" hidden="1">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -5095,10 +5111,10 @@
         <v>5</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" hidden="1">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -5112,10 +5128,10 @@
         <v>6.55</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" hidden="1">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -5129,10 +5145,10 @@
         <v>5.45</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" hidden="1">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -5146,10 +5162,10 @@
         <v>4.95</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" hidden="1">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -5163,10 +5179,10 @@
         <v>3.45</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" hidden="1">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -5180,10 +5196,10 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" hidden="1">
       <c r="A255" t="s">
         <v>13</v>
       </c>
@@ -5197,10 +5213,10 @@
         <v>3.25</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" hidden="1">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -5214,10 +5230,10 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" hidden="1">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -5231,7 +5247,7 @@
         <v>2.5</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5248,10 +5264,10 @@
         <v>9.6</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" hidden="1">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -5268,7 +5284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" hidden="1">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -5285,7 +5301,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" hidden="1">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -5299,10 +5315,10 @@
         <v>9.65</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" hidden="1">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -5319,7 +5335,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" hidden="1">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -5333,10 +5349,10 @@
         <v>9.85</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" hidden="1">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -5350,10 +5366,10 @@
         <v>9.85</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" hidden="1">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -5367,10 +5383,10 @@
         <v>11</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" hidden="1">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -5387,7 +5403,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" hidden="1">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -5404,7 +5420,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" hidden="1">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -5421,7 +5437,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" hidden="1">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -5438,7 +5454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" hidden="1">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -5452,10 +5468,10 @@
         <v>10.3</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" hidden="1">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -5469,10 +5485,10 @@
         <v>9</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" hidden="1">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -5486,10 +5502,10 @@
         <v>8.6</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" hidden="1">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -5503,10 +5519,10 @@
         <v>6.9</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" hidden="1">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -5520,10 +5536,10 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" hidden="1">
       <c r="A275" t="s">
         <v>4</v>
       </c>
@@ -5537,10 +5553,10 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" hidden="1">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -5557,7 +5573,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" hidden="1">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -5571,7 +5587,7 @@
         <v>6.05</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5588,10 +5604,10 @@
         <v>8.6</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" hidden="1">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -5608,7 +5624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" hidden="1">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -5625,7 +5641,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" hidden="1">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -5639,10 +5655,10 @@
         <v>8.65</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" hidden="1">
       <c r="A282" t="s">
         <v>12</v>
       </c>
@@ -5659,7 +5675,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" hidden="1">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -5673,10 +5689,10 @@
         <v>8.85</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" hidden="1">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -5690,10 +5706,10 @@
         <v>8.85</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" hidden="1">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -5707,10 +5723,10 @@
         <v>10</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" hidden="1">
       <c r="A286" t="s">
         <v>12</v>
       </c>
@@ -5727,7 +5743,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" hidden="1">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -5744,7 +5760,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" hidden="1">
       <c r="A288" t="s">
         <v>12</v>
       </c>
@@ -5761,7 +5777,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" hidden="1">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -5778,7 +5794,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" hidden="1">
       <c r="A290" t="s">
         <v>12</v>
       </c>
@@ -5792,10 +5808,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" hidden="1">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -5809,10 +5825,10 @@
         <v>8</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" hidden="1">
       <c r="A292" t="s">
         <v>12</v>
       </c>
@@ -5826,10 +5842,10 @@
         <v>7.6</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" hidden="1">
       <c r="A293" t="s">
         <v>12</v>
       </c>
@@ -5843,10 +5859,10 @@
         <v>5.9</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" hidden="1">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -5860,10 +5876,10 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" hidden="1">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -5877,10 +5893,10 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" hidden="1">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -5897,7 +5913,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" hidden="1">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -5911,7 +5927,7 @@
         <v>5.05</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5928,10 +5944,10 @@
         <v>6.95</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" hidden="1">
       <c r="A299" t="s">
         <v>13</v>
       </c>
@@ -5948,7 +5964,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" hidden="1">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -5965,7 +5981,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" hidden="1">
       <c r="A301" t="s">
         <v>13</v>
       </c>
@@ -5979,10 +5995,10 @@
         <v>6.65</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" hidden="1">
       <c r="A302" t="s">
         <v>13</v>
       </c>
@@ -5999,7 +6015,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" hidden="1">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -6013,10 +6029,10 @@
         <v>6.8</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" hidden="1">
       <c r="A304" t="s">
         <v>13</v>
       </c>
@@ -6030,10 +6046,10 @@
         <v>18.8</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" hidden="1">
       <c r="A305" t="s">
         <v>13</v>
       </c>
@@ -6047,10 +6063,10 @@
         <v>8.5</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" hidden="1">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -6067,7 +6083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" hidden="1">
       <c r="A307" t="s">
         <v>13</v>
       </c>
@@ -6084,7 +6100,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" hidden="1">
       <c r="A308" t="s">
         <v>13</v>
       </c>
@@ -6101,7 +6117,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" hidden="1">
       <c r="A309" t="s">
         <v>13</v>
       </c>
@@ -6118,7 +6134,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" hidden="1">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -6132,10 +6148,10 @@
         <v>7.45</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" hidden="1">
       <c r="A311" t="s">
         <v>13</v>
       </c>
@@ -6149,10 +6165,10 @@
         <v>6.05</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" hidden="1">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -6169,7 +6185,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" hidden="1">
       <c r="A313" t="s">
         <v>13</v>
       </c>
@@ -6183,10 +6199,10 @@
         <v>2.9</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" hidden="1">
       <c r="A314" t="s">
         <v>13</v>
       </c>
@@ -6200,10 +6216,10 @@
         <v>6.15</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" hidden="1">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -6217,10 +6233,10 @@
         <v>6.15</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" hidden="1">
       <c r="A316" t="s">
         <v>13</v>
       </c>
@@ -6234,10 +6250,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" hidden="1">
       <c r="A317" t="s">
         <v>14</v>
       </c>
@@ -6251,10 +6267,10 @@
         <v>1.8</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" hidden="1">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -6271,7 +6287,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" hidden="1">
       <c r="A319" t="s">
         <v>14</v>
       </c>
@@ -6285,10 +6301,10 @@
         <v>2.1</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" hidden="1">
       <c r="A320" t="s">
         <v>14</v>
       </c>
@@ -6302,10 +6318,10 @@
         <v>5.45</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" hidden="1">
       <c r="A321" t="s">
         <v>14</v>
       </c>
@@ -6319,10 +6335,10 @@
         <v>13.05</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" hidden="1">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -6336,10 +6352,10 @@
         <v>1.8</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" hidden="1">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -6353,10 +6369,10 @@
         <v>1.5</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" hidden="1">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -6370,10 +6386,10 @@
         <v>1.8</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" hidden="1">
       <c r="A325" t="s">
         <v>14</v>
       </c>
@@ -6387,10 +6403,10 @@
         <v>2.95</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" hidden="1">
       <c r="A326" t="s">
         <v>21</v>
       </c>
@@ -6404,10 +6420,10 @@
         <v>3.5</v>
       </c>
       <c r="E326" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" hidden="1">
       <c r="A327" t="s">
         <v>21</v>
       </c>
@@ -6421,10 +6437,10 @@
         <v>3.35</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" hidden="1">
       <c r="A328" t="s">
         <v>21</v>
       </c>
@@ -6438,10 +6454,10 @@
         <v>3.75</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" hidden="1">
       <c r="A329" t="s">
         <v>21</v>
       </c>
@@ -6455,10 +6471,10 @@
         <v>3.75</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" hidden="1">
       <c r="A330" t="s">
         <v>21</v>
       </c>
@@ -6472,10 +6488,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" hidden="1">
       <c r="A331" t="s">
         <v>21</v>
       </c>
@@ -6489,10 +6505,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" hidden="1">
       <c r="A332" t="s">
         <v>21</v>
       </c>
@@ -6506,10 +6522,10 @@
         <v>1.2</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" hidden="1">
       <c r="A333" t="s">
         <v>21</v>
       </c>
@@ -6523,10 +6539,10 @@
         <v>1</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" hidden="1">
       <c r="A334" t="s">
         <v>26</v>
       </c>
@@ -6540,10 +6556,10 @@
         <v>5</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" hidden="1">
       <c r="A335" t="s">
         <v>26</v>
       </c>
@@ -6557,10 +6573,10 @@
         <v>5</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" hidden="1">
       <c r="A336" t="s">
         <v>26</v>
       </c>
@@ -6574,10 +6590,10 @@
         <v>4.5</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" hidden="1">
       <c r="A337" t="s">
         <v>26</v>
       </c>
@@ -6591,10 +6607,10 @@
         <v>4.5</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" hidden="1">
       <c r="A338" t="s">
         <v>26</v>
       </c>
@@ -6608,10 +6624,10 @@
         <v>4</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" hidden="1">
       <c r="A339" t="s">
         <v>26</v>
       </c>
@@ -6625,10 +6641,10 @@
         <v>3.9</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" hidden="1">
       <c r="A340" t="s">
         <v>26</v>
       </c>
@@ -6642,10 +6658,10 @@
         <v>3.8</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" hidden="1">
       <c r="A341" t="s">
         <v>26</v>
       </c>
@@ -6659,10 +6675,10 @@
         <v>4</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" hidden="1">
       <c r="A342" t="s">
         <v>26</v>
       </c>
@@ -6676,10 +6692,10 @@
         <v>4</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" hidden="1">
       <c r="A343" t="s">
         <v>26</v>
       </c>
@@ -6693,10 +6709,10 @@
         <v>4.45</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" hidden="1">
       <c r="A344" t="s">
         <v>26</v>
       </c>
@@ -6710,10 +6726,10 @@
         <v>3</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" hidden="1">
       <c r="A345" t="s">
         <v>26</v>
       </c>
@@ -6727,10 +6743,10 @@
         <v>4</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" hidden="1">
       <c r="A346" t="s">
         <v>26</v>
       </c>
@@ -6744,10 +6760,10 @@
         <v>2.85</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" hidden="1">
       <c r="A347" t="s">
         <v>26</v>
       </c>
@@ -6761,10 +6777,10 @@
         <v>3</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" hidden="1">
       <c r="A348" t="s">
         <v>26</v>
       </c>
@@ -6778,10 +6794,10 @@
         <v>3.25</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" hidden="1">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -6795,10 +6811,10 @@
         <v>3.15</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" hidden="1">
       <c r="A350" t="s">
         <v>26</v>
       </c>
@@ -6812,10 +6828,10 @@
         <v>3.15</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" hidden="1">
       <c r="A351" t="s">
         <v>26</v>
       </c>
@@ -6829,10 +6845,10 @@
         <v>3.15</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" hidden="1">
       <c r="A352" t="s">
         <v>26</v>
       </c>
@@ -6846,10 +6862,10 @@
         <v>2.85</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" hidden="1">
       <c r="A353" t="s">
         <v>35</v>
       </c>
@@ -6863,10 +6879,10 @@
         <v>6.8</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" hidden="1">
       <c r="A354" t="s">
         <v>35</v>
       </c>
@@ -6880,10 +6896,10 @@
         <v>6.8</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" hidden="1">
       <c r="A355" t="s">
         <v>35</v>
       </c>
@@ -6897,10 +6913,10 @@
         <v>8.1</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" hidden="1">
       <c r="A356" t="s">
         <v>35</v>
       </c>
@@ -6913,8 +6929,11 @@
       <c r="D356">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="357" spans="1:5">
+      <c r="E356" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" hidden="1">
       <c r="A357" t="s">
         <v>35</v>
       </c>
@@ -6928,10 +6947,10 @@
         <v>8.9</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" hidden="1">
       <c r="A358" t="s">
         <v>35</v>
       </c>
@@ -6945,10 +6964,10 @@
         <v>7.7</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" hidden="1">
       <c r="A359" t="s">
         <v>35</v>
       </c>
@@ -6962,10 +6981,10 @@
         <v>6.7</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" hidden="1">
       <c r="A360" t="s">
         <v>35</v>
       </c>
@@ -6979,10 +6998,10 @@
         <v>6.35</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" hidden="1">
       <c r="A361" t="s">
         <v>35</v>
       </c>
@@ -6996,10 +7015,10 @@
         <v>7.9</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" hidden="1">
       <c r="A362" t="s">
         <v>35</v>
       </c>
@@ -7013,10 +7032,10 @@
         <v>6.85</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" hidden="1">
       <c r="A363" t="s">
         <v>35</v>
       </c>
@@ -7030,10 +7049,10 @@
         <v>5</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" hidden="1">
       <c r="A364" t="s">
         <v>35</v>
       </c>
@@ -7047,10 +7066,10 @@
         <v>5.95</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" hidden="1">
       <c r="A365" t="s">
         <v>35</v>
       </c>
@@ -7064,10 +7083,10 @@
         <v>5.85</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" hidden="1">
       <c r="A366" t="s">
         <v>35</v>
       </c>
@@ -7081,10 +7100,10 @@
         <v>5</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" hidden="1">
       <c r="A367" t="s">
         <v>35</v>
       </c>
@@ -7098,10 +7117,10 @@
         <v>5</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" hidden="1">
       <c r="A368" t="s">
         <v>35</v>
       </c>
@@ -7118,7 +7137,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" hidden="1">
       <c r="A369" t="s">
         <v>35</v>
       </c>
@@ -7135,7 +7154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" hidden="1">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -7149,10 +7168,10 @@
         <v>6.1</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" hidden="1">
       <c r="A371" t="s">
         <v>13</v>
       </c>
@@ -7166,10 +7185,10 @@
         <v>6.1</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" hidden="1">
       <c r="A372" t="s">
         <v>13</v>
       </c>
@@ -7183,10 +7202,10 @@
         <v>6.9</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" hidden="1">
       <c r="A373" t="s">
         <v>13</v>
       </c>
@@ -7199,8 +7218,11 @@
       <c r="D373">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="374" spans="1:5">
+      <c r="E373" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" hidden="1">
       <c r="A374" t="s">
         <v>13</v>
       </c>
@@ -7214,10 +7236,10 @@
         <v>7.35</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" hidden="1">
       <c r="A375" t="s">
         <v>13</v>
       </c>
@@ -7231,10 +7253,10 @@
         <v>6.25</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" hidden="1">
       <c r="A376" t="s">
         <v>13</v>
       </c>
@@ -7248,10 +7270,10 @@
         <v>5.5</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" hidden="1">
       <c r="A377" t="s">
         <v>13</v>
       </c>
@@ -7265,10 +7287,10 @@
         <v>5.15</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" hidden="1">
       <c r="A378" t="s">
         <v>13</v>
       </c>
@@ -7282,10 +7304,10 @@
         <v>6.55</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" hidden="1">
       <c r="A379" t="s">
         <v>13</v>
       </c>
@@ -7299,10 +7321,10 @@
         <v>5.65</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" hidden="1">
       <c r="A380" t="s">
         <v>13</v>
       </c>
@@ -7316,10 +7338,10 @@
         <v>4.95</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" hidden="1">
       <c r="A381" t="s">
         <v>13</v>
       </c>
@@ -7333,10 +7355,10 @@
         <v>3.45</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" hidden="1">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -7350,10 +7372,10 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" hidden="1">
       <c r="A383" t="s">
         <v>13</v>
       </c>
@@ -7367,10 +7389,10 @@
         <v>3.25</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" hidden="1">
       <c r="A384" t="s">
         <v>13</v>
       </c>
@@ -7384,10 +7406,10 @@
         <v>4.05</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" hidden="1">
       <c r="A385" t="s">
         <v>14</v>
       </c>
@@ -7401,7 +7423,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7418,10 +7440,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" hidden="1">
       <c r="A387" t="s">
         <v>4</v>
       </c>
@@ -7438,7 +7460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" hidden="1">
       <c r="A388" t="s">
         <v>4</v>
       </c>
@@ -7455,7 +7477,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" hidden="1">
       <c r="A389" t="s">
         <v>4</v>
       </c>
@@ -7469,10 +7491,10 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" hidden="1">
       <c r="A390" t="s">
         <v>4</v>
       </c>
@@ -7489,7 +7511,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" hidden="1">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -7503,10 +7525,10 @@
         <v>10.050000000000001</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" hidden="1">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -7520,10 +7542,10 @@
         <v>10.050000000000001</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" hidden="1">
       <c r="A393" t="s">
         <v>4</v>
       </c>
@@ -7537,10 +7559,10 @@
         <v>11</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" hidden="1">
       <c r="A394" t="s">
         <v>4</v>
       </c>
@@ -7557,7 +7579,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" hidden="1">
       <c r="A395" t="s">
         <v>4</v>
       </c>
@@ -7574,7 +7596,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" hidden="1">
       <c r="A396" t="s">
         <v>4</v>
       </c>
@@ -7591,7 +7613,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" hidden="1">
       <c r="A397" t="s">
         <v>4</v>
       </c>
@@ -7608,7 +7630,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" hidden="1">
       <c r="A398" t="s">
         <v>4</v>
       </c>
@@ -7622,10 +7644,10 @@
         <v>10</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" hidden="1">
       <c r="A399" t="s">
         <v>4</v>
       </c>
@@ -7639,10 +7661,10 @@
         <v>8.6</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" hidden="1">
       <c r="A400" t="s">
         <v>4</v>
       </c>
@@ -7656,10 +7678,10 @@
         <v>8.35</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" hidden="1">
       <c r="A401" t="s">
         <v>4</v>
       </c>
@@ -7673,10 +7695,10 @@
         <v>7.2</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" hidden="1">
       <c r="A402" t="s">
         <v>4</v>
       </c>
@@ -7690,10 +7712,10 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" hidden="1">
       <c r="A403" t="s">
         <v>4</v>
       </c>
@@ -7707,10 +7729,10 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" hidden="1">
       <c r="A404" t="s">
         <v>4</v>
       </c>
@@ -7727,7 +7749,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" hidden="1">
       <c r="A405" t="s">
         <v>4</v>
       </c>
@@ -7741,7 +7763,7 @@
         <v>6.05</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7758,10 +7780,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" hidden="1">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -7778,7 +7800,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" hidden="1">
       <c r="A408" t="s">
         <v>12</v>
       </c>
@@ -7795,7 +7817,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" hidden="1">
       <c r="A409" t="s">
         <v>12</v>
       </c>
@@ -7809,10 +7831,10 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" hidden="1">
       <c r="A410" t="s">
         <v>12</v>
       </c>
@@ -7829,7 +7851,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" hidden="1">
       <c r="A411" t="s">
         <v>12</v>
       </c>
@@ -7843,10 +7865,10 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E411" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" hidden="1">
       <c r="A412" t="s">
         <v>12</v>
       </c>
@@ -7860,10 +7882,10 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" hidden="1">
       <c r="A413" t="s">
         <v>12</v>
       </c>
@@ -7877,10 +7899,10 @@
         <v>10</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" hidden="1">
       <c r="A414" t="s">
         <v>12</v>
       </c>
@@ -7897,7 +7919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" hidden="1">
       <c r="A415" t="s">
         <v>12</v>
       </c>
@@ -7914,7 +7936,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" hidden="1">
       <c r="A416" t="s">
         <v>12</v>
       </c>
@@ -7931,7 +7953,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" hidden="1">
       <c r="A417" t="s">
         <v>12</v>
       </c>
@@ -7948,7 +7970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" hidden="1">
       <c r="A418" t="s">
         <v>12</v>
       </c>
@@ -7962,10 +7984,10 @@
         <v>9</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" hidden="1">
       <c r="A419" t="s">
         <v>12</v>
       </c>
@@ -7979,10 +8001,10 @@
         <v>7.6</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" hidden="1">
       <c r="A420" t="s">
         <v>12</v>
       </c>
@@ -7996,10 +8018,10 @@
         <v>7.35</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" hidden="1">
       <c r="A421" t="s">
         <v>12</v>
       </c>
@@ -8013,10 +8035,10 @@
         <v>6.2</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" hidden="1">
       <c r="A422" t="s">
         <v>12</v>
       </c>
@@ -8030,10 +8052,10 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" hidden="1">
       <c r="A423" t="s">
         <v>12</v>
       </c>
@@ -8047,10 +8069,10 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" hidden="1">
       <c r="A424" t="s">
         <v>12</v>
       </c>
@@ -8067,7 +8089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" hidden="1">
       <c r="A425" t="s">
         <v>12</v>
       </c>
@@ -8081,7 +8103,7 @@
         <v>5.05</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -8098,10 +8120,10 @@
         <v>6.95</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" hidden="1">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -8118,7 +8140,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" hidden="1">
       <c r="A428" t="s">
         <v>13</v>
       </c>
@@ -8135,7 +8157,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" hidden="1">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -8149,10 +8171,10 @@
         <v>6.3</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" hidden="1">
       <c r="A430" t="s">
         <v>13</v>
       </c>
@@ -8169,7 +8191,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" hidden="1">
       <c r="A431" t="s">
         <v>13</v>
       </c>
@@ -8183,10 +8205,10 @@
         <v>7</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" hidden="1">
       <c r="A432" t="s">
         <v>13</v>
       </c>
@@ -8200,10 +8222,10 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" hidden="1">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -8217,10 +8239,10 @@
         <v>7.8</v>
       </c>
       <c r="E433" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" hidden="1">
       <c r="A434" t="s">
         <v>13</v>
       </c>
@@ -8237,7 +8259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" hidden="1">
       <c r="A435" t="s">
         <v>13</v>
       </c>
@@ -8254,7 +8276,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" hidden="1">
       <c r="A436" t="s">
         <v>13</v>
       </c>
@@ -8271,7 +8293,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" hidden="1">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -8288,7 +8310,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" hidden="1">
       <c r="A438" t="s">
         <v>13</v>
       </c>
@@ -8302,10 +8324,10 @@
         <v>7.9</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" hidden="1">
       <c r="A439" t="s">
         <v>13</v>
       </c>
@@ -8319,10 +8341,10 @@
         <v>6.05</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" hidden="1">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -8339,7 +8361,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" hidden="1">
       <c r="A441" t="s">
         <v>13</v>
       </c>
@@ -8353,10 +8375,10 @@
         <v>3</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" hidden="1">
       <c r="A442" t="s">
         <v>13</v>
       </c>
@@ -8370,10 +8392,10 @@
         <v>6.15</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" hidden="1">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -8387,10 +8409,10 @@
         <v>6.15</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" hidden="1">
       <c r="A444" t="s">
         <v>13</v>
       </c>
@@ -8404,10 +8426,10 @@
         <v>2.85</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" hidden="1">
       <c r="A445" t="s">
         <v>14</v>
       </c>
@@ -8421,10 +8443,10 @@
         <v>1.8</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" hidden="1">
       <c r="A446" t="s">
         <v>14</v>
       </c>
@@ -8441,7 +8463,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" hidden="1">
       <c r="A447" t="s">
         <v>14</v>
       </c>
@@ -8455,10 +8477,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E447" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" hidden="1">
       <c r="A448" t="s">
         <v>14</v>
       </c>
@@ -8472,10 +8494,10 @@
         <v>4.8</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" hidden="1">
       <c r="A449" t="s">
         <v>14</v>
       </c>
@@ -8489,10 +8511,10 @@
         <v>13.15</v>
       </c>
       <c r="E449" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" hidden="1">
       <c r="A450" t="s">
         <v>14</v>
       </c>
@@ -8506,10 +8528,10 @@
         <v>1.95</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" hidden="1">
       <c r="A451" t="s">
         <v>14</v>
       </c>
@@ -8523,10 +8545,10 @@
         <v>1.5</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" hidden="1">
       <c r="A452" t="s">
         <v>14</v>
       </c>
@@ -8540,10 +8562,10 @@
         <v>1.95</v>
       </c>
       <c r="E452" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" hidden="1">
       <c r="A453" t="s">
         <v>14</v>
       </c>
@@ -8557,10 +8579,10 @@
         <v>3</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" hidden="1">
       <c r="A454" t="s">
         <v>21</v>
       </c>
@@ -8574,10 +8596,10 @@
         <v>3.7</v>
       </c>
       <c r="E454" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" hidden="1">
       <c r="A455" t="s">
         <v>21</v>
       </c>
@@ -8591,10 +8613,10 @@
         <v>3.35</v>
       </c>
       <c r="E455" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" hidden="1">
       <c r="A456" t="s">
         <v>21</v>
       </c>
@@ -8608,10 +8630,10 @@
         <v>3.75</v>
       </c>
       <c r="E456" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" hidden="1">
       <c r="A457" t="s">
         <v>21</v>
       </c>
@@ -8625,10 +8647,10 @@
         <v>3.75</v>
       </c>
       <c r="E457" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" hidden="1">
       <c r="A458" t="s">
         <v>21</v>
       </c>
@@ -8642,10 +8664,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E458" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" hidden="1">
       <c r="A459" t="s">
         <v>21</v>
       </c>
@@ -8659,10 +8681,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" hidden="1">
       <c r="A460" t="s">
         <v>21</v>
       </c>
@@ -8676,10 +8698,10 @@
         <v>1.2</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" hidden="1">
       <c r="A461" t="s">
         <v>21</v>
       </c>
@@ -8693,10 +8715,10 @@
         <v>1</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" hidden="1">
       <c r="A462" t="s">
         <v>26</v>
       </c>
@@ -8710,10 +8732,10 @@
         <v>5</v>
       </c>
       <c r="E462" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" hidden="1">
       <c r="A463" t="s">
         <v>26</v>
       </c>
@@ -8727,10 +8749,10 @@
         <v>5</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" hidden="1">
       <c r="A464" t="s">
         <v>26</v>
       </c>
@@ -8744,10 +8766,10 @@
         <v>4.5</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" hidden="1">
       <c r="A465" t="s">
         <v>26</v>
       </c>
@@ -8761,10 +8783,10 @@
         <v>4.5</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" hidden="1">
       <c r="A466" t="s">
         <v>26</v>
       </c>
@@ -8778,10 +8800,10 @@
         <v>4</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" hidden="1">
       <c r="A467" t="s">
         <v>26</v>
       </c>
@@ -8795,10 +8817,10 @@
         <v>3.95</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" hidden="1">
       <c r="A468" t="s">
         <v>26</v>
       </c>
@@ -8812,10 +8834,10 @@
         <v>3.95</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" hidden="1">
       <c r="A469" t="s">
         <v>26</v>
       </c>
@@ -8829,10 +8851,10 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" hidden="1">
       <c r="A470" t="s">
         <v>26</v>
       </c>
@@ -8846,10 +8868,10 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="E470" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" hidden="1">
       <c r="A471" t="s">
         <v>26</v>
       </c>
@@ -8863,10 +8885,10 @@
         <v>4.45</v>
       </c>
       <c r="E471" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" hidden="1">
       <c r="A472" t="s">
         <v>26</v>
       </c>
@@ -8880,10 +8902,10 @@
         <v>3.15</v>
       </c>
       <c r="E472" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" hidden="1">
       <c r="A473" t="s">
         <v>26</v>
       </c>
@@ -8897,10 +8919,10 @@
         <v>4</v>
       </c>
       <c r="E473" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" hidden="1">
       <c r="A474" t="s">
         <v>26</v>
       </c>
@@ -8914,10 +8936,10 @@
         <v>2.9</v>
       </c>
       <c r="E474" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" hidden="1">
       <c r="A475" t="s">
         <v>26</v>
       </c>
@@ -8931,10 +8953,10 @@
         <v>3.15</v>
       </c>
       <c r="E475" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" hidden="1">
       <c r="A476" t="s">
         <v>26</v>
       </c>
@@ -8948,10 +8970,10 @@
         <v>3.25</v>
       </c>
       <c r="E476" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" hidden="1">
       <c r="A477" t="s">
         <v>26</v>
       </c>
@@ -8965,10 +8987,10 @@
         <v>3.15</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" hidden="1">
       <c r="A478" t="s">
         <v>26</v>
       </c>
@@ -8982,10 +9004,10 @@
         <v>3.15</v>
       </c>
       <c r="E478" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" hidden="1">
       <c r="A479" t="s">
         <v>26</v>
       </c>
@@ -8999,10 +9021,10 @@
         <v>3.15</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" hidden="1">
       <c r="A480" t="s">
         <v>26</v>
       </c>
@@ -9016,10 +9038,10 @@
         <v>2.85</v>
       </c>
       <c r="E480" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" hidden="1">
       <c r="A481" t="s">
         <v>35</v>
       </c>
@@ -9033,10 +9055,10 @@
         <v>6.8</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" hidden="1">
       <c r="A482" t="s">
         <v>35</v>
       </c>
@@ -9050,10 +9072,10 @@
         <v>6.8</v>
       </c>
       <c r="E482" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" hidden="1">
       <c r="A483" t="s">
         <v>35</v>
       </c>
@@ -9067,10 +9089,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" hidden="1">
       <c r="A484" t="s">
         <v>35</v>
       </c>
@@ -9083,8 +9105,11 @@
       <c r="D484">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="485" spans="1:5">
+      <c r="E484" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" hidden="1">
       <c r="A485" t="s">
         <v>35</v>
       </c>
@@ -9098,10 +9123,10 @@
         <v>9</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" hidden="1">
       <c r="A486" t="s">
         <v>35</v>
       </c>
@@ -9115,10 +9140,10 @@
         <v>8</v>
       </c>
       <c r="E486" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" hidden="1">
       <c r="A487" t="s">
         <v>35</v>
       </c>
@@ -9132,10 +9157,10 @@
         <v>6.45</v>
       </c>
       <c r="E487" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" hidden="1">
       <c r="A488" t="s">
         <v>35</v>
       </c>
@@ -9149,10 +9174,10 @@
         <v>6.35</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" hidden="1">
       <c r="A489" t="s">
         <v>35</v>
       </c>
@@ -9166,10 +9191,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" hidden="1">
       <c r="A490" t="s">
         <v>35</v>
       </c>
@@ -9183,10 +9208,10 @@
         <v>7.7</v>
       </c>
       <c r="E490" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" hidden="1">
       <c r="A491" t="s">
         <v>35</v>
       </c>
@@ -9200,10 +9225,10 @@
         <v>5</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" hidden="1">
       <c r="A492" t="s">
         <v>35</v>
       </c>
@@ -9217,10 +9242,10 @@
         <v>6.05</v>
       </c>
       <c r="E492" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" hidden="1">
       <c r="A493" t="s">
         <v>35</v>
       </c>
@@ -9234,10 +9259,10 @@
         <v>5.85</v>
       </c>
       <c r="E493" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" hidden="1">
       <c r="A494" t="s">
         <v>35</v>
       </c>
@@ -9251,10 +9276,10 @@
         <v>5</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" hidden="1">
       <c r="A495" t="s">
         <v>35</v>
       </c>
@@ -9268,10 +9293,10 @@
         <v>5</v>
       </c>
       <c r="E495" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" hidden="1">
       <c r="A496" t="s">
         <v>35</v>
       </c>
@@ -9288,7 +9313,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" hidden="1">
       <c r="A497" t="s">
         <v>35</v>
       </c>
@@ -9305,7 +9330,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" hidden="1">
       <c r="A498" t="s">
         <v>13</v>
       </c>
@@ -9319,10 +9344,10 @@
         <v>6.1</v>
       </c>
       <c r="E498" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" hidden="1">
       <c r="A499" t="s">
         <v>13</v>
       </c>
@@ -9336,10 +9361,10 @@
         <v>6.1</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" hidden="1">
       <c r="A500" t="s">
         <v>13</v>
       </c>
@@ -9353,10 +9378,10 @@
         <v>6.9</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" hidden="1">
       <c r="A501" t="s">
         <v>13</v>
       </c>
@@ -9369,8 +9394,11 @@
       <c r="D501">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="502" spans="1:5">
+      <c r="E501" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" hidden="1">
       <c r="A502" t="s">
         <v>13</v>
       </c>
@@ -9384,10 +9412,10 @@
         <v>7.45</v>
       </c>
       <c r="E502" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" hidden="1">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -9401,10 +9429,10 @@
         <v>6.45</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" hidden="1">
       <c r="A504" t="s">
         <v>13</v>
       </c>
@@ -9418,10 +9446,10 @@
         <v>5.25</v>
       </c>
       <c r="E504" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" hidden="1">
       <c r="A505" t="s">
         <v>13</v>
       </c>
@@ -9435,10 +9463,10 @@
         <v>4.95</v>
       </c>
       <c r="E505" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" hidden="1">
       <c r="A506" t="s">
         <v>13</v>
       </c>
@@ -9452,10 +9480,10 @@
         <v>6.65</v>
       </c>
       <c r="E506" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" hidden="1">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -9469,10 +9497,10 @@
         <v>5.65</v>
       </c>
       <c r="E507" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" hidden="1">
       <c r="A508" t="s">
         <v>13</v>
       </c>
@@ -9486,10 +9514,10 @@
         <v>4.95</v>
       </c>
       <c r="E508" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" hidden="1">
       <c r="A509" t="s">
         <v>13</v>
       </c>
@@ -9503,10 +9531,10 @@
         <v>3.55</v>
       </c>
       <c r="E509" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" hidden="1">
       <c r="A510" t="s">
         <v>13</v>
       </c>
@@ -9520,10 +9548,10 @@
         <v>4.25</v>
       </c>
       <c r="E510" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" hidden="1">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -9537,10 +9565,10 @@
         <v>3.45</v>
       </c>
       <c r="E511" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" hidden="1">
       <c r="A512" t="s">
         <v>13</v>
       </c>
@@ -9554,10 +9582,10 @@
         <v>4.05</v>
       </c>
       <c r="E512" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" hidden="1">
       <c r="A513" t="s">
         <v>14</v>
       </c>
@@ -9571,7 +9599,7 @@
         <v>2.75</v>
       </c>
       <c r="E513" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -9588,10 +9616,10 @@
         <v>10</v>
       </c>
       <c r="E514" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" hidden="1">
       <c r="A515" t="s">
         <v>4</v>
       </c>
@@ -9608,7 +9636,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" hidden="1">
       <c r="A516" t="s">
         <v>4</v>
       </c>
@@ -9625,7 +9653,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" hidden="1">
       <c r="A517" t="s">
         <v>4</v>
       </c>
@@ -9639,10 +9667,10 @@
         <v>9.65</v>
       </c>
       <c r="E517" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" hidden="1">
       <c r="A518" t="s">
         <v>4</v>
       </c>
@@ -9659,7 +9687,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" hidden="1">
       <c r="A519" t="s">
         <v>4</v>
       </c>
@@ -9673,10 +9701,10 @@
         <v>10.4</v>
       </c>
       <c r="E519" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" hidden="1">
       <c r="A520" t="s">
         <v>4</v>
       </c>
@@ -9690,10 +9718,10 @@
         <v>10.4</v>
       </c>
       <c r="E520" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" hidden="1">
       <c r="A521" t="s">
         <v>4</v>
       </c>
@@ -9707,10 +9735,10 @@
         <v>11.2</v>
       </c>
       <c r="E521" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" hidden="1">
       <c r="A522" t="s">
         <v>4</v>
       </c>
@@ -9727,7 +9755,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" hidden="1">
       <c r="A523" t="s">
         <v>4</v>
       </c>
@@ -9744,7 +9772,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" hidden="1">
       <c r="A524" t="s">
         <v>4</v>
       </c>
@@ -9761,7 +9789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" hidden="1">
       <c r="A525" t="s">
         <v>4</v>
       </c>
@@ -9778,7 +9806,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" hidden="1">
       <c r="A526" t="s">
         <v>4</v>
       </c>
@@ -9792,10 +9820,10 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="E526" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" hidden="1">
       <c r="A527" t="s">
         <v>4</v>
       </c>
@@ -9809,10 +9837,10 @@
         <v>8.6</v>
       </c>
       <c r="E527" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" hidden="1">
       <c r="A528" t="s">
         <v>4</v>
       </c>
@@ -9826,10 +9854,10 @@
         <v>8.35</v>
       </c>
       <c r="E528" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" hidden="1">
       <c r="A529" t="s">
         <v>4</v>
       </c>
@@ -9840,10 +9868,10 @@
         <v>51</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" hidden="1">
       <c r="A530" t="s">
         <v>4</v>
       </c>
@@ -9857,10 +9885,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E530" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" hidden="1">
       <c r="A531" t="s">
         <v>4</v>
       </c>
@@ -9874,10 +9902,10 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E531" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" hidden="1">
       <c r="A532" t="s">
         <v>4</v>
       </c>
@@ -9891,7 +9919,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" hidden="1">
       <c r="A533" t="s">
         <v>4</v>
       </c>
@@ -9902,7 +9930,7 @@
         <v>51</v>
       </c>
       <c r="E533" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -9919,10 +9947,10 @@
         <v>9</v>
       </c>
       <c r="E534" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" hidden="1">
       <c r="A535" t="s">
         <v>12</v>
       </c>
@@ -9939,7 +9967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" hidden="1">
       <c r="A536" t="s">
         <v>12</v>
       </c>
@@ -9956,7 +9984,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" hidden="1">
       <c r="A537" t="s">
         <v>12</v>
       </c>
@@ -9970,10 +9998,10 @@
         <v>8.65</v>
       </c>
       <c r="E537" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" hidden="1">
       <c r="A538" t="s">
         <v>12</v>
       </c>
@@ -9990,7 +10018,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" hidden="1">
       <c r="A539" t="s">
         <v>12</v>
       </c>
@@ -10004,10 +10032,10 @@
         <v>9.4</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" hidden="1">
       <c r="A540" t="s">
         <v>12</v>
       </c>
@@ -10021,10 +10049,10 @@
         <v>9.4</v>
       </c>
       <c r="E540" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" hidden="1">
       <c r="A541" t="s">
         <v>12</v>
       </c>
@@ -10038,10 +10066,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E541" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" hidden="1">
       <c r="A542" t="s">
         <v>12</v>
       </c>
@@ -10058,7 +10086,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" hidden="1">
       <c r="A543" t="s">
         <v>12</v>
       </c>
@@ -10075,7 +10103,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" hidden="1">
       <c r="A544" t="s">
         <v>12</v>
       </c>
@@ -10092,7 +10120,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" hidden="1">
       <c r="A545" t="s">
         <v>12</v>
       </c>
@@ -10109,7 +10137,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" hidden="1">
       <c r="A546" t="s">
         <v>12</v>
       </c>
@@ -10123,10 +10151,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E546" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" hidden="1">
       <c r="A547" t="s">
         <v>12</v>
       </c>
@@ -10140,10 +10168,10 @@
         <v>7.6</v>
       </c>
       <c r="E547" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="548" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" hidden="1">
       <c r="A548" t="s">
         <v>12</v>
       </c>
@@ -10157,10 +10185,10 @@
         <v>7.35</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="549" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" hidden="1">
       <c r="A549" t="s">
         <v>12</v>
       </c>
@@ -10171,10 +10199,10 @@
         <v>51</v>
       </c>
       <c r="E549" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" hidden="1">
       <c r="A550" t="s">
         <v>12</v>
       </c>
@@ -10188,10 +10216,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E550" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" hidden="1">
       <c r="A551" t="s">
         <v>12</v>
       </c>
@@ -10205,10 +10233,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" hidden="1">
       <c r="A552" t="s">
         <v>12</v>
       </c>
@@ -10222,7 +10250,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" hidden="1">
       <c r="A553" t="s">
         <v>12</v>
       </c>
@@ -10233,7 +10261,7 @@
         <v>51</v>
       </c>
       <c r="E553" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -10250,10 +10278,10 @@
         <v>7.6</v>
       </c>
       <c r="E554" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" hidden="1">
       <c r="A555" t="s">
         <v>13</v>
       </c>
@@ -10270,7 +10298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" hidden="1">
       <c r="A556" t="s">
         <v>13</v>
       </c>
@@ -10287,7 +10315,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" hidden="1">
       <c r="A557" t="s">
         <v>13</v>
       </c>
@@ -10301,10 +10329,10 @@
         <v>6.45</v>
       </c>
       <c r="E557" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="558" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" hidden="1">
       <c r="A558" t="s">
         <v>13</v>
       </c>
@@ -10321,7 +10349,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" hidden="1">
       <c r="A559" t="s">
         <v>13</v>
       </c>
@@ -10335,10 +10363,10 @@
         <v>7.25</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="560" spans="1:5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" hidden="1">
       <c r="A560" t="s">
         <v>13</v>
       </c>
@@ -10352,10 +10380,10 @@
         <v>19</v>
       </c>
       <c r="E560" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" hidden="1">
       <c r="A561" t="s">
         <v>13</v>
       </c>
@@ -10369,10 +10397,10 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="E561" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" hidden="1">
       <c r="A562" t="s">
         <v>13</v>
       </c>
@@ -10389,7 +10417,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" hidden="1">
       <c r="A563" t="s">
         <v>13</v>
       </c>
@@ -10406,7 +10434,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" hidden="1">
       <c r="A564" t="s">
         <v>13</v>
       </c>
@@ -10423,7 +10451,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" hidden="1">
       <c r="A565" t="s">
         <v>13</v>
       </c>
@@ -10440,7 +10468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" hidden="1">
       <c r="A566" t="s">
         <v>13</v>
       </c>
@@ -10454,10 +10482,10 @@
         <v>7.6</v>
       </c>
       <c r="E566" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" hidden="1">
       <c r="A567" t="s">
         <v>13</v>
       </c>
@@ -10471,10 +10499,10 @@
         <v>6.05</v>
       </c>
       <c r="E567" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" hidden="1">
       <c r="A568" t="s">
         <v>13</v>
       </c>
@@ -10491,7 +10519,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" hidden="1">
       <c r="A569" t="s">
         <v>13</v>
       </c>
@@ -10505,10 +10533,10 @@
         <v>4</v>
       </c>
       <c r="E569" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="570" spans="1:5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" hidden="1">
       <c r="A570" t="s">
         <v>13</v>
       </c>
@@ -10522,10 +10550,10 @@
         <v>6.35</v>
       </c>
       <c r="E570" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="571" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" hidden="1">
       <c r="A571" t="s">
         <v>13</v>
       </c>
@@ -10539,10 +10567,10 @@
         <v>6.35</v>
       </c>
       <c r="E571" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" hidden="1">
       <c r="A572" t="s">
         <v>13</v>
       </c>
@@ -10556,10 +10584,10 @@
         <v>2.85</v>
       </c>
       <c r="E572" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" hidden="1">
       <c r="A573" t="s">
         <v>14</v>
       </c>
@@ -10573,10 +10601,10 @@
         <v>1.9</v>
       </c>
       <c r="E573" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" hidden="1">
       <c r="A574" t="s">
         <v>14</v>
       </c>
@@ -10593,7 +10621,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" hidden="1">
       <c r="A575" t="s">
         <v>14</v>
       </c>
@@ -10607,10 +10635,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E575" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" hidden="1">
       <c r="A576" t="s">
         <v>14</v>
       </c>
@@ -10624,10 +10652,10 @@
         <v>5.45</v>
       </c>
       <c r="E576" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" hidden="1">
       <c r="A577" t="s">
         <v>14</v>
       </c>
@@ -10641,10 +10669,10 @@
         <v>13.75</v>
       </c>
       <c r="E577" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" hidden="1">
       <c r="A578" t="s">
         <v>14</v>
       </c>
@@ -10658,10 +10686,10 @@
         <v>2.1</v>
       </c>
       <c r="E578" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="579" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" hidden="1">
       <c r="A579" t="s">
         <v>14</v>
       </c>
@@ -10675,10 +10703,10 @@
         <v>1.6</v>
       </c>
       <c r="E579" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="580" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" hidden="1">
       <c r="A580" t="s">
         <v>14</v>
       </c>
@@ -10692,10 +10720,10 @@
         <v>2.1</v>
       </c>
       <c r="E580" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="581" spans="1:5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" hidden="1">
       <c r="A581" t="s">
         <v>14</v>
       </c>
@@ -10709,10 +10737,10 @@
         <v>3</v>
       </c>
       <c r="E581" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="582" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" hidden="1">
       <c r="A582" t="s">
         <v>21</v>
       </c>
@@ -10726,10 +10754,10 @@
         <v>3.9</v>
       </c>
       <c r="E582" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="583" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" hidden="1">
       <c r="A583" t="s">
         <v>21</v>
       </c>
@@ -10743,10 +10771,10 @@
         <v>3.45</v>
       </c>
       <c r="E583" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="584" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" hidden="1">
       <c r="A584" t="s">
         <v>21</v>
       </c>
@@ -10760,10 +10788,10 @@
         <v>3.85</v>
       </c>
       <c r="E584" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="585" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" hidden="1">
       <c r="A585" t="s">
         <v>21</v>
       </c>
@@ -10777,10 +10805,10 @@
         <v>3.85</v>
       </c>
       <c r="E585" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="586" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" hidden="1">
       <c r="A586" t="s">
         <v>21</v>
       </c>
@@ -10794,10 +10822,10 @@
         <v>2.4</v>
       </c>
       <c r="E586" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="587" spans="1:5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" hidden="1">
       <c r="A587" t="s">
         <v>21</v>
       </c>
@@ -10811,10 +10839,10 @@
         <v>2.4</v>
       </c>
       <c r="E587" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="588" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" hidden="1">
       <c r="A588" t="s">
         <v>21</v>
       </c>
@@ -10828,10 +10856,10 @@
         <v>1.7</v>
       </c>
       <c r="E588" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="589" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" hidden="1">
       <c r="A589" t="s">
         <v>21</v>
       </c>
@@ -10845,10 +10873,10 @@
         <v>1.5</v>
       </c>
       <c r="E589" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="590" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" hidden="1">
       <c r="A590" t="s">
         <v>26</v>
       </c>
@@ -10862,10 +10890,10 @@
         <v>5.25</v>
       </c>
       <c r="E590" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="591" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" hidden="1">
       <c r="A591" t="s">
         <v>26</v>
       </c>
@@ -10879,10 +10907,10 @@
         <v>5.25</v>
       </c>
       <c r="E591" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="592" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" hidden="1">
       <c r="A592" t="s">
         <v>26</v>
       </c>
@@ -10896,10 +10924,10 @@
         <v>4.75</v>
       </c>
       <c r="E592" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="593" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" hidden="1">
       <c r="A593" t="s">
         <v>26</v>
       </c>
@@ -10913,10 +10941,10 @@
         <v>4.75</v>
       </c>
       <c r="E593" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="594" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" hidden="1">
       <c r="A594" t="s">
         <v>26</v>
       </c>
@@ -10930,10 +10958,10 @@
         <v>4</v>
       </c>
       <c r="E594" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="595" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" hidden="1">
       <c r="A595" t="s">
         <v>26</v>
       </c>
@@ -10947,10 +10975,10 @@
         <v>3.9</v>
       </c>
       <c r="E595" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="596" spans="1:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" hidden="1">
       <c r="A596" t="s">
         <v>26</v>
       </c>
@@ -10964,10 +10992,10 @@
         <v>3.9</v>
       </c>
       <c r="E596" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="597" spans="1:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" hidden="1">
       <c r="A597" t="s">
         <v>26</v>
       </c>
@@ -10981,10 +11009,10 @@
         <v>4.45</v>
       </c>
       <c r="E597" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="598" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" hidden="1">
       <c r="A598" t="s">
         <v>26</v>
       </c>
@@ -10998,10 +11026,10 @@
         <v>4.45</v>
       </c>
       <c r="E598" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="599" spans="1:5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" hidden="1">
       <c r="A599" t="s">
         <v>26</v>
       </c>
@@ -11015,10 +11043,10 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E599" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="600" spans="1:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" hidden="1">
       <c r="A600" t="s">
         <v>26</v>
       </c>
@@ -11032,10 +11060,10 @@
         <v>3.15</v>
       </c>
       <c r="E600" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="601" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" hidden="1">
       <c r="A601" t="s">
         <v>26</v>
       </c>
@@ -11049,10 +11077,10 @@
         <v>4</v>
       </c>
       <c r="E601" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="602" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" hidden="1">
       <c r="A602" t="s">
         <v>26</v>
       </c>
@@ -11066,10 +11094,10 @@
         <v>3</v>
       </c>
       <c r="E602" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="603" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" hidden="1">
       <c r="A603" t="s">
         <v>26</v>
       </c>
@@ -11083,10 +11111,10 @@
         <v>3.15</v>
       </c>
       <c r="E603" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="604" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" hidden="1">
       <c r="A604" t="s">
         <v>26</v>
       </c>
@@ -11100,10 +11128,10 @@
         <v>3.3</v>
       </c>
       <c r="E604" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="605" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" hidden="1">
       <c r="A605" t="s">
         <v>26</v>
       </c>
@@ -11117,10 +11145,10 @@
         <v>3.15</v>
       </c>
       <c r="E605" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="606" spans="1:5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" hidden="1">
       <c r="A606" t="s">
         <v>26</v>
       </c>
@@ -11134,10 +11162,10 @@
         <v>3.15</v>
       </c>
       <c r="E606" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="607" spans="1:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" hidden="1">
       <c r="A607" t="s">
         <v>26</v>
       </c>
@@ -11151,10 +11179,10 @@
         <v>3.15</v>
       </c>
       <c r="E607" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="608" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" hidden="1">
       <c r="A608" t="s">
         <v>26</v>
       </c>
@@ -11168,10 +11196,10 @@
         <v>2.85</v>
       </c>
       <c r="E608" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="609" spans="1:5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" hidden="1">
       <c r="A609" t="s">
         <v>35</v>
       </c>
@@ -11185,10 +11213,10 @@
         <v>6.8</v>
       </c>
       <c r="E609" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="610" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" hidden="1">
       <c r="A610" t="s">
         <v>35</v>
       </c>
@@ -11202,10 +11230,10 @@
         <v>6.8</v>
       </c>
       <c r="E610" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="611" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" hidden="1">
       <c r="A611" t="s">
         <v>35</v>
       </c>
@@ -11219,10 +11247,10 @@
         <v>8.5</v>
       </c>
       <c r="E611" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="612" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" hidden="1">
       <c r="A612" t="s">
         <v>35</v>
       </c>
@@ -11235,8 +11263,11 @@
       <c r="D612">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="613" spans="1:5">
+      <c r="E612" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" hidden="1">
       <c r="A613" t="s">
         <v>35</v>
       </c>
@@ -11250,10 +11281,10 @@
         <v>9.4</v>
       </c>
       <c r="E613" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="614" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" hidden="1">
       <c r="A614" t="s">
         <v>35</v>
       </c>
@@ -11267,10 +11298,10 @@
         <v>8</v>
       </c>
       <c r="E614" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="615" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" hidden="1">
       <c r="A615" t="s">
         <v>35</v>
       </c>
@@ -11284,10 +11315,10 @@
         <v>7.15</v>
       </c>
       <c r="E615" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="616" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" hidden="1">
       <c r="A616" t="s">
         <v>35</v>
       </c>
@@ -11301,10 +11332,10 @@
         <v>6.85</v>
       </c>
       <c r="E616" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="617" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" hidden="1">
       <c r="A617" t="s">
         <v>35</v>
       </c>
@@ -11318,10 +11349,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E617" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="618" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" hidden="1">
       <c r="A618" t="s">
         <v>35</v>
       </c>
@@ -11335,10 +11366,10 @@
         <v>7.7</v>
       </c>
       <c r="E618" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="619" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" hidden="1">
       <c r="A619" t="s">
         <v>35</v>
       </c>
@@ -11352,10 +11383,10 @@
         <v>5.3</v>
       </c>
       <c r="E619" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="620" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" hidden="1">
       <c r="A620" t="s">
         <v>35</v>
       </c>
@@ -11369,10 +11400,10 @@
         <v>6.55</v>
       </c>
       <c r="E620" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="621" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" hidden="1">
       <c r="A621" t="s">
         <v>35</v>
       </c>
@@ -11386,10 +11417,10 @@
         <v>6.55</v>
       </c>
       <c r="E621" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="622" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" hidden="1">
       <c r="A622" t="s">
         <v>35</v>
       </c>
@@ -11403,10 +11434,10 @@
         <v>5.5</v>
       </c>
       <c r="E622" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="623" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" hidden="1">
       <c r="A623" t="s">
         <v>35</v>
       </c>
@@ -11420,10 +11451,10 @@
         <v>5.9</v>
       </c>
       <c r="E623" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="624" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" hidden="1">
       <c r="A624" t="s">
         <v>35</v>
       </c>
@@ -11440,7 +11471,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" hidden="1">
       <c r="A625" t="s">
         <v>35</v>
       </c>
@@ -11457,7 +11488,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" hidden="1">
       <c r="A626" t="s">
         <v>13</v>
       </c>
@@ -11471,10 +11502,10 @@
         <v>6.15</v>
       </c>
       <c r="E626" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="627" spans="1:5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" hidden="1">
       <c r="A627" t="s">
         <v>13</v>
       </c>
@@ -11488,10 +11519,10 @@
         <v>6.15</v>
       </c>
       <c r="E627" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="628" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" hidden="1">
       <c r="A628" t="s">
         <v>13</v>
       </c>
@@ -11505,10 +11536,10 @@
         <v>6.95</v>
       </c>
       <c r="E628" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="629" spans="1:5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" hidden="1">
       <c r="A629" t="s">
         <v>13</v>
       </c>
@@ -11521,8 +11552,11 @@
       <c r="D629">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="630" spans="1:5">
+      <c r="E629" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" hidden="1">
       <c r="A630" t="s">
         <v>13</v>
       </c>
@@ -11536,10 +11570,10 @@
         <v>7.7</v>
       </c>
       <c r="E630" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="631" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" hidden="1">
       <c r="A631" t="s">
         <v>13</v>
       </c>
@@ -11553,10 +11587,10 @@
         <v>6.55</v>
       </c>
       <c r="E631" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="632" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" hidden="1">
       <c r="A632" t="s">
         <v>13</v>
       </c>
@@ -11570,10 +11604,10 @@
         <v>5.45</v>
       </c>
       <c r="E632" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="633" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" hidden="1">
       <c r="A633" t="s">
         <v>13</v>
       </c>
@@ -11587,10 +11621,10 @@
         <v>5.15</v>
       </c>
       <c r="E633" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="634" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" hidden="1">
       <c r="A634" t="s">
         <v>13</v>
       </c>
@@ -11604,10 +11638,10 @@
         <v>6.65</v>
       </c>
       <c r="E634" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="635" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" hidden="1">
       <c r="A635" t="s">
         <v>13</v>
       </c>
@@ -11621,10 +11655,10 @@
         <v>5.65</v>
       </c>
       <c r="E635" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="636" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" hidden="1">
       <c r="A636" t="s">
         <v>13</v>
       </c>
@@ -11638,10 +11672,10 @@
         <v>5.25</v>
       </c>
       <c r="E636" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="637" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" hidden="1">
       <c r="A637" t="s">
         <v>13</v>
       </c>
@@ -11655,10 +11689,10 @@
         <v>4.25</v>
       </c>
       <c r="E637" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="638" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" hidden="1">
       <c r="A638" t="s">
         <v>13</v>
       </c>
@@ -11672,10 +11706,10 @@
         <v>4.95</v>
       </c>
       <c r="E638" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="639" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" hidden="1">
       <c r="A639" t="s">
         <v>13</v>
       </c>
@@ -11689,10 +11723,10 @@
         <v>4.05</v>
       </c>
       <c r="E639" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="640" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" hidden="1">
       <c r="A640" t="s">
         <v>13</v>
       </c>
@@ -11706,10 +11740,10 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E640" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="641" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" hidden="1">
       <c r="A641" t="s">
         <v>14</v>
       </c>
@@ -11723,14 +11757,17 @@
         <v>2.85</v>
       </c>
       <c r="E641" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="642" spans="1:5">
-      <c r="E642" s="3"/>
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E642" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E641" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Triple Cheeseburger"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{53C6EBAC-04CF-C441-88FE-500B30F05CC6}"/>
     <hyperlink ref="E24" r:id="rId2" xr:uid="{2FFCED32-EA01-434B-936E-143E7EFDA0EC}"/>
@@ -11892,452 +11929,408 @@
     <hyperlink ref="E517" r:id="rId158" xr:uid="{34BE6690-579E-BC4C-A1EB-0F446245602D}"/>
     <hyperlink ref="E537" r:id="rId159" xr:uid="{1125A451-7CC4-D244-A782-3C1A6EF95409}"/>
     <hyperlink ref="E557" r:id="rId160" xr:uid="{52AA5A92-9674-3A41-8D47-00226482788B}"/>
-    <hyperlink ref="E9" r:id="rId161" xr:uid="{BA322832-B77C-BF45-9EB7-EEC2652C5F9D}"/>
-    <hyperlink ref="E29" r:id="rId162" xr:uid="{47EDE755-501F-974D-8076-9A6E7360C1BA}"/>
-    <hyperlink ref="E49" r:id="rId163" xr:uid="{5A7E54F9-2A36-3F4F-896A-ED74B1BA5FBB}"/>
-    <hyperlink ref="E137" r:id="rId164" xr:uid="{63A53244-FDD4-CB40-AA56-79D657337E6E}"/>
-    <hyperlink ref="E157" r:id="rId165" xr:uid="{0CB3805B-7E47-8849-A4D0-38140DFEEA2C}"/>
-    <hyperlink ref="E177" r:id="rId166" xr:uid="{46B16477-D7C6-D940-B0D4-8AFA4DAFBA32}"/>
-    <hyperlink ref="E265" r:id="rId167" xr:uid="{44609EC2-9AD7-2B4F-961A-FE8AF248C1E4}"/>
-    <hyperlink ref="E285" r:id="rId168" xr:uid="{2424F09C-7ADB-8C4A-A3BC-01C5CBDAB566}"/>
-    <hyperlink ref="E305" r:id="rId169" xr:uid="{5F6B8D62-C2F1-3F43-A75D-15D47A3AEAEB}"/>
-    <hyperlink ref="E393" r:id="rId170" xr:uid="{93497B9F-7716-3B4A-B458-B319316FF93E}"/>
-    <hyperlink ref="E413" r:id="rId171" xr:uid="{5118BACB-3A7D-8548-9675-16CCB9D3FC18}"/>
-    <hyperlink ref="E433" r:id="rId172" xr:uid="{0B4122E4-D993-5B4A-A193-A39BF3649A89}"/>
-    <hyperlink ref="E521" r:id="rId173" xr:uid="{3E73CC3C-A337-D441-BAAE-E85515C21A77}"/>
-    <hyperlink ref="E541" r:id="rId174" xr:uid="{82A98CF4-A985-A341-8675-DB85F7F335F7}"/>
-    <hyperlink ref="E561" r:id="rId175" xr:uid="{1BD68FCF-FEE7-9F4A-A1E5-C6ADEB2AB24D}"/>
-    <hyperlink ref="E7" r:id="rId176" xr:uid="{93E34E97-2E10-1F4E-A5F5-6C3A7A766CB2}"/>
-    <hyperlink ref="E8" r:id="rId177" xr:uid="{5CABFA95-F784-904C-AE03-8B64A6F916A1}"/>
-    <hyperlink ref="E27:E28" r:id="rId178" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{9E544F47-FF4F-2941-B284-D9C7E9B03624}"/>
-    <hyperlink ref="E47" r:id="rId179" xr:uid="{343C3278-4119-774A-9118-5DD58429C07B}"/>
-    <hyperlink ref="E135:E136" r:id="rId180" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{4D87441E-F814-AD42-91FC-BDCD4FF017C0}"/>
-    <hyperlink ref="E155:E156" r:id="rId181" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{1779A7AB-2343-4642-BCDA-F7C497A760F5}"/>
-    <hyperlink ref="E175" r:id="rId182" xr:uid="{FC0A67A1-9E7D-4B49-AC50-60131687B7D2}"/>
-    <hyperlink ref="E263:E264" r:id="rId183" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{88969EBA-C3A3-3548-B0F2-2F436D78A962}"/>
-    <hyperlink ref="E283:E284" r:id="rId184" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{6919EEC4-4A15-C34B-8F40-BDC7D87158EC}"/>
-    <hyperlink ref="E303" r:id="rId185" xr:uid="{4D106F4D-2434-AB4B-A4D6-35CA6BB4EF3F}"/>
-    <hyperlink ref="E391:E392" r:id="rId186" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{C1C4ECAF-EA65-114A-A77C-1ABA1947BB9D}"/>
-    <hyperlink ref="E411:E412" r:id="rId187" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{983C80DD-8BB1-9141-9A1A-7DE46FC33397}"/>
-    <hyperlink ref="E431" r:id="rId188" xr:uid="{B9AC2D03-73E6-564A-A2EE-F49F8060385A}"/>
-    <hyperlink ref="E519:E520" r:id="rId189" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{AC19DC78-BC2E-0341-82ED-D241E3C1490A}"/>
-    <hyperlink ref="E539:E540" r:id="rId190" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{22880354-BA6E-D848-8267-EBFB870C1F5D}"/>
-    <hyperlink ref="E559" r:id="rId191" xr:uid="{ECFED108-92E7-2C48-B0F9-55360F16562D}"/>
-    <hyperlink ref="E48" r:id="rId192" xr:uid="{8579CC14-AD9A-1448-BFF0-33FF4ABC627B}"/>
-    <hyperlink ref="E176" r:id="rId193" xr:uid="{7E5C8699-A4E4-0B45-ADEB-364B2D44C290}"/>
-    <hyperlink ref="E304" r:id="rId194" xr:uid="{1D0B3092-ADD4-2B4A-843D-86D2AB253F38}"/>
-    <hyperlink ref="E432" r:id="rId195" xr:uid="{4514CCE5-B1D5-684B-9142-2BC41C05A1A9}"/>
-    <hyperlink ref="E560" r:id="rId196" xr:uid="{1F5831CE-3C20-E34F-BFCA-0ED270029D6C}"/>
-    <hyperlink ref="E15" r:id="rId197" xr:uid="{E228B421-8951-5C42-B126-4DD98969E58E}"/>
-    <hyperlink ref="E35" r:id="rId198" xr:uid="{E8D04C6C-EB0A-2444-9EBD-804881FF938D}"/>
-    <hyperlink ref="E55" r:id="rId199" xr:uid="{BE62FCC3-354E-AC49-A8D8-DBD7E759FF8D}"/>
-    <hyperlink ref="E143" r:id="rId200" xr:uid="{9DBE499C-FE9B-9348-93C8-B15DCF51470B}"/>
-    <hyperlink ref="E163" r:id="rId201" xr:uid="{5F06E789-5338-BF41-B57A-E6C5716D13A7}"/>
-    <hyperlink ref="E183" r:id="rId202" xr:uid="{0654A80C-1F35-CF44-828D-DA039400E4D8}"/>
-    <hyperlink ref="E271" r:id="rId203" xr:uid="{CDBF6014-062C-AA43-B34D-FC1350178D66}"/>
-    <hyperlink ref="E291" r:id="rId204" xr:uid="{3E0D683B-85B3-7A4F-A60A-DBCB730AEDC4}"/>
-    <hyperlink ref="E311" r:id="rId205" xr:uid="{6AC0D95D-A9AF-814C-A9D1-2DF0E5AE909D}"/>
-    <hyperlink ref="E399" r:id="rId206" xr:uid="{2A236C58-16B4-644F-AF26-F1E414F625A2}"/>
-    <hyperlink ref="E419" r:id="rId207" xr:uid="{2C708E12-3169-054E-B721-28B0906ED17D}"/>
-    <hyperlink ref="E439" r:id="rId208" xr:uid="{03149B43-AA07-8449-96F6-EC594BBA12D1}"/>
-    <hyperlink ref="E527" r:id="rId209" xr:uid="{0F274B41-70BE-8145-980A-5145105F2ADC}"/>
-    <hyperlink ref="E547" r:id="rId210" xr:uid="{A24B4343-4DB3-554F-94FB-58562DC57B10}"/>
-    <hyperlink ref="E567" r:id="rId211" xr:uid="{43854FFD-D572-3349-8EDC-CABFE2EFB909}"/>
-    <hyperlink ref="E14" r:id="rId212" xr:uid="{B9901A7B-920A-FF42-9356-F5DEA03746B5}"/>
-    <hyperlink ref="E34" r:id="rId213" xr:uid="{692D1E62-357B-0F40-8E65-3FC78208AD4F}"/>
-    <hyperlink ref="E54" r:id="rId214" xr:uid="{8D539190-D962-5E45-9044-276BCD61DBB6}"/>
-    <hyperlink ref="E142" r:id="rId215" xr:uid="{302C1678-57FC-5E43-BE4A-4B1310EFA55E}"/>
-    <hyperlink ref="E162" r:id="rId216" xr:uid="{737192C0-EC99-284E-A0DF-B38ECB6A1D4D}"/>
-    <hyperlink ref="E182" r:id="rId217" xr:uid="{165D3AAD-9161-834E-80B8-ED438753D97B}"/>
-    <hyperlink ref="E270" r:id="rId218" xr:uid="{219CCD01-954C-7F46-8012-87A16F7B29C6}"/>
-    <hyperlink ref="E290" r:id="rId219" xr:uid="{6467ED67-BEC1-D545-88C9-869EF6B8C439}"/>
-    <hyperlink ref="E310" r:id="rId220" xr:uid="{BEEE85D7-ACD9-1642-B355-DACEC43AA763}"/>
-    <hyperlink ref="E398" r:id="rId221" xr:uid="{481430FA-5A47-4443-8074-EF5B11215ABB}"/>
-    <hyperlink ref="E418" r:id="rId222" xr:uid="{5B904AFD-A52A-0944-8A22-A664978B1D1B}"/>
-    <hyperlink ref="E438" r:id="rId223" xr:uid="{92BEC331-CDD2-FD4C-AADC-A31B2AF13B77}"/>
-    <hyperlink ref="E526" r:id="rId224" xr:uid="{449688AD-104D-D949-A10E-9CF26AFD6713}"/>
-    <hyperlink ref="E546" r:id="rId225" xr:uid="{DEBC2A3D-E4C9-0347-B243-EC8C05C78A5E}"/>
-    <hyperlink ref="E566" r:id="rId226" xr:uid="{621A6CF0-B3FF-E446-9504-11D30552EBF6}"/>
-    <hyperlink ref="E65" r:id="rId227" xr:uid="{0C32FF86-E1B0-5541-BB7C-3451039D0D97}"/>
-    <hyperlink ref="E193" r:id="rId228" xr:uid="{2E04ACB8-66D3-9E43-B335-501CB7A409E6}"/>
-    <hyperlink ref="E321" r:id="rId229" xr:uid="{72CE33A7-714E-6042-A532-1011BA68DB2F}"/>
-    <hyperlink ref="E449" r:id="rId230" xr:uid="{17320089-70E6-1E4B-817D-2592D2E205C6}"/>
-    <hyperlink ref="E577" r:id="rId231" xr:uid="{945338D1-8640-9142-AE63-5C0C8FAF48EF}"/>
-    <hyperlink ref="E69" r:id="rId232" xr:uid="{19CC2D14-5CE9-AE48-A266-10045E7BDCFC}"/>
-    <hyperlink ref="E197" r:id="rId233" xr:uid="{7E054F16-7E24-8045-8A1D-F7F4B5E24D7F}"/>
-    <hyperlink ref="E325" r:id="rId234" xr:uid="{02B832E0-F751-6548-AD76-150CECF1B52E}"/>
-    <hyperlink ref="E453" r:id="rId235" xr:uid="{1F7187E9-5D9D-404A-90EF-506E420D9041}"/>
-    <hyperlink ref="E581" r:id="rId236" xr:uid="{C6D7CF26-09A5-B041-9135-27D6EB2C9B53}"/>
-    <hyperlink ref="E16" r:id="rId237" xr:uid="{6D3DCAFB-0E99-7D45-9829-3F1DCD3CA0AA}"/>
-    <hyperlink ref="E36" r:id="rId238" xr:uid="{2D0528DD-70C3-2C4A-BA2E-BBB3083B7349}"/>
-    <hyperlink ref="E64" r:id="rId239" xr:uid="{F30278CC-0E95-1048-AA5B-4B4ACC9A1393}"/>
-    <hyperlink ref="E144" r:id="rId240" xr:uid="{0065542C-072C-1342-9939-979C3856EAF5}"/>
-    <hyperlink ref="E164" r:id="rId241" xr:uid="{BFBC62F9-553E-034B-A52C-382289833B28}"/>
-    <hyperlink ref="E192" r:id="rId242" xr:uid="{8725E135-BCBB-E343-8B68-41BFDFD0928C}"/>
-    <hyperlink ref="E272" r:id="rId243" xr:uid="{3342087D-CDCB-484F-9D4F-7DB8F3974DEE}"/>
-    <hyperlink ref="E292" r:id="rId244" xr:uid="{17020C9D-B631-974A-8389-1501732FF5DB}"/>
-    <hyperlink ref="E320" r:id="rId245" xr:uid="{7E03FDFE-C7CC-A44F-AD4D-479F2FF66AED}"/>
-    <hyperlink ref="E400" r:id="rId246" xr:uid="{BB8EFB08-BF6F-9649-8F39-B0DD469A2403}"/>
-    <hyperlink ref="E420" r:id="rId247" xr:uid="{BDEBCFF4-4080-9346-8D7D-79BD8CA1FBB4}"/>
-    <hyperlink ref="E448" r:id="rId248" xr:uid="{1EAE7BEC-3E4C-CD44-8E1F-48F43B69CA4C}"/>
-    <hyperlink ref="E528" r:id="rId249" xr:uid="{8B2E4A57-2C53-994A-8821-44FA8857611E}"/>
-    <hyperlink ref="E548" r:id="rId250" xr:uid="{DCC4428F-5241-544C-A195-32E7508ED047}"/>
-    <hyperlink ref="E576" r:id="rId251" xr:uid="{BB96E72A-AA8A-BF41-91A8-FEDE2563C5E3}"/>
-    <hyperlink ref="E18" r:id="rId252" xr:uid="{379DE4D6-D203-6448-99CD-E724EA9BBA8C}"/>
-    <hyperlink ref="E38" r:id="rId253" xr:uid="{AA6EC971-C011-B541-9201-D3BF1158FE20}"/>
-    <hyperlink ref="E58" r:id="rId254" xr:uid="{6B5CEE7D-2C4E-844B-88F4-806359021B42}"/>
-    <hyperlink ref="E146" r:id="rId255" xr:uid="{67A1B8B3-606E-B440-9860-0EE2336A7AAD}"/>
-    <hyperlink ref="E166" r:id="rId256" xr:uid="{0133BB93-9F80-F046-A6EF-98F59BE2E1AA}"/>
-    <hyperlink ref="E186" r:id="rId257" xr:uid="{9D18D69A-4D96-1C46-8053-738F68B524C1}"/>
-    <hyperlink ref="E274" r:id="rId258" xr:uid="{293874B3-D420-BB40-9CE8-AECAABDEBF9D}"/>
-    <hyperlink ref="E294" r:id="rId259" xr:uid="{43C9ABB5-FA78-6145-9C0F-28BB0F2229FC}"/>
-    <hyperlink ref="E314" r:id="rId260" xr:uid="{7C09A030-54F8-E94B-8BC2-0138170D7B9D}"/>
-    <hyperlink ref="E402" r:id="rId261" xr:uid="{2E757B37-F5C8-7943-A684-6444C1968DCA}"/>
-    <hyperlink ref="E422" r:id="rId262" xr:uid="{DB33C444-379F-7343-A88F-28C7F0C10DC9}"/>
-    <hyperlink ref="E442" r:id="rId263" xr:uid="{BBA19AAA-3F8E-3D41-B22E-33E49460B05A}"/>
-    <hyperlink ref="E530" r:id="rId264" xr:uid="{AD75D116-ADEC-BF46-8536-77ACE4CE9DEA}"/>
-    <hyperlink ref="E550" r:id="rId265" xr:uid="{80F9294A-EF59-5840-99BC-28423FD0FB58}"/>
-    <hyperlink ref="E570" r:id="rId266" xr:uid="{D80EB90A-A49F-5D46-A5FD-E9430866B123}"/>
-    <hyperlink ref="E19" r:id="rId267" xr:uid="{8E0BA78F-7ED8-B140-88BA-98F77A2BB34D}"/>
-    <hyperlink ref="E39" r:id="rId268" xr:uid="{AA97DDD2-0E0B-924F-B039-3CD1F991BCC8}"/>
-    <hyperlink ref="E59" r:id="rId269" xr:uid="{1BE572E3-8B08-484E-A863-5D6F568ACF80}"/>
-    <hyperlink ref="E147" r:id="rId270" xr:uid="{EFD1A658-366F-FB4E-98A1-ABA82125A65E}"/>
-    <hyperlink ref="E167" r:id="rId271" xr:uid="{D7F4FFB0-22EB-DC49-8B88-690B17A510AE}"/>
-    <hyperlink ref="E187" r:id="rId272" xr:uid="{2B96CDDC-EBCD-D740-8246-6A44F657A8FC}"/>
-    <hyperlink ref="E275" r:id="rId273" xr:uid="{265661CA-55F5-E14B-9B33-652772701C81}"/>
-    <hyperlink ref="E295" r:id="rId274" xr:uid="{3060177B-ECAA-B848-B607-0930DBE382EF}"/>
-    <hyperlink ref="E315" r:id="rId275" xr:uid="{420AF9BC-9E73-6C4C-A1F2-4BD0EA6BA6B1}"/>
-    <hyperlink ref="E403" r:id="rId276" xr:uid="{9A90DC3B-8B18-FB4F-8BB8-294F953A81CD}"/>
-    <hyperlink ref="E423" r:id="rId277" xr:uid="{EF7409F3-3467-174A-8175-B1CDD6F638BE}"/>
-    <hyperlink ref="E443" r:id="rId278" xr:uid="{9332E1FC-E752-E44D-949C-8EE361D1248D}"/>
-    <hyperlink ref="E531" r:id="rId279" xr:uid="{8205FD45-49B4-9142-ABC4-16C43B119534}"/>
-    <hyperlink ref="E551" r:id="rId280" xr:uid="{987BADB9-7962-7A4A-84E7-CFFD252ACE00}"/>
-    <hyperlink ref="E571" r:id="rId281" xr:uid="{D4514C35-18F4-654E-9E58-CFC754A3102C}"/>
-    <hyperlink ref="E102" r:id="rId282" xr:uid="{596077BE-5A82-554A-86F3-39F0E5ECD77B}"/>
-    <hyperlink ref="E119" r:id="rId283" xr:uid="{0E4FF34D-2781-8D4C-9601-95506E70CFC4}"/>
-    <hyperlink ref="E230" r:id="rId284" xr:uid="{51E2F56B-A91D-3C48-BAC0-DF508FBCB778}"/>
-    <hyperlink ref="E247" r:id="rId285" xr:uid="{318FAE24-7428-0B4B-A32B-3F2D7B7F9711}"/>
-    <hyperlink ref="E358" r:id="rId286" xr:uid="{2E9351A7-677D-6447-93B1-021529598805}"/>
-    <hyperlink ref="E375" r:id="rId287" xr:uid="{CD69F5CF-1537-FC46-9C38-5187AFD46EA3}"/>
-    <hyperlink ref="E486" r:id="rId288" xr:uid="{402EA39F-54FC-E146-AD83-793EB606EF49}"/>
-    <hyperlink ref="E503" r:id="rId289" xr:uid="{8AF927C8-FFB9-7046-A241-DF4B4991742A}"/>
-    <hyperlink ref="E614" r:id="rId290" xr:uid="{150C7A9D-7E47-004C-8AC8-D9CACF818CC2}"/>
-    <hyperlink ref="E631" r:id="rId291" xr:uid="{541DEBBB-CBF5-C54B-8629-9B75F4453E65}"/>
-    <hyperlink ref="E101" r:id="rId292" xr:uid="{7A3BF476-EC2B-5D45-998C-3EEBE88CCB48}"/>
-    <hyperlink ref="E118" r:id="rId293" xr:uid="{708F7938-C526-5B45-85A0-139F35F86B95}"/>
-    <hyperlink ref="E229" r:id="rId294" xr:uid="{9E1F3D19-5638-FF4C-9FB7-9B134EF66E4C}"/>
-    <hyperlink ref="E246" r:id="rId295" xr:uid="{39F6A5B5-6AE1-AF4B-AE3B-8EFC0526A200}"/>
-    <hyperlink ref="E357" r:id="rId296" xr:uid="{74160366-72D5-F04B-A275-66CC5A85A3DF}"/>
-    <hyperlink ref="E374" r:id="rId297" xr:uid="{766E4B7B-141F-3041-A571-EC69B6D48E7E}"/>
-    <hyperlink ref="E485" r:id="rId298" xr:uid="{40267B64-15E6-8948-8925-8679ED8F1816}"/>
-    <hyperlink ref="E502" r:id="rId299" xr:uid="{7912C3F4-D687-1742-80FA-BB145D1A1509}"/>
-    <hyperlink ref="E613" r:id="rId300" xr:uid="{FB1D1A58-79CF-DC40-97D1-DC7F8CED36FF}"/>
-    <hyperlink ref="E630" r:id="rId301" xr:uid="{C7411F09-96BA-1644-BC80-3A0F11A44F29}"/>
-    <hyperlink ref="E106" r:id="rId302" xr:uid="{9B67DD84-7FCA-8C4A-B46F-BA2BD6D9215A}"/>
-    <hyperlink ref="E123" r:id="rId303" xr:uid="{278FF8F5-DCD8-7E4B-A5B1-57322994A8D7}"/>
-    <hyperlink ref="E234" r:id="rId304" xr:uid="{65DBB48B-DC4C-CE4E-928B-0AAE893D93D0}"/>
-    <hyperlink ref="E251" r:id="rId305" xr:uid="{D483B42E-C092-F045-B7E7-C7DAEDA47A35}"/>
-    <hyperlink ref="E362" r:id="rId306" xr:uid="{856429A2-E8AA-FE42-880C-46B537241002}"/>
-    <hyperlink ref="E379" r:id="rId307" xr:uid="{BFC12B5C-FBE2-7C4C-A7BD-5426A2096CEE}"/>
-    <hyperlink ref="E490" r:id="rId308" xr:uid="{20E8646F-EC8D-124D-953B-C8D0C5559D58}"/>
-    <hyperlink ref="E507" r:id="rId309" xr:uid="{827D4F9C-986D-F84E-85E6-AC12BD6AC2C9}"/>
-    <hyperlink ref="E618" r:id="rId310" xr:uid="{C43FAA6D-B5C1-6742-AC10-D6747614F018}"/>
-    <hyperlink ref="E635" r:id="rId311" xr:uid="{9C937D99-CF1F-A646-AE9A-30211335E1B5}"/>
-    <hyperlink ref="E105" r:id="rId312" xr:uid="{90FC790F-92B8-A148-A5EC-AA806537C05B}"/>
-    <hyperlink ref="E122" r:id="rId313" xr:uid="{4B692123-83A9-B149-AA70-6F38854D302E}"/>
-    <hyperlink ref="E233" r:id="rId314" xr:uid="{F7FC4A59-83CB-EF41-9F8B-1B9573B494E7}"/>
-    <hyperlink ref="E250" r:id="rId315" xr:uid="{A230E3F4-0EA7-DE4F-99CF-0CEB14124ED7}"/>
-    <hyperlink ref="E361" r:id="rId316" xr:uid="{0E8A0B79-133B-1E43-9F2C-F40130DCCB83}"/>
-    <hyperlink ref="E378" r:id="rId317" xr:uid="{A0C58F11-412E-664C-862A-A3B58819A7F4}"/>
-    <hyperlink ref="E489" r:id="rId318" xr:uid="{411E9757-C3EC-B54F-B3A7-F4385A9DFF1F}"/>
-    <hyperlink ref="E506" r:id="rId319" xr:uid="{B09F302C-101B-D84A-A053-7BEE36CAA53D}"/>
-    <hyperlink ref="E617" r:id="rId320" xr:uid="{A8C3870A-BC20-AB4A-9D0C-0D67B8CE9D18}"/>
-    <hyperlink ref="E634" r:id="rId321" xr:uid="{93A3C372-F5AF-994C-8AE8-7DC0A34CAEFD}"/>
-    <hyperlink ref="E103" r:id="rId322" xr:uid="{2F3C2302-1B5A-D044-BFD5-DFC461148919}"/>
-    <hyperlink ref="E120" r:id="rId323" xr:uid="{474B82AD-6069-D64E-A9CB-B4C46D06EB70}"/>
-    <hyperlink ref="E231" r:id="rId324" xr:uid="{E81FE743-2924-E44A-82DA-1D74CFD0E54D}"/>
-    <hyperlink ref="E248" r:id="rId325" xr:uid="{BDD23A32-1B02-6745-A861-C0B953515E08}"/>
-    <hyperlink ref="E359" r:id="rId326" xr:uid="{28E06FC1-44A0-4E46-8864-66BC1FE88CE2}"/>
-    <hyperlink ref="E376" r:id="rId327" xr:uid="{24144449-E87D-EB47-95A5-A664337B2A5A}"/>
-    <hyperlink ref="E487" r:id="rId328" xr:uid="{DFDCE9D0-2016-6F41-82AA-45DE67D7AF3B}"/>
-    <hyperlink ref="E504" r:id="rId329" xr:uid="{45BB9423-993F-3E44-A0F3-FF84E7389CC0}"/>
-    <hyperlink ref="E615" r:id="rId330" xr:uid="{DF1BCCA6-1699-DB47-9D8E-26B66985E1D2}"/>
-    <hyperlink ref="E632" r:id="rId331" xr:uid="{720EAB3E-7F60-694F-AB76-D08A93CF7A82}"/>
-    <hyperlink ref="E104" r:id="rId332" xr:uid="{C9B3036E-9584-5740-B494-88C62E944E19}"/>
-    <hyperlink ref="E121" r:id="rId333" xr:uid="{D8F3C289-4118-8A4E-92A3-11047900E7EB}"/>
-    <hyperlink ref="E232" r:id="rId334" xr:uid="{FD7B9C1A-4BF9-5143-ADFF-5C5E13F57733}"/>
-    <hyperlink ref="E249" r:id="rId335" xr:uid="{F56C883F-B902-B744-9376-2A1A9698B3BE}"/>
-    <hyperlink ref="E360" r:id="rId336" xr:uid="{79EBF08B-5E92-594B-83D9-E741E46F0D23}"/>
-    <hyperlink ref="E377" r:id="rId337" xr:uid="{3DE0C158-015D-6E4F-875E-E9F5414D39F0}"/>
-    <hyperlink ref="E488" r:id="rId338" xr:uid="{8EFDE01F-5998-4446-B818-D2662BDC6102}"/>
-    <hyperlink ref="E505" r:id="rId339" xr:uid="{C18105E2-652B-C34A-B0A3-5EEF97475001}"/>
-    <hyperlink ref="E616" r:id="rId340" xr:uid="{AAD3F4ED-5EAB-3C4E-8CF5-369C6F537404}"/>
-    <hyperlink ref="E633" r:id="rId341" xr:uid="{545821D5-CA0F-514A-BCCC-1BD7DF024C52}"/>
-    <hyperlink ref="E111" r:id="rId342" xr:uid="{EA378D49-4B71-D84E-B431-E411AEA2051A}"/>
-    <hyperlink ref="E128" r:id="rId343" xr:uid="{756A5026-EE21-0F49-94C6-7B70615C8D87}"/>
-    <hyperlink ref="E239" r:id="rId344" xr:uid="{AD22BD7F-81C7-C64B-AB28-F572A62E02F6}"/>
-    <hyperlink ref="E256" r:id="rId345" xr:uid="{F6A91DB9-82FC-C347-B5FB-D2499A7D526B}"/>
-    <hyperlink ref="E367" r:id="rId346" xr:uid="{D8BAED0F-5EC0-FA47-9D03-DB0FBAE447FC}"/>
-    <hyperlink ref="E384" r:id="rId347" xr:uid="{C10EBAFD-D895-8D43-8043-E1A1AEDDFAC6}"/>
-    <hyperlink ref="E495" r:id="rId348" xr:uid="{430C5CD1-4387-1D49-B9E6-4DC8CA1602A7}"/>
-    <hyperlink ref="E512" r:id="rId349" xr:uid="{6CFA20B6-7842-E246-9744-27499D080DD9}"/>
-    <hyperlink ref="E623" r:id="rId350" xr:uid="{49E8515D-BE84-1F41-A17F-FEDC89934EBA}"/>
-    <hyperlink ref="E640" r:id="rId351" xr:uid="{6563D03B-6279-D74B-B18E-ED9AD4ADFC9E}"/>
-    <hyperlink ref="E110" r:id="rId352" xr:uid="{9F27A8FB-355C-4647-9B61-B8DF294DC836}"/>
-    <hyperlink ref="E127" r:id="rId353" xr:uid="{8C847FDB-78C8-D944-A5C3-4B664E2FE0A8}"/>
-    <hyperlink ref="E238" r:id="rId354" xr:uid="{A7A422AA-ED5E-594E-A268-F4BAD8E9604B}"/>
-    <hyperlink ref="E255" r:id="rId355" xr:uid="{4ED5061C-F371-DA49-BDC4-BF6BEA561BDA}"/>
-    <hyperlink ref="E366" r:id="rId356" xr:uid="{F54147D5-CBD5-4E4E-A77D-90459802A2E8}"/>
-    <hyperlink ref="E383" r:id="rId357" xr:uid="{775C5A5D-3395-B940-A11E-409E216B5DEC}"/>
-    <hyperlink ref="E494" r:id="rId358" xr:uid="{13190FF4-B7FE-974B-AF27-677D0BE6F02A}"/>
-    <hyperlink ref="E511" r:id="rId359" xr:uid="{704AA257-E1A9-BE4C-BEBC-6599DAC85623}"/>
-    <hyperlink ref="E622" r:id="rId360" xr:uid="{213C0E59-CB5B-404B-8016-3EFC21017D8A}"/>
-    <hyperlink ref="E639" r:id="rId361" xr:uid="{90FB22B2-E5F8-5A4F-98FA-1E3213FDD937}"/>
-    <hyperlink ref="E107" r:id="rId362" xr:uid="{EE8AEC8F-6A35-824E-AA84-C1FBA614A186}"/>
-    <hyperlink ref="E125" r:id="rId363" xr:uid="{96B5FD0D-55C4-844A-AC5A-3B04579892B3}"/>
-    <hyperlink ref="E235" r:id="rId364" xr:uid="{96F241DD-9558-DE4F-BC94-19BF883A583A}"/>
-    <hyperlink ref="E253" r:id="rId365" xr:uid="{C9070B25-9D80-B344-9538-0B5A8C26C980}"/>
-    <hyperlink ref="E363" r:id="rId366" xr:uid="{703735E4-F6A9-1441-8F05-79294C55A510}"/>
-    <hyperlink ref="E381" r:id="rId367" xr:uid="{293714FC-8BE6-AB44-AE6F-7193AC0E8CA0}"/>
-    <hyperlink ref="E491" r:id="rId368" xr:uid="{EE9E2BDB-F27A-2F4D-8275-9C636DEEF2C5}"/>
-    <hyperlink ref="E509" r:id="rId369" xr:uid="{71EF6FD1-3932-8E40-8926-A9D7F0240317}"/>
-    <hyperlink ref="E619" r:id="rId370" xr:uid="{4A15CA85-0B2B-A344-B017-2B8A5148423C}"/>
-    <hyperlink ref="E637" r:id="rId371" xr:uid="{DC5738B0-D563-9343-9265-1B4207CD5FB9}"/>
-    <hyperlink ref="E108" r:id="rId372" xr:uid="{4CE37862-CDFA-4741-87C9-5B2BB63BA5D0}"/>
-    <hyperlink ref="E124" r:id="rId373" xr:uid="{26F54FDA-1704-1C41-925F-D49CA72D2E90}"/>
-    <hyperlink ref="E236" r:id="rId374" xr:uid="{5D5C34AF-3186-6F4A-ADAF-CCB812103731}"/>
-    <hyperlink ref="E252" r:id="rId375" xr:uid="{6D7C98EC-D379-BE41-A9CC-A9BF3ADEFE6E}"/>
-    <hyperlink ref="E364" r:id="rId376" xr:uid="{132CD748-C94F-0C40-8CDD-62D5262038B5}"/>
-    <hyperlink ref="E380" r:id="rId377" xr:uid="{48666F12-AB5D-6F4B-8CF3-EDD10AF9AE90}"/>
-    <hyperlink ref="E492" r:id="rId378" xr:uid="{3C4A94D2-19EA-4E4B-B7A5-25BD6E2AC842}"/>
-    <hyperlink ref="E508" r:id="rId379" xr:uid="{456FCA6E-E816-0B40-8F6E-77B82D8FBABF}"/>
-    <hyperlink ref="E620" r:id="rId380" xr:uid="{58E827A7-5004-A54B-8292-CF952E468F5E}"/>
-    <hyperlink ref="E636" r:id="rId381" xr:uid="{B0E42FC5-B71E-BC46-9543-0CA8E044BB90}"/>
-    <hyperlink ref="E109" r:id="rId382" xr:uid="{A9DF63E8-B25D-D74B-9A6C-09831F587747}"/>
-    <hyperlink ref="E126" r:id="rId383" xr:uid="{B2642FAE-D778-944F-8F80-65DC157FDFD3}"/>
-    <hyperlink ref="E237" r:id="rId384" xr:uid="{5E13F32C-11DF-BE4A-9CB5-7F263F1AD741}"/>
-    <hyperlink ref="E254" r:id="rId385" xr:uid="{2864B8CD-C94B-2F47-A5D9-01D091D4F134}"/>
-    <hyperlink ref="E365" r:id="rId386" xr:uid="{22B8F6EE-6C4A-814C-9079-BD3AE23DA31A}"/>
-    <hyperlink ref="E382" r:id="rId387" xr:uid="{234E1874-7D64-3F40-B943-42C6A71A71DC}"/>
-    <hyperlink ref="E493" r:id="rId388" xr:uid="{B7C8761F-E805-9843-AC4D-B73A8208AA45}"/>
-    <hyperlink ref="E510" r:id="rId389" xr:uid="{5366038E-D8EC-C040-8181-9501C1F5899F}"/>
-    <hyperlink ref="E621" r:id="rId390" xr:uid="{2F353FD8-754E-6643-A5E6-C912128D40D2}"/>
-    <hyperlink ref="E638" r:id="rId391" xr:uid="{D2C77416-7148-D34D-9CBB-492B24601D71}"/>
-    <hyperlink ref="E63" r:id="rId392" xr:uid="{E8BC7691-71C9-2A4F-8A6C-60711EB5969D}"/>
-    <hyperlink ref="E191" r:id="rId393" xr:uid="{86184692-C4AE-3043-B901-E37756F6390B}"/>
-    <hyperlink ref="E319" r:id="rId394" xr:uid="{59C31FE4-CA10-1440-8835-87CAE0A36BE4}"/>
-    <hyperlink ref="E447" r:id="rId395" xr:uid="{00D61E4C-8C32-C241-9B96-6B06E775656B}"/>
-    <hyperlink ref="E575" r:id="rId396" xr:uid="{BD87922B-5BA8-434D-B240-13C4100BCEFC}"/>
-    <hyperlink ref="E67" r:id="rId397" xr:uid="{AFC73C51-B4A9-5B4A-8149-F7F88836EFF2}"/>
-    <hyperlink ref="E195" r:id="rId398" xr:uid="{83F6C1C8-CF1E-B24B-9F6E-791F2B3DB39B}"/>
-    <hyperlink ref="E323" r:id="rId399" xr:uid="{A06055EA-6B24-7B4D-AC1A-0F42D48E32B4}"/>
-    <hyperlink ref="E451" r:id="rId400" xr:uid="{243F69D3-83E7-494E-BA9D-1B7271C75EEB}"/>
-    <hyperlink ref="E579" r:id="rId401" xr:uid="{3EEFA3A2-75DC-4B4B-AFF7-23A6FE66ECA1}"/>
-    <hyperlink ref="E66" r:id="rId402" xr:uid="{0C2E504E-9A14-0849-AAB9-53D077F8339A}"/>
-    <hyperlink ref="E194" r:id="rId403" xr:uid="{25567AF6-88B1-B54A-90F0-7BCE9521567F}"/>
-    <hyperlink ref="E322" r:id="rId404" xr:uid="{A11AA388-784C-3D41-BDA8-36DF88F532C9}"/>
-    <hyperlink ref="E450" r:id="rId405" xr:uid="{09354B36-EDAC-BB4D-AB8A-4AE934C70A5B}"/>
-    <hyperlink ref="E578" r:id="rId406" xr:uid="{068A4CC0-9D32-DF4E-AA65-453718B82FE1}"/>
-    <hyperlink ref="E129" r:id="rId407" xr:uid="{1D9B23F4-07E4-7F4D-B51F-C93DD4D4A820}"/>
-    <hyperlink ref="E257" r:id="rId408" xr:uid="{FE308518-1CF3-AE41-8D10-DD157828059F}"/>
-    <hyperlink ref="E385" r:id="rId409" xr:uid="{9E2998BA-FE87-9E49-91A7-7D40DC0423CE}"/>
-    <hyperlink ref="E513" r:id="rId410" xr:uid="{F9783FAC-BF54-F049-9E00-BD7B36E74D1E}"/>
-    <hyperlink ref="E641" r:id="rId411" xr:uid="{2465A5F0-BAD7-904F-BB81-F05EBC194E2C}"/>
-    <hyperlink ref="E77" r:id="rId412" xr:uid="{4DC99B8E-705F-7640-9CCC-BE072135E84A}"/>
-    <hyperlink ref="E205" r:id="rId413" xr:uid="{1A96AA1D-28D5-5F4D-B60F-816F5E1EE94B}"/>
-    <hyperlink ref="E333" r:id="rId414" xr:uid="{9EA22E59-92C3-4B44-A59A-3CA10CCCB0E6}"/>
-    <hyperlink ref="E461" r:id="rId415" xr:uid="{D56F4819-D20B-6040-BB96-8F17A34BBA7A}"/>
-    <hyperlink ref="E589" r:id="rId416" xr:uid="{FE7156E5-43AE-B34F-BC90-5BAAA25EE323}"/>
-    <hyperlink ref="E76" r:id="rId417" xr:uid="{9AE20D52-7A0E-2841-BE2E-13DD5432A2D9}"/>
-    <hyperlink ref="E204" r:id="rId418" xr:uid="{4889EB23-1925-0842-81A5-36E35100068F}"/>
-    <hyperlink ref="E332" r:id="rId419" xr:uid="{C7B291A3-7D91-1549-9176-ED8470834E5E}"/>
-    <hyperlink ref="E460" r:id="rId420" xr:uid="{EF1268C7-DE3A-8640-9040-B30DA4C05C57}"/>
-    <hyperlink ref="E588" r:id="rId421" xr:uid="{0ACF8860-B72A-6B4C-8441-153E67BA34C2}"/>
-    <hyperlink ref="E202" r:id="rId422" xr:uid="{12216533-7E23-284B-8D6A-81B1FFDD8EF9}"/>
-    <hyperlink ref="E330" r:id="rId423" xr:uid="{DBA8220E-C782-5747-A9C4-45AF895B4151}"/>
-    <hyperlink ref="E458" r:id="rId424" xr:uid="{157ED40F-BFF2-1040-9BF1-16B9B756ED9C}"/>
-    <hyperlink ref="E586" r:id="rId425" xr:uid="{99CDEF41-2518-3241-ABC0-1C5E60A7290D}"/>
-    <hyperlink ref="E74" r:id="rId426" xr:uid="{5D1B743B-7ADF-7948-B573-D4BFFBDF6DB1}"/>
-    <hyperlink ref="E75" r:id="rId427" xr:uid="{5552FD91-5380-9346-BB9D-8D6F952BA8A3}"/>
-    <hyperlink ref="E203" r:id="rId428" xr:uid="{3DEA1BF5-E18C-5242-A014-D9ACA68BA489}"/>
-    <hyperlink ref="E331" r:id="rId429" xr:uid="{E6BC2613-9439-6942-976E-69D78BB88F0C}"/>
-    <hyperlink ref="E459" r:id="rId430" xr:uid="{90FED099-64F2-E542-9394-BA610C4ED0ED}"/>
-    <hyperlink ref="E587" r:id="rId431" xr:uid="{F4BB6C3E-4E5B-2A46-AB86-7949C7713DD7}"/>
-    <hyperlink ref="E71" r:id="rId432" xr:uid="{5DAAB078-A1D2-B64E-A57D-AF5FFCCC0862}"/>
-    <hyperlink ref="E199" r:id="rId433" xr:uid="{F8512256-05DD-D544-A601-9C8EDB5E2C3B}"/>
-    <hyperlink ref="E327" r:id="rId434" xr:uid="{DF8FF4D9-4595-1748-A517-9B9743CBA3E8}"/>
-    <hyperlink ref="E455" r:id="rId435" xr:uid="{7AB18F22-D4B6-F140-B697-0448CB438CA2}"/>
-    <hyperlink ref="E583" r:id="rId436" xr:uid="{A3B45AB1-5499-5343-84B7-49E722486E3C}"/>
-    <hyperlink ref="E72" r:id="rId437" xr:uid="{2FDFF352-6C8D-0E43-BC3A-B2B519876BBD}"/>
-    <hyperlink ref="E200" r:id="rId438" xr:uid="{B19D0977-E7B5-0F42-BD64-8B0FB6EACE07}"/>
-    <hyperlink ref="E328" r:id="rId439" xr:uid="{8EBFD20C-E1F1-1D46-84CE-0A7257F3EA45}"/>
-    <hyperlink ref="E456" r:id="rId440" xr:uid="{4C481184-741A-C241-82A8-3E6DEDA39F09}"/>
-    <hyperlink ref="E584" r:id="rId441" xr:uid="{09E91045-7E09-774B-90F5-AF722A2C81DE}"/>
-    <hyperlink ref="E73" r:id="rId442" xr:uid="{5F1625CC-6BE9-6843-9D7C-0C18CD99C6BB}"/>
-    <hyperlink ref="E201" r:id="rId443" xr:uid="{4E82F2C7-689B-9F48-89BD-1DF31AD92B8C}"/>
-    <hyperlink ref="E329" r:id="rId444" xr:uid="{ED1BA273-DB61-3D4E-80A3-E7FE56336932}"/>
-    <hyperlink ref="E457" r:id="rId445" xr:uid="{74381BAB-BE8C-8040-A8C2-49D9D24CD1C6}"/>
-    <hyperlink ref="E585" r:id="rId446" xr:uid="{EB8CAFDA-3967-274B-9F0C-A382A344A93B}"/>
-    <hyperlink ref="E86" r:id="rId447" xr:uid="{6781EE61-891B-8C4C-84DE-D12A6F73BC99}"/>
-    <hyperlink ref="E214" r:id="rId448" xr:uid="{49B8160E-91EA-754E-863F-739209887A99}"/>
-    <hyperlink ref="E342" r:id="rId449" xr:uid="{CB2C1DD2-7FA4-714B-A80C-408BDE71B6D9}"/>
-    <hyperlink ref="E470" r:id="rId450" xr:uid="{A044C6D1-F95F-D042-835A-68414A03CE8C}"/>
-    <hyperlink ref="E598" r:id="rId451" xr:uid="{9D565CEE-E9CB-A440-8786-B6F103DF665E}"/>
-    <hyperlink ref="E87" r:id="rId452" xr:uid="{6D7171F5-BCC4-CF4A-B54E-2069F1876992}"/>
-    <hyperlink ref="E215" r:id="rId453" xr:uid="{CD652C72-8362-FE49-A552-2A6C82B39570}"/>
-    <hyperlink ref="E343" r:id="rId454" xr:uid="{20353C2F-0089-E142-9B80-2F938EA16077}"/>
-    <hyperlink ref="E471" r:id="rId455" xr:uid="{04080994-728C-3B4C-9ACF-B567EC2B7AA5}"/>
-    <hyperlink ref="E599" r:id="rId456" xr:uid="{B1EA46FA-4C3A-1E43-9240-CA40EEA12C7F}"/>
-    <hyperlink ref="E81" r:id="rId457" xr:uid="{EE54C213-862E-E94E-B93A-EC9B06D98F20}"/>
-    <hyperlink ref="E209" r:id="rId458" xr:uid="{97CEEF64-51FF-0945-8932-683A02943D14}"/>
-    <hyperlink ref="E337" r:id="rId459" xr:uid="{19EEED22-5EF5-3242-9CBF-B8F0F19B21D6}"/>
-    <hyperlink ref="E465" r:id="rId460" xr:uid="{728A9D29-990F-1D40-8CE0-8BBD296C8E02}"/>
-    <hyperlink ref="E593" r:id="rId461" xr:uid="{A93145AA-D807-7F4A-B2D6-37BC37C37912}"/>
-    <hyperlink ref="E80" r:id="rId462" xr:uid="{B69C00ED-D856-F14B-A939-2405484E8697}"/>
-    <hyperlink ref="E208" r:id="rId463" xr:uid="{CC904AB3-E5B7-BD46-83E0-395482DF35E4}"/>
-    <hyperlink ref="E336" r:id="rId464" xr:uid="{CB5DE2C4-5A79-154A-BA26-339262D77CC8}"/>
-    <hyperlink ref="E464" r:id="rId465" xr:uid="{7AFEBC36-AAC2-B64A-8A0B-72B34B60EA14}"/>
-    <hyperlink ref="E592" r:id="rId466" xr:uid="{B983FDC0-484D-6D4D-85E4-08744538A495}"/>
-    <hyperlink ref="E85" r:id="rId467" xr:uid="{131C8FA9-E3DC-3549-94B4-531A85BC1138}"/>
-    <hyperlink ref="E213" r:id="rId468" xr:uid="{2E8B5D60-37E3-2647-8938-C18898A9EF70}"/>
-    <hyperlink ref="E341" r:id="rId469" xr:uid="{9B4A3138-63FA-4943-A967-BD82C8F6C164}"/>
-    <hyperlink ref="E469" r:id="rId470" xr:uid="{F67C59DD-AFB3-D74D-851C-D9F0EFA545C1}"/>
-    <hyperlink ref="E597" r:id="rId471" xr:uid="{C83F856F-558A-D648-B2F2-69EFDB14F664}"/>
-    <hyperlink ref="E88" r:id="rId472" xr:uid="{7D4B85B0-4ECD-7048-96ED-0A2CA4DB62A0}"/>
-    <hyperlink ref="E216" r:id="rId473" xr:uid="{7A3A6D55-0855-4845-BC65-D2B2E59AD77A}"/>
-    <hyperlink ref="E344" r:id="rId474" xr:uid="{C00B2355-0FE5-D44B-AAEF-630000744C40}"/>
-    <hyperlink ref="E472" r:id="rId475" xr:uid="{67FFB2D5-4C2E-CE43-A56E-D374B8962D09}"/>
-    <hyperlink ref="E600" r:id="rId476" xr:uid="{49BD68BD-ECA3-2B4D-BC88-D89992E68B90}"/>
-    <hyperlink ref="E91" r:id="rId477" xr:uid="{C80ECF62-EEB0-9947-B4DD-AB0EEE27CBB7}"/>
-    <hyperlink ref="E219" r:id="rId478" xr:uid="{E762BF89-8185-BE4A-8C88-7734E5CBA933}"/>
-    <hyperlink ref="E347" r:id="rId479" xr:uid="{F8D2FE32-4AB0-8449-ADB8-DCDF2AE46AEE}"/>
-    <hyperlink ref="E475" r:id="rId480" xr:uid="{EBA48D6A-1380-864D-B238-EDBF615B0BFB}"/>
-    <hyperlink ref="E603" r:id="rId481" xr:uid="{E9209A08-4CB7-4448-808D-C31C74AA2F28}"/>
-    <hyperlink ref="E92" r:id="rId482" xr:uid="{26E50E27-9E9C-DD41-B663-78C81C1FB996}"/>
-    <hyperlink ref="E220" r:id="rId483" xr:uid="{9932E94A-ED1C-DD4D-ABF6-F1D385CDA3B5}"/>
-    <hyperlink ref="E348" r:id="rId484" xr:uid="{4B3046B1-95B9-9743-89B7-D3A68264005D}"/>
-    <hyperlink ref="E476" r:id="rId485" xr:uid="{A06DF429-68A0-664B-B491-C07BBD9AA488}"/>
-    <hyperlink ref="E604" r:id="rId486" xr:uid="{FE738038-E1F4-6C4C-9F68-61BCBD51264F}"/>
-    <hyperlink ref="E82" r:id="rId487" xr:uid="{0A9272F6-5068-3548-A380-593114B36949}"/>
-    <hyperlink ref="E210" r:id="rId488" xr:uid="{B547183F-8E54-9D49-A1D0-EF0E3DC997CB}"/>
-    <hyperlink ref="E338" r:id="rId489" xr:uid="{EB4D994F-C4D3-8B4C-9A1E-547CFC3FAD46}"/>
-    <hyperlink ref="E466" r:id="rId490" xr:uid="{B1AC08BA-B2B7-8B4F-8AE0-1F6085B0A4F3}"/>
-    <hyperlink ref="E594" r:id="rId491" xr:uid="{0DB3EEA8-2F78-8941-BAA2-DC4F0AC84031}"/>
-    <hyperlink ref="E68" r:id="rId492" xr:uid="{DAFBE700-911B-8246-875C-494A717C9C75}"/>
-    <hyperlink ref="E196" r:id="rId493" xr:uid="{43FE6F15-8E76-6149-8825-936C017FAD93}"/>
-    <hyperlink ref="E324" r:id="rId494" xr:uid="{CD16FD8F-B677-E64B-A1AE-25CD44639591}"/>
-    <hyperlink ref="E452" r:id="rId495" xr:uid="{CD2D38C4-C266-7846-B41E-8CA3FA93A0D0}"/>
-    <hyperlink ref="E580" r:id="rId496" xr:uid="{0931778E-BF43-6640-ABD7-65F57C886DAE}"/>
-    <hyperlink ref="E95" r:id="rId497" xr:uid="{E3A2F1CE-25BC-424A-9F39-9AD600B83719}"/>
-    <hyperlink ref="E223" r:id="rId498" xr:uid="{C9A9A93B-1E46-BA42-A6A8-3613BE6318CB}"/>
-    <hyperlink ref="E351" r:id="rId499" xr:uid="{36B028FF-F1B4-7348-819C-AE536BE21695}"/>
-    <hyperlink ref="E479" r:id="rId500" xr:uid="{B1BF2A58-5B56-5B4C-BFBF-6D96718F0462}"/>
-    <hyperlink ref="E607" r:id="rId501" xr:uid="{2122252D-788B-2543-A59B-A552D9EF0F00}"/>
-    <hyperlink ref="E90" r:id="rId502" xr:uid="{F5B77B08-2D5E-DB4A-8DF6-50E64929DC78}"/>
-    <hyperlink ref="E218" r:id="rId503" xr:uid="{FB84A0B8-88BA-B044-9D6A-F9DFD25C142C}"/>
-    <hyperlink ref="E346" r:id="rId504" xr:uid="{B07E38F3-7796-C74B-9442-CE8FADCCB9C7}"/>
-    <hyperlink ref="E474" r:id="rId505" xr:uid="{76BD484A-726D-6344-A79B-1F42C52F9CFA}"/>
-    <hyperlink ref="E602" r:id="rId506" xr:uid="{08E2CE59-B4DC-CC42-9CD5-14A7B2CA39FB}"/>
-    <hyperlink ref="E84" r:id="rId507" xr:uid="{F91DED98-C111-3A46-B196-5130C83D8312}"/>
-    <hyperlink ref="E212" r:id="rId508" xr:uid="{1DCECB2F-6034-FA46-8E85-38323D24979D}"/>
-    <hyperlink ref="E340" r:id="rId509" xr:uid="{8F01B646-4093-6A45-B541-430784C125C9}"/>
-    <hyperlink ref="E468" r:id="rId510" xr:uid="{E51FA7AA-C8F5-3E47-BCD6-E43F252E51CC}"/>
-    <hyperlink ref="E596" r:id="rId511" xr:uid="{CD34F8AE-31D2-A64A-A2CF-D9D26D3007D8}"/>
-    <hyperlink ref="E83" r:id="rId512" xr:uid="{B3E2FFFA-B76F-244C-9CD0-D3E746BA8236}"/>
-    <hyperlink ref="E211" r:id="rId513" xr:uid="{439C7FDB-B936-B143-ABB4-E8E60C6C7250}"/>
-    <hyperlink ref="E339" r:id="rId514" xr:uid="{2742E471-07A5-B64A-9F66-F620F76AD31B}"/>
-    <hyperlink ref="E467" r:id="rId515" xr:uid="{CC71430C-B064-1748-A939-FFD2557207D6}"/>
-    <hyperlink ref="E595" r:id="rId516" xr:uid="{92B88995-4CED-0746-B94D-8B26DBB0E987}"/>
-    <hyperlink ref="E21" r:id="rId517" xr:uid="{BADB2EF0-DFE6-BB4B-BCC3-6B4E91799827}"/>
-    <hyperlink ref="E41" r:id="rId518" xr:uid="{427982A7-E866-924E-82DC-44F6C8744FA0}"/>
-    <hyperlink ref="E60" r:id="rId519" xr:uid="{3A38EF6C-BCF9-824E-99CF-F1BD8CEAC2EE}"/>
-    <hyperlink ref="E149" r:id="rId520" xr:uid="{A47A07A9-F097-2841-9C0A-616B506CAB50}"/>
-    <hyperlink ref="E169" r:id="rId521" xr:uid="{3A4862E4-4FAB-9E46-B584-42BDF60BB70E}"/>
-    <hyperlink ref="E188" r:id="rId522" xr:uid="{663F7153-1BAD-844B-B434-C61EDC91E826}"/>
-    <hyperlink ref="E277" r:id="rId523" xr:uid="{D3E98AA9-3601-594A-AB6E-F01BB9171FA7}"/>
-    <hyperlink ref="E297" r:id="rId524" xr:uid="{D1E84DFD-C7D1-1444-B04E-BF5F60326F18}"/>
-    <hyperlink ref="E316" r:id="rId525" xr:uid="{BAD1AB21-8F97-494C-A43A-D27287C124E8}"/>
-    <hyperlink ref="E405" r:id="rId526" xr:uid="{A5272F02-50D2-F64A-AB02-05C226C543B2}"/>
-    <hyperlink ref="E425" r:id="rId527" xr:uid="{698534E4-ACF7-F646-9F6E-E8FF553EE7F3}"/>
-    <hyperlink ref="E444" r:id="rId528" xr:uid="{F5BC431F-CC91-5A43-A30F-D9FF591A663B}"/>
-    <hyperlink ref="E533" r:id="rId529" xr:uid="{41E571C6-ED92-5543-B11F-FA251D7DB5E8}"/>
-    <hyperlink ref="E553" r:id="rId530" xr:uid="{0AAB0CA6-AF52-9C49-9052-A7F9AE249247}"/>
-    <hyperlink ref="E572" r:id="rId531" xr:uid="{375C6FA6-CD30-2B45-859C-588E23D2F4BF}"/>
-    <hyperlink ref="E96" r:id="rId532" xr:uid="{271C361E-C043-4743-ABF6-6D8B9D4CF180}"/>
-    <hyperlink ref="E224" r:id="rId533" xr:uid="{2587AB59-8753-354C-A2B1-AAC7C4947CFB}"/>
-    <hyperlink ref="E352" r:id="rId534" xr:uid="{D4288C64-0555-8244-85AD-97700AD5F1AC}"/>
-    <hyperlink ref="E480" r:id="rId535" xr:uid="{ACFAC181-0475-C541-8C8E-C25096BF6D12}"/>
-    <hyperlink ref="E608" r:id="rId536" xr:uid="{E81BB935-A2B8-2747-B7DE-EEBE3417A99C}"/>
-    <hyperlink ref="E94" r:id="rId537" xr:uid="{BB5598C6-0A76-CF4C-B41A-4F3056328749}"/>
-    <hyperlink ref="E222" r:id="rId538" xr:uid="{DA947716-9FB8-E74E-8B6C-F977BAD3CF71}"/>
-    <hyperlink ref="E350" r:id="rId539" xr:uid="{32DB50A0-A24F-C141-AB54-ACEF691914AE}"/>
-    <hyperlink ref="E478" r:id="rId540" xr:uid="{9EDBF3ED-2843-B547-9ED5-E9983E9B81E8}"/>
-    <hyperlink ref="E606" r:id="rId541" xr:uid="{A4399020-CF2F-2C4B-A6C8-05751FB06696}"/>
-    <hyperlink ref="E93" r:id="rId542" xr:uid="{0A51E8F2-D455-E946-AA61-C9DCB1097DF5}"/>
-    <hyperlink ref="E221" r:id="rId543" xr:uid="{2B5979B5-8793-A242-9429-0E0FE727CA0A}"/>
-    <hyperlink ref="E349" r:id="rId544" xr:uid="{9D04F02E-5B54-9341-8C35-36B85D0B45C2}"/>
-    <hyperlink ref="E477" r:id="rId545" xr:uid="{82464515-7513-BA4E-94C2-F6F301021C9A}"/>
-    <hyperlink ref="E605" r:id="rId546" xr:uid="{D59F4571-A5DE-C94B-BBEA-3C6B175DA9D5}"/>
-    <hyperlink ref="E99" r:id="rId547" xr:uid="{A5601176-AC14-144F-909C-E9EFA3D12439}"/>
-    <hyperlink ref="E116" r:id="rId548" xr:uid="{FBB9F8DD-6F78-5942-84DE-B0762CCCFBED}"/>
-    <hyperlink ref="E227" r:id="rId549" xr:uid="{B7441BF8-B1B8-5743-B717-75DA0DF31CFA}"/>
-    <hyperlink ref="E244" r:id="rId550" xr:uid="{93B611AC-7312-244C-86EE-ED1A463E9C7A}"/>
-    <hyperlink ref="E355" r:id="rId551" xr:uid="{EA85251C-2628-6A49-B22B-F093146562C8}"/>
-    <hyperlink ref="E372" r:id="rId552" xr:uid="{8F1190EC-DB3B-394F-A15F-65A47DB1BE77}"/>
-    <hyperlink ref="E483" r:id="rId553" xr:uid="{A0F2622F-83DF-604A-822E-FF194B5449A7}"/>
-    <hyperlink ref="E500" r:id="rId554" xr:uid="{77380283-7A02-2C45-ADBC-8D860645E0B9}"/>
-    <hyperlink ref="E611" r:id="rId555" xr:uid="{76C8078F-D292-7444-B85C-CBC0A3098CF3}"/>
-    <hyperlink ref="E628" r:id="rId556" xr:uid="{E75A3325-9482-2542-920F-4271906512C5}"/>
-    <hyperlink ref="E98" r:id="rId557" xr:uid="{B241979C-50A1-014A-AD4C-51C02AE648C1}"/>
-    <hyperlink ref="E115" r:id="rId558" xr:uid="{8277B310-B73B-0C48-94D9-8322F1696185}"/>
-    <hyperlink ref="E226" r:id="rId559" xr:uid="{E1B16BAD-C5BA-BA4C-A255-CEE33B45A211}"/>
-    <hyperlink ref="E243" r:id="rId560" xr:uid="{64AA7759-805B-0F4E-B66B-ACB3E1EB7727}"/>
-    <hyperlink ref="E354" r:id="rId561" xr:uid="{4218D5AA-B0F8-0C42-92D0-732673DE8DB1}"/>
-    <hyperlink ref="E371" r:id="rId562" xr:uid="{94EE739B-74AC-CD42-AECD-B26B6AEB41D8}"/>
-    <hyperlink ref="E482" r:id="rId563" xr:uid="{4B9E3BF1-E99A-C241-9643-92DB570D69AE}"/>
-    <hyperlink ref="E499" r:id="rId564" xr:uid="{D526CEFC-D244-144A-A33D-6F02CCCD8A76}"/>
-    <hyperlink ref="E610" r:id="rId565" xr:uid="{798252CB-1105-FF49-8078-9A68CB665280}"/>
-    <hyperlink ref="E627" r:id="rId566" xr:uid="{A3670D25-D41D-FF41-AFD9-3CCEEAD7223C}"/>
-    <hyperlink ref="E97" r:id="rId567" xr:uid="{AE4C192E-30F7-C54D-9735-85923B20FD59}"/>
-    <hyperlink ref="E114" r:id="rId568" xr:uid="{91A6538B-C74B-3741-B33B-1C62C0154182}"/>
-    <hyperlink ref="E225" r:id="rId569" xr:uid="{DE0D7053-238D-AE47-91CA-CC89A801460B}"/>
-    <hyperlink ref="E242" r:id="rId570" xr:uid="{619D82B9-8DB1-EB4C-88B6-68328BA2270A}"/>
-    <hyperlink ref="E353" r:id="rId571" xr:uid="{71DA79FD-D5E3-6A49-9C9F-A1714B98757D}"/>
-    <hyperlink ref="E370" r:id="rId572" xr:uid="{EF6D3A4C-3DAA-9948-86CB-6A63A4034588}"/>
-    <hyperlink ref="E481" r:id="rId573" xr:uid="{118EE98E-761C-A844-B298-B1DC0EDB11D9}"/>
-    <hyperlink ref="E498" r:id="rId574" xr:uid="{B12F364C-6428-364A-B1BD-C484E04A92C3}"/>
-    <hyperlink ref="E609" r:id="rId575" xr:uid="{F518C769-62D1-3B43-8227-6CEEFB93D19A}"/>
-    <hyperlink ref="E626" r:id="rId576" xr:uid="{3507B603-0DB2-AC48-8A50-3683E6A1D9F3}"/>
-    <hyperlink ref="E2" r:id="rId577" xr:uid="{19C75EDA-16AC-404A-B59A-1E252444A177}"/>
-    <hyperlink ref="E22" r:id="rId578" xr:uid="{32DD517F-099F-EB41-B813-C9409EDF8783}"/>
-    <hyperlink ref="E42" r:id="rId579" xr:uid="{6244E683-CD6E-DB4B-914A-09D0D825AFA2}"/>
-    <hyperlink ref="E130" r:id="rId580" xr:uid="{193FFEB0-6041-A740-A0C3-85821FD7018C}"/>
-    <hyperlink ref="E150" r:id="rId581" xr:uid="{F28F9A0E-71BC-884A-BCDA-68AF90E69AB7}"/>
-    <hyperlink ref="E170" r:id="rId582" xr:uid="{3F437277-00CB-9844-A3E2-A19E58732FCB}"/>
-    <hyperlink ref="E258" r:id="rId583" xr:uid="{21F94EBD-6AB5-E742-8289-A599C0859515}"/>
-    <hyperlink ref="E278" r:id="rId584" xr:uid="{E3174439-6316-2D4D-ADFA-E4F349F45BF8}"/>
-    <hyperlink ref="E298" r:id="rId585" xr:uid="{7FA4B86D-44DE-6F4C-A80D-5703C027F993}"/>
-    <hyperlink ref="E386" r:id="rId586" xr:uid="{C9E7E5FC-90DE-3B44-943E-D103864CFE46}"/>
-    <hyperlink ref="E406" r:id="rId587" xr:uid="{81FF6B42-6B3C-F14E-AE5E-2A6F0DCEA0D1}"/>
-    <hyperlink ref="E426" r:id="rId588" xr:uid="{D9ABD36E-0E1E-DD4C-BE41-1444AA40ABC9}"/>
-    <hyperlink ref="E514" r:id="rId589" xr:uid="{63329566-F4E2-DB41-9D8D-8B038148BF64}"/>
-    <hyperlink ref="E534" r:id="rId590" xr:uid="{EB25EBB3-0F0B-D641-8DCA-41DA5B307099}"/>
-    <hyperlink ref="E554" r:id="rId591" xr:uid="{5299909E-D043-EF4B-812D-1B4FD3056B1B}"/>
-    <hyperlink ref="E79" r:id="rId592" xr:uid="{F5449C91-2717-C544-97E3-D7F71C89887B}"/>
-    <hyperlink ref="E78" r:id="rId593" xr:uid="{392EAE5F-2DFF-A746-B896-8D6E28F607CA}"/>
-    <hyperlink ref="E207" r:id="rId594" xr:uid="{4806F278-E503-C94C-8537-11C30042CBFA}"/>
-    <hyperlink ref="E206" r:id="rId595" xr:uid="{E65FAC30-0C2B-3545-9301-EBC95FEA0D4B}"/>
-    <hyperlink ref="E335" r:id="rId596" xr:uid="{E8FB4A3C-B70B-894B-A03A-07377D7AC881}"/>
-    <hyperlink ref="E334" r:id="rId597" xr:uid="{8A280D25-AC0D-854C-9F34-654E68B6BCFE}"/>
-    <hyperlink ref="E463" r:id="rId598" xr:uid="{E2555318-4C13-C946-AC95-F3E73341536E}"/>
-    <hyperlink ref="E462" r:id="rId599" xr:uid="{3588E350-15CA-BA4C-8151-7E4FEAA22339}"/>
-    <hyperlink ref="E591" r:id="rId600" xr:uid="{F145BFEE-01CE-474E-9AA3-8BF46057BA9C}"/>
-    <hyperlink ref="E590" r:id="rId601" xr:uid="{355CC7FE-DB0C-6549-954C-45EB5EA18D1C}"/>
-    <hyperlink ref="E89" r:id="rId602" xr:uid="{D2B9EA5F-C938-7F44-86C4-6359E402866F}"/>
-    <hyperlink ref="E217" r:id="rId603" xr:uid="{18AD5A75-F11D-7542-B08B-00E30A6B84A6}"/>
-    <hyperlink ref="E345" r:id="rId604" xr:uid="{69291EB5-C6A8-EB45-976A-9C47F049C9BA}"/>
-    <hyperlink ref="E473" r:id="rId605" xr:uid="{025C989B-1157-1A40-B793-B6D6FF096D40}"/>
-    <hyperlink ref="E601" r:id="rId606" xr:uid="{999EB5BE-B30B-0841-9B73-7511BC7F3BF1}"/>
+    <hyperlink ref="E7" r:id="rId161" xr:uid="{93E34E97-2E10-1F4E-A5F5-6C3A7A766CB2}"/>
+    <hyperlink ref="E8" r:id="rId162" xr:uid="{5CABFA95-F784-904C-AE03-8B64A6F916A1}"/>
+    <hyperlink ref="E27:E28" r:id="rId163" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{9E544F47-FF4F-2941-B284-D9C7E9B03624}"/>
+    <hyperlink ref="E47" r:id="rId164" xr:uid="{343C3278-4119-774A-9118-5DD58429C07B}"/>
+    <hyperlink ref="E135:E136" r:id="rId165" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{4D87441E-F814-AD42-91FC-BDCD4FF017C0}"/>
+    <hyperlink ref="E155:E156" r:id="rId166" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{1779A7AB-2343-4642-BCDA-F7C497A760F5}"/>
+    <hyperlink ref="E175" r:id="rId167" xr:uid="{FC0A67A1-9E7D-4B49-AC50-60131687B7D2}"/>
+    <hyperlink ref="E263:E264" r:id="rId168" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{88969EBA-C3A3-3548-B0F2-2F436D78A962}"/>
+    <hyperlink ref="E283:E284" r:id="rId169" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{6919EEC4-4A15-C34B-8F40-BDC7D87158EC}"/>
+    <hyperlink ref="E303" r:id="rId170" xr:uid="{4D106F4D-2434-AB4B-A4D6-35CA6BB4EF3F}"/>
+    <hyperlink ref="E391:E392" r:id="rId171" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{C1C4ECAF-EA65-114A-A77C-1ABA1947BB9D}"/>
+    <hyperlink ref="E411:E412" r:id="rId172" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{983C80DD-8BB1-9141-9A1A-7DE46FC33397}"/>
+    <hyperlink ref="E431" r:id="rId173" xr:uid="{B9AC2D03-73E6-564A-A2EE-F49F8060385A}"/>
+    <hyperlink ref="E519:E520" r:id="rId174" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{AC19DC78-BC2E-0341-82ED-D241E3C1490A}"/>
+    <hyperlink ref="E539:E540" r:id="rId175" display="https://mcdonalds.com.sg/sites/default/files/styles/medium/public/2021-10/Chicken%20McCrispy%20%282pc%29.png" xr:uid="{22880354-BA6E-D848-8267-EBFB870C1F5D}"/>
+    <hyperlink ref="E559" r:id="rId176" xr:uid="{ECFED108-92E7-2C48-B0F9-55360F16562D}"/>
+    <hyperlink ref="E48" r:id="rId177" xr:uid="{8579CC14-AD9A-1448-BFF0-33FF4ABC627B}"/>
+    <hyperlink ref="E176" r:id="rId178" xr:uid="{7E5C8699-A4E4-0B45-ADEB-364B2D44C290}"/>
+    <hyperlink ref="E304" r:id="rId179" xr:uid="{1D0B3092-ADD4-2B4A-843D-86D2AB253F38}"/>
+    <hyperlink ref="E432" r:id="rId180" xr:uid="{4514CCE5-B1D5-684B-9142-2BC41C05A1A9}"/>
+    <hyperlink ref="E560" r:id="rId181" xr:uid="{1F5831CE-3C20-E34F-BFCA-0ED270029D6C}"/>
+    <hyperlink ref="E15" r:id="rId182" xr:uid="{E228B421-8951-5C42-B126-4DD98969E58E}"/>
+    <hyperlink ref="E35" r:id="rId183" xr:uid="{E8D04C6C-EB0A-2444-9EBD-804881FF938D}"/>
+    <hyperlink ref="E55" r:id="rId184" xr:uid="{BE62FCC3-354E-AC49-A8D8-DBD7E759FF8D}"/>
+    <hyperlink ref="E143" r:id="rId185" xr:uid="{9DBE499C-FE9B-9348-93C8-B15DCF51470B}"/>
+    <hyperlink ref="E163" r:id="rId186" xr:uid="{5F06E789-5338-BF41-B57A-E6C5716D13A7}"/>
+    <hyperlink ref="E183" r:id="rId187" xr:uid="{0654A80C-1F35-CF44-828D-DA039400E4D8}"/>
+    <hyperlink ref="E271" r:id="rId188" xr:uid="{CDBF6014-062C-AA43-B34D-FC1350178D66}"/>
+    <hyperlink ref="E291" r:id="rId189" xr:uid="{3E0D683B-85B3-7A4F-A60A-DBCB730AEDC4}"/>
+    <hyperlink ref="E311" r:id="rId190" xr:uid="{6AC0D95D-A9AF-814C-A9D1-2DF0E5AE909D}"/>
+    <hyperlink ref="E399" r:id="rId191" xr:uid="{2A236C58-16B4-644F-AF26-F1E414F625A2}"/>
+    <hyperlink ref="E419" r:id="rId192" xr:uid="{2C708E12-3169-054E-B721-28B0906ED17D}"/>
+    <hyperlink ref="E439" r:id="rId193" xr:uid="{03149B43-AA07-8449-96F6-EC594BBA12D1}"/>
+    <hyperlink ref="E527" r:id="rId194" xr:uid="{0F274B41-70BE-8145-980A-5145105F2ADC}"/>
+    <hyperlink ref="E547" r:id="rId195" xr:uid="{A24B4343-4DB3-554F-94FB-58562DC57B10}"/>
+    <hyperlink ref="E567" r:id="rId196" xr:uid="{43854FFD-D572-3349-8EDC-CABFE2EFB909}"/>
+    <hyperlink ref="E14" r:id="rId197" xr:uid="{B9901A7B-920A-FF42-9356-F5DEA03746B5}"/>
+    <hyperlink ref="E34" r:id="rId198" xr:uid="{692D1E62-357B-0F40-8E65-3FC78208AD4F}"/>
+    <hyperlink ref="E54" r:id="rId199" xr:uid="{8D539190-D962-5E45-9044-276BCD61DBB6}"/>
+    <hyperlink ref="E142" r:id="rId200" xr:uid="{302C1678-57FC-5E43-BE4A-4B1310EFA55E}"/>
+    <hyperlink ref="E162" r:id="rId201" xr:uid="{737192C0-EC99-284E-A0DF-B38ECB6A1D4D}"/>
+    <hyperlink ref="E182" r:id="rId202" xr:uid="{165D3AAD-9161-834E-80B8-ED438753D97B}"/>
+    <hyperlink ref="E270" r:id="rId203" xr:uid="{219CCD01-954C-7F46-8012-87A16F7B29C6}"/>
+    <hyperlink ref="E290" r:id="rId204" xr:uid="{6467ED67-BEC1-D545-88C9-869EF6B8C439}"/>
+    <hyperlink ref="E310" r:id="rId205" xr:uid="{BEEE85D7-ACD9-1642-B355-DACEC43AA763}"/>
+    <hyperlink ref="E398" r:id="rId206" xr:uid="{481430FA-5A47-4443-8074-EF5B11215ABB}"/>
+    <hyperlink ref="E418" r:id="rId207" xr:uid="{5B904AFD-A52A-0944-8A22-A664978B1D1B}"/>
+    <hyperlink ref="E438" r:id="rId208" xr:uid="{92BEC331-CDD2-FD4C-AADC-A31B2AF13B77}"/>
+    <hyperlink ref="E526" r:id="rId209" xr:uid="{449688AD-104D-D949-A10E-9CF26AFD6713}"/>
+    <hyperlink ref="E546" r:id="rId210" xr:uid="{DEBC2A3D-E4C9-0347-B243-EC8C05C78A5E}"/>
+    <hyperlink ref="E566" r:id="rId211" xr:uid="{621A6CF0-B3FF-E446-9504-11D30552EBF6}"/>
+    <hyperlink ref="E65" r:id="rId212" xr:uid="{0C32FF86-E1B0-5541-BB7C-3451039D0D97}"/>
+    <hyperlink ref="E193" r:id="rId213" xr:uid="{2E04ACB8-66D3-9E43-B335-501CB7A409E6}"/>
+    <hyperlink ref="E321" r:id="rId214" xr:uid="{72CE33A7-714E-6042-A532-1011BA68DB2F}"/>
+    <hyperlink ref="E449" r:id="rId215" xr:uid="{17320089-70E6-1E4B-817D-2592D2E205C6}"/>
+    <hyperlink ref="E577" r:id="rId216" xr:uid="{945338D1-8640-9142-AE63-5C0C8FAF48EF}"/>
+    <hyperlink ref="E69" r:id="rId217" xr:uid="{19CC2D14-5CE9-AE48-A266-10045E7BDCFC}"/>
+    <hyperlink ref="E197" r:id="rId218" xr:uid="{7E054F16-7E24-8045-8A1D-F7F4B5E24D7F}"/>
+    <hyperlink ref="E325" r:id="rId219" xr:uid="{02B832E0-F751-6548-AD76-150CECF1B52E}"/>
+    <hyperlink ref="E453" r:id="rId220" xr:uid="{1F7187E9-5D9D-404A-90EF-506E420D9041}"/>
+    <hyperlink ref="E581" r:id="rId221" xr:uid="{C6D7CF26-09A5-B041-9135-27D6EB2C9B53}"/>
+    <hyperlink ref="E16" r:id="rId222" xr:uid="{6D3DCAFB-0E99-7D45-9829-3F1DCD3CA0AA}"/>
+    <hyperlink ref="E36" r:id="rId223" xr:uid="{2D0528DD-70C3-2C4A-BA2E-BBB3083B7349}"/>
+    <hyperlink ref="E64" r:id="rId224" xr:uid="{F30278CC-0E95-1048-AA5B-4B4ACC9A1393}"/>
+    <hyperlink ref="E144" r:id="rId225" xr:uid="{0065542C-072C-1342-9939-979C3856EAF5}"/>
+    <hyperlink ref="E164" r:id="rId226" xr:uid="{BFBC62F9-553E-034B-A52C-382289833B28}"/>
+    <hyperlink ref="E192" r:id="rId227" xr:uid="{8725E135-BCBB-E343-8B68-41BFDFD0928C}"/>
+    <hyperlink ref="E272" r:id="rId228" xr:uid="{3342087D-CDCB-484F-9D4F-7DB8F3974DEE}"/>
+    <hyperlink ref="E292" r:id="rId229" xr:uid="{17020C9D-B631-974A-8389-1501732FF5DB}"/>
+    <hyperlink ref="E320" r:id="rId230" xr:uid="{7E03FDFE-C7CC-A44F-AD4D-479F2FF66AED}"/>
+    <hyperlink ref="E400" r:id="rId231" xr:uid="{BB8EFB08-BF6F-9649-8F39-B0DD469A2403}"/>
+    <hyperlink ref="E420" r:id="rId232" xr:uid="{BDEBCFF4-4080-9346-8D7D-79BD8CA1FBB4}"/>
+    <hyperlink ref="E448" r:id="rId233" xr:uid="{1EAE7BEC-3E4C-CD44-8E1F-48F43B69CA4C}"/>
+    <hyperlink ref="E528" r:id="rId234" xr:uid="{8B2E4A57-2C53-994A-8821-44FA8857611E}"/>
+    <hyperlink ref="E548" r:id="rId235" xr:uid="{DCC4428F-5241-544C-A195-32E7508ED047}"/>
+    <hyperlink ref="E576" r:id="rId236" xr:uid="{BB96E72A-AA8A-BF41-91A8-FEDE2563C5E3}"/>
+    <hyperlink ref="E18" r:id="rId237" xr:uid="{379DE4D6-D203-6448-99CD-E724EA9BBA8C}"/>
+    <hyperlink ref="E38" r:id="rId238" xr:uid="{AA6EC971-C011-B541-9201-D3BF1158FE20}"/>
+    <hyperlink ref="E58" r:id="rId239" xr:uid="{6B5CEE7D-2C4E-844B-88F4-806359021B42}"/>
+    <hyperlink ref="E146" r:id="rId240" xr:uid="{67A1B8B3-606E-B440-9860-0EE2336A7AAD}"/>
+    <hyperlink ref="E166" r:id="rId241" xr:uid="{0133BB93-9F80-F046-A6EF-98F59BE2E1AA}"/>
+    <hyperlink ref="E186" r:id="rId242" xr:uid="{9D18D69A-4D96-1C46-8053-738F68B524C1}"/>
+    <hyperlink ref="E274" r:id="rId243" xr:uid="{293874B3-D420-BB40-9CE8-AECAABDEBF9D}"/>
+    <hyperlink ref="E294" r:id="rId244" xr:uid="{43C9ABB5-FA78-6145-9C0F-28BB0F2229FC}"/>
+    <hyperlink ref="E314" r:id="rId245" xr:uid="{7C09A030-54F8-E94B-8BC2-0138170D7B9D}"/>
+    <hyperlink ref="E402" r:id="rId246" xr:uid="{2E757B37-F5C8-7943-A684-6444C1968DCA}"/>
+    <hyperlink ref="E422" r:id="rId247" xr:uid="{DB33C444-379F-7343-A88F-28C7F0C10DC9}"/>
+    <hyperlink ref="E442" r:id="rId248" xr:uid="{BBA19AAA-3F8E-3D41-B22E-33E49460B05A}"/>
+    <hyperlink ref="E530" r:id="rId249" xr:uid="{AD75D116-ADEC-BF46-8536-77ACE4CE9DEA}"/>
+    <hyperlink ref="E550" r:id="rId250" xr:uid="{80F9294A-EF59-5840-99BC-28423FD0FB58}"/>
+    <hyperlink ref="E570" r:id="rId251" xr:uid="{D80EB90A-A49F-5D46-A5FD-E9430866B123}"/>
+    <hyperlink ref="E19" r:id="rId252" xr:uid="{8E0BA78F-7ED8-B140-88BA-98F77A2BB34D}"/>
+    <hyperlink ref="E39" r:id="rId253" xr:uid="{AA97DDD2-0E0B-924F-B039-3CD1F991BCC8}"/>
+    <hyperlink ref="E59" r:id="rId254" xr:uid="{1BE572E3-8B08-484E-A863-5D6F568ACF80}"/>
+    <hyperlink ref="E147" r:id="rId255" xr:uid="{EFD1A658-366F-FB4E-98A1-ABA82125A65E}"/>
+    <hyperlink ref="E167" r:id="rId256" xr:uid="{D7F4FFB0-22EB-DC49-8B88-690B17A510AE}"/>
+    <hyperlink ref="E187" r:id="rId257" xr:uid="{2B96CDDC-EBCD-D740-8246-6A44F657A8FC}"/>
+    <hyperlink ref="E275" r:id="rId258" xr:uid="{265661CA-55F5-E14B-9B33-652772701C81}"/>
+    <hyperlink ref="E295" r:id="rId259" xr:uid="{3060177B-ECAA-B848-B607-0930DBE382EF}"/>
+    <hyperlink ref="E315" r:id="rId260" xr:uid="{420AF9BC-9E73-6C4C-A1F2-4BD0EA6BA6B1}"/>
+    <hyperlink ref="E403" r:id="rId261" xr:uid="{9A90DC3B-8B18-FB4F-8BB8-294F953A81CD}"/>
+    <hyperlink ref="E423" r:id="rId262" xr:uid="{EF7409F3-3467-174A-8175-B1CDD6F638BE}"/>
+    <hyperlink ref="E443" r:id="rId263" xr:uid="{9332E1FC-E752-E44D-949C-8EE361D1248D}"/>
+    <hyperlink ref="E531" r:id="rId264" xr:uid="{8205FD45-49B4-9142-ABC4-16C43B119534}"/>
+    <hyperlink ref="E551" r:id="rId265" xr:uid="{987BADB9-7962-7A4A-84E7-CFFD252ACE00}"/>
+    <hyperlink ref="E571" r:id="rId266" xr:uid="{D4514C35-18F4-654E-9E58-CFC754A3102C}"/>
+    <hyperlink ref="E102" r:id="rId267" xr:uid="{596077BE-5A82-554A-86F3-39F0E5ECD77B}"/>
+    <hyperlink ref="E119" r:id="rId268" xr:uid="{0E4FF34D-2781-8D4C-9601-95506E70CFC4}"/>
+    <hyperlink ref="E230" r:id="rId269" xr:uid="{51E2F56B-A91D-3C48-BAC0-DF508FBCB778}"/>
+    <hyperlink ref="E247" r:id="rId270" xr:uid="{318FAE24-7428-0B4B-A32B-3F2D7B7F9711}"/>
+    <hyperlink ref="E358" r:id="rId271" xr:uid="{2E9351A7-677D-6447-93B1-021529598805}"/>
+    <hyperlink ref="E375" r:id="rId272" xr:uid="{CD69F5CF-1537-FC46-9C38-5187AFD46EA3}"/>
+    <hyperlink ref="E486" r:id="rId273" xr:uid="{402EA39F-54FC-E146-AD83-793EB606EF49}"/>
+    <hyperlink ref="E503" r:id="rId274" xr:uid="{8AF927C8-FFB9-7046-A241-DF4B4991742A}"/>
+    <hyperlink ref="E614" r:id="rId275" xr:uid="{150C7A9D-7E47-004C-8AC8-D9CACF818CC2}"/>
+    <hyperlink ref="E631" r:id="rId276" xr:uid="{541DEBBB-CBF5-C54B-8629-9B75F4453E65}"/>
+    <hyperlink ref="E101" r:id="rId277" xr:uid="{7A3BF476-EC2B-5D45-998C-3EEBE88CCB48}"/>
+    <hyperlink ref="E118" r:id="rId278" xr:uid="{708F7938-C526-5B45-85A0-139F35F86B95}"/>
+    <hyperlink ref="E229" r:id="rId279" xr:uid="{9E1F3D19-5638-FF4C-9FB7-9B134EF66E4C}"/>
+    <hyperlink ref="E246" r:id="rId280" xr:uid="{39F6A5B5-6AE1-AF4B-AE3B-8EFC0526A200}"/>
+    <hyperlink ref="E357" r:id="rId281" xr:uid="{74160366-72D5-F04B-A275-66CC5A85A3DF}"/>
+    <hyperlink ref="E374" r:id="rId282" xr:uid="{766E4B7B-141F-3041-A571-EC69B6D48E7E}"/>
+    <hyperlink ref="E485" r:id="rId283" xr:uid="{40267B64-15E6-8948-8925-8679ED8F1816}"/>
+    <hyperlink ref="E502" r:id="rId284" xr:uid="{7912C3F4-D687-1742-80FA-BB145D1A1509}"/>
+    <hyperlink ref="E613" r:id="rId285" xr:uid="{FB1D1A58-79CF-DC40-97D1-DC7F8CED36FF}"/>
+    <hyperlink ref="E630" r:id="rId286" xr:uid="{C7411F09-96BA-1644-BC80-3A0F11A44F29}"/>
+    <hyperlink ref="E106" r:id="rId287" xr:uid="{9B67DD84-7FCA-8C4A-B46F-BA2BD6D9215A}"/>
+    <hyperlink ref="E123" r:id="rId288" xr:uid="{278FF8F5-DCD8-7E4B-A5B1-57322994A8D7}"/>
+    <hyperlink ref="E234" r:id="rId289" xr:uid="{65DBB48B-DC4C-CE4E-928B-0AAE893D93D0}"/>
+    <hyperlink ref="E251" r:id="rId290" xr:uid="{D483B42E-C092-F045-B7E7-C7DAEDA47A35}"/>
+    <hyperlink ref="E362" r:id="rId291" xr:uid="{856429A2-E8AA-FE42-880C-46B537241002}"/>
+    <hyperlink ref="E379" r:id="rId292" xr:uid="{BFC12B5C-FBE2-7C4C-A7BD-5426A2096CEE}"/>
+    <hyperlink ref="E490" r:id="rId293" xr:uid="{20E8646F-EC8D-124D-953B-C8D0C5559D58}"/>
+    <hyperlink ref="E507" r:id="rId294" xr:uid="{827D4F9C-986D-F84E-85E6-AC12BD6AC2C9}"/>
+    <hyperlink ref="E618" r:id="rId295" xr:uid="{C43FAA6D-B5C1-6742-AC10-D6747614F018}"/>
+    <hyperlink ref="E635" r:id="rId296" xr:uid="{9C937D99-CF1F-A646-AE9A-30211335E1B5}"/>
+    <hyperlink ref="E105" r:id="rId297" xr:uid="{90FC790F-92B8-A148-A5EC-AA806537C05B}"/>
+    <hyperlink ref="E122" r:id="rId298" xr:uid="{4B692123-83A9-B149-AA70-6F38854D302E}"/>
+    <hyperlink ref="E233" r:id="rId299" xr:uid="{F7FC4A59-83CB-EF41-9F8B-1B9573B494E7}"/>
+    <hyperlink ref="E250" r:id="rId300" xr:uid="{A230E3F4-0EA7-DE4F-99CF-0CEB14124ED7}"/>
+    <hyperlink ref="E361" r:id="rId301" xr:uid="{0E8A0B79-133B-1E43-9F2C-F40130DCCB83}"/>
+    <hyperlink ref="E378" r:id="rId302" xr:uid="{A0C58F11-412E-664C-862A-A3B58819A7F4}"/>
+    <hyperlink ref="E489" r:id="rId303" xr:uid="{411E9757-C3EC-B54F-B3A7-F4385A9DFF1F}"/>
+    <hyperlink ref="E506" r:id="rId304" xr:uid="{B09F302C-101B-D84A-A053-7BEE36CAA53D}"/>
+    <hyperlink ref="E617" r:id="rId305" xr:uid="{A8C3870A-BC20-AB4A-9D0C-0D67B8CE9D18}"/>
+    <hyperlink ref="E634" r:id="rId306" xr:uid="{93A3C372-F5AF-994C-8AE8-7DC0A34CAEFD}"/>
+    <hyperlink ref="E103" r:id="rId307" xr:uid="{2F3C2302-1B5A-D044-BFD5-DFC461148919}"/>
+    <hyperlink ref="E120" r:id="rId308" xr:uid="{474B82AD-6069-D64E-A9CB-B4C46D06EB70}"/>
+    <hyperlink ref="E231" r:id="rId309" xr:uid="{E81FE743-2924-E44A-82DA-1D74CFD0E54D}"/>
+    <hyperlink ref="E248" r:id="rId310" xr:uid="{BDD23A32-1B02-6745-A861-C0B953515E08}"/>
+    <hyperlink ref="E359" r:id="rId311" xr:uid="{28E06FC1-44A0-4E46-8864-66BC1FE88CE2}"/>
+    <hyperlink ref="E376" r:id="rId312" xr:uid="{24144449-E87D-EB47-95A5-A664337B2A5A}"/>
+    <hyperlink ref="E487" r:id="rId313" xr:uid="{DFDCE9D0-2016-6F41-82AA-45DE67D7AF3B}"/>
+    <hyperlink ref="E504" r:id="rId314" xr:uid="{45BB9423-993F-3E44-A0F3-FF84E7389CC0}"/>
+    <hyperlink ref="E615" r:id="rId315" xr:uid="{DF1BCCA6-1699-DB47-9D8E-26B66985E1D2}"/>
+    <hyperlink ref="E632" r:id="rId316" xr:uid="{720EAB3E-7F60-694F-AB76-D08A93CF7A82}"/>
+    <hyperlink ref="E104" r:id="rId317" xr:uid="{C9B3036E-9584-5740-B494-88C62E944E19}"/>
+    <hyperlink ref="E121" r:id="rId318" xr:uid="{D8F3C289-4118-8A4E-92A3-11047900E7EB}"/>
+    <hyperlink ref="E232" r:id="rId319" xr:uid="{FD7B9C1A-4BF9-5143-ADFF-5C5E13F57733}"/>
+    <hyperlink ref="E249" r:id="rId320" xr:uid="{F56C883F-B902-B744-9376-2A1A9698B3BE}"/>
+    <hyperlink ref="E360" r:id="rId321" xr:uid="{79EBF08B-5E92-594B-83D9-E741E46F0D23}"/>
+    <hyperlink ref="E377" r:id="rId322" xr:uid="{3DE0C158-015D-6E4F-875E-E9F5414D39F0}"/>
+    <hyperlink ref="E488" r:id="rId323" xr:uid="{8EFDE01F-5998-4446-B818-D2662BDC6102}"/>
+    <hyperlink ref="E505" r:id="rId324" xr:uid="{C18105E2-652B-C34A-B0A3-5EEF97475001}"/>
+    <hyperlink ref="E616" r:id="rId325" xr:uid="{AAD3F4ED-5EAB-3C4E-8CF5-369C6F537404}"/>
+    <hyperlink ref="E633" r:id="rId326" xr:uid="{545821D5-CA0F-514A-BCCC-1BD7DF024C52}"/>
+    <hyperlink ref="E111" r:id="rId327" xr:uid="{EA378D49-4B71-D84E-B431-E411AEA2051A}"/>
+    <hyperlink ref="E128" r:id="rId328" xr:uid="{756A5026-EE21-0F49-94C6-7B70615C8D87}"/>
+    <hyperlink ref="E239" r:id="rId329" xr:uid="{AD22BD7F-81C7-C64B-AB28-F572A62E02F6}"/>
+    <hyperlink ref="E256" r:id="rId330" xr:uid="{F6A91DB9-82FC-C347-B5FB-D2499A7D526B}"/>
+    <hyperlink ref="E367" r:id="rId331" xr:uid="{D8BAED0F-5EC0-FA47-9D03-DB0FBAE447FC}"/>
+    <hyperlink ref="E384" r:id="rId332" xr:uid="{C10EBAFD-D895-8D43-8043-E1A1AEDDFAC6}"/>
+    <hyperlink ref="E495" r:id="rId333" xr:uid="{430C5CD1-4387-1D49-B9E6-4DC8CA1602A7}"/>
+    <hyperlink ref="E512" r:id="rId334" xr:uid="{6CFA20B6-7842-E246-9744-27499D080DD9}"/>
+    <hyperlink ref="E623" r:id="rId335" xr:uid="{49E8515D-BE84-1F41-A17F-FEDC89934EBA}"/>
+    <hyperlink ref="E640" r:id="rId336" xr:uid="{6563D03B-6279-D74B-B18E-ED9AD4ADFC9E}"/>
+    <hyperlink ref="E110" r:id="rId337" xr:uid="{9F27A8FB-355C-4647-9B61-B8DF294DC836}"/>
+    <hyperlink ref="E127" r:id="rId338" xr:uid="{8C847FDB-78C8-D944-A5C3-4B664E2FE0A8}"/>
+    <hyperlink ref="E238" r:id="rId339" xr:uid="{A7A422AA-ED5E-594E-A268-F4BAD8E9604B}"/>
+    <hyperlink ref="E255" r:id="rId340" xr:uid="{4ED5061C-F371-DA49-BDC4-BF6BEA561BDA}"/>
+    <hyperlink ref="E366" r:id="rId341" xr:uid="{F54147D5-CBD5-4E4E-A77D-90459802A2E8}"/>
+    <hyperlink ref="E383" r:id="rId342" xr:uid="{775C5A5D-3395-B940-A11E-409E216B5DEC}"/>
+    <hyperlink ref="E494" r:id="rId343" xr:uid="{13190FF4-B7FE-974B-AF27-677D0BE6F02A}"/>
+    <hyperlink ref="E511" r:id="rId344" xr:uid="{704AA257-E1A9-BE4C-BEBC-6599DAC85623}"/>
+    <hyperlink ref="E622" r:id="rId345" xr:uid="{213C0E59-CB5B-404B-8016-3EFC21017D8A}"/>
+    <hyperlink ref="E639" r:id="rId346" xr:uid="{90FB22B2-E5F8-5A4F-98FA-1E3213FDD937}"/>
+    <hyperlink ref="E107" r:id="rId347" xr:uid="{EE8AEC8F-6A35-824E-AA84-C1FBA614A186}"/>
+    <hyperlink ref="E125" r:id="rId348" xr:uid="{96B5FD0D-55C4-844A-AC5A-3B04579892B3}"/>
+    <hyperlink ref="E235" r:id="rId349" xr:uid="{96F241DD-9558-DE4F-BC94-19BF883A583A}"/>
+    <hyperlink ref="E253" r:id="rId350" xr:uid="{C9070B25-9D80-B344-9538-0B5A8C26C980}"/>
+    <hyperlink ref="E363" r:id="rId351" xr:uid="{703735E4-F6A9-1441-8F05-79294C55A510}"/>
+    <hyperlink ref="E381" r:id="rId352" xr:uid="{293714FC-8BE6-AB44-AE6F-7193AC0E8CA0}"/>
+    <hyperlink ref="E491" r:id="rId353" xr:uid="{EE9E2BDB-F27A-2F4D-8275-9C636DEEF2C5}"/>
+    <hyperlink ref="E509" r:id="rId354" xr:uid="{71EF6FD1-3932-8E40-8926-A9D7F0240317}"/>
+    <hyperlink ref="E619" r:id="rId355" xr:uid="{4A15CA85-0B2B-A344-B017-2B8A5148423C}"/>
+    <hyperlink ref="E637" r:id="rId356" xr:uid="{DC5738B0-D563-9343-9265-1B4207CD5FB9}"/>
+    <hyperlink ref="E108" r:id="rId357" xr:uid="{4CE37862-CDFA-4741-87C9-5B2BB63BA5D0}"/>
+    <hyperlink ref="E124" r:id="rId358" xr:uid="{26F54FDA-1704-1C41-925F-D49CA72D2E90}"/>
+    <hyperlink ref="E236" r:id="rId359" xr:uid="{5D5C34AF-3186-6F4A-ADAF-CCB812103731}"/>
+    <hyperlink ref="E252" r:id="rId360" xr:uid="{6D7C98EC-D379-BE41-A9CC-A9BF3ADEFE6E}"/>
+    <hyperlink ref="E364" r:id="rId361" xr:uid="{132CD748-C94F-0C40-8CDD-62D5262038B5}"/>
+    <hyperlink ref="E380" r:id="rId362" xr:uid="{48666F12-AB5D-6F4B-8CF3-EDD10AF9AE90}"/>
+    <hyperlink ref="E492" r:id="rId363" xr:uid="{3C4A94D2-19EA-4E4B-B7A5-25BD6E2AC842}"/>
+    <hyperlink ref="E508" r:id="rId364" xr:uid="{456FCA6E-E816-0B40-8F6E-77B82D8FBABF}"/>
+    <hyperlink ref="E620" r:id="rId365" xr:uid="{58E827A7-5004-A54B-8292-CF952E468F5E}"/>
+    <hyperlink ref="E636" r:id="rId366" xr:uid="{B0E42FC5-B71E-BC46-9543-0CA8E044BB90}"/>
+    <hyperlink ref="E109" r:id="rId367" xr:uid="{A9DF63E8-B25D-D74B-9A6C-09831F587747}"/>
+    <hyperlink ref="E126" r:id="rId368" xr:uid="{B2642FAE-D778-944F-8F80-65DC157FDFD3}"/>
+    <hyperlink ref="E237" r:id="rId369" xr:uid="{5E13F32C-11DF-BE4A-9CB5-7F263F1AD741}"/>
+    <hyperlink ref="E254" r:id="rId370" xr:uid="{2864B8CD-C94B-2F47-A5D9-01D091D4F134}"/>
+    <hyperlink ref="E365" r:id="rId371" xr:uid="{22B8F6EE-6C4A-814C-9079-BD3AE23DA31A}"/>
+    <hyperlink ref="E382" r:id="rId372" xr:uid="{234E1874-7D64-3F40-B943-42C6A71A71DC}"/>
+    <hyperlink ref="E493" r:id="rId373" xr:uid="{B7C8761F-E805-9843-AC4D-B73A8208AA45}"/>
+    <hyperlink ref="E510" r:id="rId374" xr:uid="{5366038E-D8EC-C040-8181-9501C1F5899F}"/>
+    <hyperlink ref="E621" r:id="rId375" xr:uid="{2F353FD8-754E-6643-A5E6-C912128D40D2}"/>
+    <hyperlink ref="E638" r:id="rId376" xr:uid="{D2C77416-7148-D34D-9CBB-492B24601D71}"/>
+    <hyperlink ref="E63" r:id="rId377" xr:uid="{E8BC7691-71C9-2A4F-8A6C-60711EB5969D}"/>
+    <hyperlink ref="E191" r:id="rId378" xr:uid="{86184692-C4AE-3043-B901-E37756F6390B}"/>
+    <hyperlink ref="E319" r:id="rId379" xr:uid="{59C31FE4-CA10-1440-8835-87CAE0A36BE4}"/>
+    <hyperlink ref="E447" r:id="rId380" xr:uid="{00D61E4C-8C32-C241-9B96-6B06E775656B}"/>
+    <hyperlink ref="E575" r:id="rId381" xr:uid="{BD87922B-5BA8-434D-B240-13C4100BCEFC}"/>
+    <hyperlink ref="E67" r:id="rId382" xr:uid="{AFC73C51-B4A9-5B4A-8149-F7F88836EFF2}"/>
+    <hyperlink ref="E195" r:id="rId383" xr:uid="{83F6C1C8-CF1E-B24B-9F6E-791F2B3DB39B}"/>
+    <hyperlink ref="E323" r:id="rId384" xr:uid="{A06055EA-6B24-7B4D-AC1A-0F42D48E32B4}"/>
+    <hyperlink ref="E451" r:id="rId385" xr:uid="{243F69D3-83E7-494E-BA9D-1B7271C75EEB}"/>
+    <hyperlink ref="E579" r:id="rId386" xr:uid="{3EEFA3A2-75DC-4B4B-AFF7-23A6FE66ECA1}"/>
+    <hyperlink ref="E66" r:id="rId387" xr:uid="{0C2E504E-9A14-0849-AAB9-53D077F8339A}"/>
+    <hyperlink ref="E194" r:id="rId388" xr:uid="{25567AF6-88B1-B54A-90F0-7BCE9521567F}"/>
+    <hyperlink ref="E322" r:id="rId389" xr:uid="{A11AA388-784C-3D41-BDA8-36DF88F532C9}"/>
+    <hyperlink ref="E450" r:id="rId390" xr:uid="{09354B36-EDAC-BB4D-AB8A-4AE934C70A5B}"/>
+    <hyperlink ref="E578" r:id="rId391" xr:uid="{068A4CC0-9D32-DF4E-AA65-453718B82FE1}"/>
+    <hyperlink ref="E129" r:id="rId392" xr:uid="{1D9B23F4-07E4-7F4D-B51F-C93DD4D4A820}"/>
+    <hyperlink ref="E257" r:id="rId393" xr:uid="{FE308518-1CF3-AE41-8D10-DD157828059F}"/>
+    <hyperlink ref="E385" r:id="rId394" xr:uid="{9E2998BA-FE87-9E49-91A7-7D40DC0423CE}"/>
+    <hyperlink ref="E513" r:id="rId395" xr:uid="{F9783FAC-BF54-F049-9E00-BD7B36E74D1E}"/>
+    <hyperlink ref="E641" r:id="rId396" xr:uid="{2465A5F0-BAD7-904F-BB81-F05EBC194E2C}"/>
+    <hyperlink ref="E77" r:id="rId397" xr:uid="{4DC99B8E-705F-7640-9CCC-BE072135E84A}"/>
+    <hyperlink ref="E205" r:id="rId398" xr:uid="{1A96AA1D-28D5-5F4D-B60F-816F5E1EE94B}"/>
+    <hyperlink ref="E333" r:id="rId399" xr:uid="{9EA22E59-92C3-4B44-A59A-3CA10CCCB0E6}"/>
+    <hyperlink ref="E461" r:id="rId400" xr:uid="{D56F4819-D20B-6040-BB96-8F17A34BBA7A}"/>
+    <hyperlink ref="E589" r:id="rId401" xr:uid="{FE7156E5-43AE-B34F-BC90-5BAAA25EE323}"/>
+    <hyperlink ref="E76" r:id="rId402" xr:uid="{9AE20D52-7A0E-2841-BE2E-13DD5432A2D9}"/>
+    <hyperlink ref="E204" r:id="rId403" xr:uid="{4889EB23-1925-0842-81A5-36E35100068F}"/>
+    <hyperlink ref="E332" r:id="rId404" xr:uid="{C7B291A3-7D91-1549-9176-ED8470834E5E}"/>
+    <hyperlink ref="E460" r:id="rId405" xr:uid="{EF1268C7-DE3A-8640-9040-B30DA4C05C57}"/>
+    <hyperlink ref="E588" r:id="rId406" xr:uid="{0ACF8860-B72A-6B4C-8441-153E67BA34C2}"/>
+    <hyperlink ref="E202" r:id="rId407" xr:uid="{12216533-7E23-284B-8D6A-81B1FFDD8EF9}"/>
+    <hyperlink ref="E330" r:id="rId408" xr:uid="{DBA8220E-C782-5747-A9C4-45AF895B4151}"/>
+    <hyperlink ref="E458" r:id="rId409" xr:uid="{157ED40F-BFF2-1040-9BF1-16B9B756ED9C}"/>
+    <hyperlink ref="E586" r:id="rId410" xr:uid="{99CDEF41-2518-3241-ABC0-1C5E60A7290D}"/>
+    <hyperlink ref="E74" r:id="rId411" xr:uid="{5D1B743B-7ADF-7948-B573-D4BFFBDF6DB1}"/>
+    <hyperlink ref="E75" r:id="rId412" xr:uid="{5552FD91-5380-9346-BB9D-8D6F952BA8A3}"/>
+    <hyperlink ref="E203" r:id="rId413" xr:uid="{3DEA1BF5-E18C-5242-A014-D9ACA68BA489}"/>
+    <hyperlink ref="E331" r:id="rId414" xr:uid="{E6BC2613-9439-6942-976E-69D78BB88F0C}"/>
+    <hyperlink ref="E459" r:id="rId415" xr:uid="{90FED099-64F2-E542-9394-BA610C4ED0ED}"/>
+    <hyperlink ref="E587" r:id="rId416" xr:uid="{F4BB6C3E-4E5B-2A46-AB86-7949C7713DD7}"/>
+    <hyperlink ref="E71" r:id="rId417" xr:uid="{5DAAB078-A1D2-B64E-A57D-AF5FFCCC0862}"/>
+    <hyperlink ref="E199" r:id="rId418" xr:uid="{F8512256-05DD-D544-A601-9C8EDB5E2C3B}"/>
+    <hyperlink ref="E327" r:id="rId419" xr:uid="{DF8FF4D9-4595-1748-A517-9B9743CBA3E8}"/>
+    <hyperlink ref="E455" r:id="rId420" xr:uid="{7AB18F22-D4B6-F140-B697-0448CB438CA2}"/>
+    <hyperlink ref="E583" r:id="rId421" xr:uid="{A3B45AB1-5499-5343-84B7-49E722486E3C}"/>
+    <hyperlink ref="E72" r:id="rId422" xr:uid="{2FDFF352-6C8D-0E43-BC3A-B2B519876BBD}"/>
+    <hyperlink ref="E200" r:id="rId423" xr:uid="{B19D0977-E7B5-0F42-BD64-8B0FB6EACE07}"/>
+    <hyperlink ref="E328" r:id="rId424" xr:uid="{8EBFD20C-E1F1-1D46-84CE-0A7257F3EA45}"/>
+    <hyperlink ref="E456" r:id="rId425" xr:uid="{4C481184-741A-C241-82A8-3E6DEDA39F09}"/>
+    <hyperlink ref="E584" r:id="rId426" xr:uid="{09E91045-7E09-774B-90F5-AF722A2C81DE}"/>
+    <hyperlink ref="E73" r:id="rId427" xr:uid="{5F1625CC-6BE9-6843-9D7C-0C18CD99C6BB}"/>
+    <hyperlink ref="E201" r:id="rId428" xr:uid="{4E82F2C7-689B-9F48-89BD-1DF31AD92B8C}"/>
+    <hyperlink ref="E329" r:id="rId429" xr:uid="{ED1BA273-DB61-3D4E-80A3-E7FE56336932}"/>
+    <hyperlink ref="E457" r:id="rId430" xr:uid="{74381BAB-BE8C-8040-A8C2-49D9D24CD1C6}"/>
+    <hyperlink ref="E585" r:id="rId431" xr:uid="{EB8CAFDA-3967-274B-9F0C-A382A344A93B}"/>
+    <hyperlink ref="E86" r:id="rId432" xr:uid="{6781EE61-891B-8C4C-84DE-D12A6F73BC99}"/>
+    <hyperlink ref="E214" r:id="rId433" xr:uid="{49B8160E-91EA-754E-863F-739209887A99}"/>
+    <hyperlink ref="E342" r:id="rId434" xr:uid="{CB2C1DD2-7FA4-714B-A80C-408BDE71B6D9}"/>
+    <hyperlink ref="E470" r:id="rId435" xr:uid="{A044C6D1-F95F-D042-835A-68414A03CE8C}"/>
+    <hyperlink ref="E598" r:id="rId436" xr:uid="{9D565CEE-E9CB-A440-8786-B6F103DF665E}"/>
+    <hyperlink ref="E87" r:id="rId437" xr:uid="{6D7171F5-BCC4-CF4A-B54E-2069F1876992}"/>
+    <hyperlink ref="E215" r:id="rId438" xr:uid="{CD652C72-8362-FE49-A552-2A6C82B39570}"/>
+    <hyperlink ref="E343" r:id="rId439" xr:uid="{20353C2F-0089-E142-9B80-2F938EA16077}"/>
+    <hyperlink ref="E471" r:id="rId440" xr:uid="{04080994-728C-3B4C-9ACF-B567EC2B7AA5}"/>
+    <hyperlink ref="E599" r:id="rId441" xr:uid="{B1EA46FA-4C3A-1E43-9240-CA40EEA12C7F}"/>
+    <hyperlink ref="E81" r:id="rId442" xr:uid="{EE54C213-862E-E94E-B93A-EC9B06D98F20}"/>
+    <hyperlink ref="E209" r:id="rId443" xr:uid="{97CEEF64-51FF-0945-8932-683A02943D14}"/>
+    <hyperlink ref="E337" r:id="rId444" xr:uid="{19EEED22-5EF5-3242-9CBF-B8F0F19B21D6}"/>
+    <hyperlink ref="E465" r:id="rId445" xr:uid="{728A9D29-990F-1D40-8CE0-8BBD296C8E02}"/>
+    <hyperlink ref="E593" r:id="rId446" xr:uid="{A93145AA-D807-7F4A-B2D6-37BC37C37912}"/>
+    <hyperlink ref="E80" r:id="rId447" xr:uid="{B69C00ED-D856-F14B-A939-2405484E8697}"/>
+    <hyperlink ref="E208" r:id="rId448" xr:uid="{CC904AB3-E5B7-BD46-83E0-395482DF35E4}"/>
+    <hyperlink ref="E336" r:id="rId449" xr:uid="{CB5DE2C4-5A79-154A-BA26-339262D77CC8}"/>
+    <hyperlink ref="E464" r:id="rId450" xr:uid="{7AFEBC36-AAC2-B64A-8A0B-72B34B60EA14}"/>
+    <hyperlink ref="E592" r:id="rId451" xr:uid="{B983FDC0-484D-6D4D-85E4-08744538A495}"/>
+    <hyperlink ref="E85" r:id="rId452" xr:uid="{131C8FA9-E3DC-3549-94B4-531A85BC1138}"/>
+    <hyperlink ref="E213" r:id="rId453" xr:uid="{2E8B5D60-37E3-2647-8938-C18898A9EF70}"/>
+    <hyperlink ref="E341" r:id="rId454" xr:uid="{9B4A3138-63FA-4943-A967-BD82C8F6C164}"/>
+    <hyperlink ref="E469" r:id="rId455" xr:uid="{F67C59DD-AFB3-D74D-851C-D9F0EFA545C1}"/>
+    <hyperlink ref="E597" r:id="rId456" xr:uid="{C83F856F-558A-D648-B2F2-69EFDB14F664}"/>
+    <hyperlink ref="E88" r:id="rId457" xr:uid="{7D4B85B0-4ECD-7048-96ED-0A2CA4DB62A0}"/>
+    <hyperlink ref="E216" r:id="rId458" xr:uid="{7A3A6D55-0855-4845-BC65-D2B2E59AD77A}"/>
+    <hyperlink ref="E344" r:id="rId459" xr:uid="{C00B2355-0FE5-D44B-AAEF-630000744C40}"/>
+    <hyperlink ref="E472" r:id="rId460" xr:uid="{67FFB2D5-4C2E-CE43-A56E-D374B8962D09}"/>
+    <hyperlink ref="E600" r:id="rId461" xr:uid="{49BD68BD-ECA3-2B4D-BC88-D89992E68B90}"/>
+    <hyperlink ref="E91" r:id="rId462" xr:uid="{C80ECF62-EEB0-9947-B4DD-AB0EEE27CBB7}"/>
+    <hyperlink ref="E219" r:id="rId463" xr:uid="{E762BF89-8185-BE4A-8C88-7734E5CBA933}"/>
+    <hyperlink ref="E347" r:id="rId464" xr:uid="{F8D2FE32-4AB0-8449-ADB8-DCDF2AE46AEE}"/>
+    <hyperlink ref="E475" r:id="rId465" xr:uid="{EBA48D6A-1380-864D-B238-EDBF615B0BFB}"/>
+    <hyperlink ref="E603" r:id="rId466" xr:uid="{E9209A08-4CB7-4448-808D-C31C74AA2F28}"/>
+    <hyperlink ref="E92" r:id="rId467" xr:uid="{26E50E27-9E9C-DD41-B663-78C81C1FB996}"/>
+    <hyperlink ref="E220" r:id="rId468" xr:uid="{9932E94A-ED1C-DD4D-ABF6-F1D385CDA3B5}"/>
+    <hyperlink ref="E348" r:id="rId469" xr:uid="{4B3046B1-95B9-9743-89B7-D3A68264005D}"/>
+    <hyperlink ref="E476" r:id="rId470" xr:uid="{A06DF429-68A0-664B-B491-C07BBD9AA488}"/>
+    <hyperlink ref="E604" r:id="rId471" xr:uid="{FE738038-E1F4-6C4C-9F68-61BCBD51264F}"/>
+    <hyperlink ref="E82" r:id="rId472" xr:uid="{0A9272F6-5068-3548-A380-593114B36949}"/>
+    <hyperlink ref="E210" r:id="rId473" xr:uid="{B547183F-8E54-9D49-A1D0-EF0E3DC997CB}"/>
+    <hyperlink ref="E338" r:id="rId474" xr:uid="{EB4D994F-C4D3-8B4C-9A1E-547CFC3FAD46}"/>
+    <hyperlink ref="E466" r:id="rId475" xr:uid="{B1AC08BA-B2B7-8B4F-8AE0-1F6085B0A4F3}"/>
+    <hyperlink ref="E594" r:id="rId476" xr:uid="{0DB3EEA8-2F78-8941-BAA2-DC4F0AC84031}"/>
+    <hyperlink ref="E68" r:id="rId477" xr:uid="{DAFBE700-911B-8246-875C-494A717C9C75}"/>
+    <hyperlink ref="E196" r:id="rId478" xr:uid="{43FE6F15-8E76-6149-8825-936C017FAD93}"/>
+    <hyperlink ref="E324" r:id="rId479" xr:uid="{CD16FD8F-B677-E64B-A1AE-25CD44639591}"/>
+    <hyperlink ref="E452" r:id="rId480" xr:uid="{CD2D38C4-C266-7846-B41E-8CA3FA93A0D0}"/>
+    <hyperlink ref="E580" r:id="rId481" xr:uid="{0931778E-BF43-6640-ABD7-65F57C886DAE}"/>
+    <hyperlink ref="E95" r:id="rId482" xr:uid="{E3A2F1CE-25BC-424A-9F39-9AD600B83719}"/>
+    <hyperlink ref="E223" r:id="rId483" xr:uid="{C9A9A93B-1E46-BA42-A6A8-3613BE6318CB}"/>
+    <hyperlink ref="E351" r:id="rId484" xr:uid="{36B028FF-F1B4-7348-819C-AE536BE21695}"/>
+    <hyperlink ref="E479" r:id="rId485" xr:uid="{B1BF2A58-5B56-5B4C-BFBF-6D96718F0462}"/>
+    <hyperlink ref="E607" r:id="rId486" xr:uid="{2122252D-788B-2543-A59B-A552D9EF0F00}"/>
+    <hyperlink ref="E90" r:id="rId487" xr:uid="{F5B77B08-2D5E-DB4A-8DF6-50E64929DC78}"/>
+    <hyperlink ref="E218" r:id="rId488" xr:uid="{FB84A0B8-88BA-B044-9D6A-F9DFD25C142C}"/>
+    <hyperlink ref="E346" r:id="rId489" xr:uid="{B07E38F3-7796-C74B-9442-CE8FADCCB9C7}"/>
+    <hyperlink ref="E474" r:id="rId490" xr:uid="{76BD484A-726D-6344-A79B-1F42C52F9CFA}"/>
+    <hyperlink ref="E602" r:id="rId491" xr:uid="{08E2CE59-B4DC-CC42-9CD5-14A7B2CA39FB}"/>
+    <hyperlink ref="E84" r:id="rId492" xr:uid="{F91DED98-C111-3A46-B196-5130C83D8312}"/>
+    <hyperlink ref="E212" r:id="rId493" xr:uid="{1DCECB2F-6034-FA46-8E85-38323D24979D}"/>
+    <hyperlink ref="E340" r:id="rId494" xr:uid="{8F01B646-4093-6A45-B541-430784C125C9}"/>
+    <hyperlink ref="E468" r:id="rId495" xr:uid="{E51FA7AA-C8F5-3E47-BCD6-E43F252E51CC}"/>
+    <hyperlink ref="E596" r:id="rId496" xr:uid="{CD34F8AE-31D2-A64A-A2CF-D9D26D3007D8}"/>
+    <hyperlink ref="E83" r:id="rId497" xr:uid="{B3E2FFFA-B76F-244C-9CD0-D3E746BA8236}"/>
+    <hyperlink ref="E211" r:id="rId498" xr:uid="{439C7FDB-B936-B143-ABB4-E8E60C6C7250}"/>
+    <hyperlink ref="E339" r:id="rId499" xr:uid="{2742E471-07A5-B64A-9F66-F620F76AD31B}"/>
+    <hyperlink ref="E467" r:id="rId500" xr:uid="{CC71430C-B064-1748-A939-FFD2557207D6}"/>
+    <hyperlink ref="E595" r:id="rId501" xr:uid="{92B88995-4CED-0746-B94D-8B26DBB0E987}"/>
+    <hyperlink ref="E96" r:id="rId502" xr:uid="{271C361E-C043-4743-ABF6-6D8B9D4CF180}"/>
+    <hyperlink ref="E224" r:id="rId503" xr:uid="{2587AB59-8753-354C-A2B1-AAC7C4947CFB}"/>
+    <hyperlink ref="E352" r:id="rId504" xr:uid="{D4288C64-0555-8244-85AD-97700AD5F1AC}"/>
+    <hyperlink ref="E480" r:id="rId505" xr:uid="{ACFAC181-0475-C541-8C8E-C25096BF6D12}"/>
+    <hyperlink ref="E608" r:id="rId506" xr:uid="{E81BB935-A2B8-2747-B7DE-EEBE3417A99C}"/>
+    <hyperlink ref="E94" r:id="rId507" xr:uid="{BB5598C6-0A76-CF4C-B41A-4F3056328749}"/>
+    <hyperlink ref="E222" r:id="rId508" xr:uid="{DA947716-9FB8-E74E-8B6C-F977BAD3CF71}"/>
+    <hyperlink ref="E350" r:id="rId509" xr:uid="{32DB50A0-A24F-C141-AB54-ACEF691914AE}"/>
+    <hyperlink ref="E478" r:id="rId510" xr:uid="{9EDBF3ED-2843-B547-9ED5-E9983E9B81E8}"/>
+    <hyperlink ref="E606" r:id="rId511" xr:uid="{A4399020-CF2F-2C4B-A6C8-05751FB06696}"/>
+    <hyperlink ref="E93" r:id="rId512" xr:uid="{0A51E8F2-D455-E946-AA61-C9DCB1097DF5}"/>
+    <hyperlink ref="E221" r:id="rId513" xr:uid="{2B5979B5-8793-A242-9429-0E0FE727CA0A}"/>
+    <hyperlink ref="E349" r:id="rId514" xr:uid="{9D04F02E-5B54-9341-8C35-36B85D0B45C2}"/>
+    <hyperlink ref="E477" r:id="rId515" xr:uid="{82464515-7513-BA4E-94C2-F6F301021C9A}"/>
+    <hyperlink ref="E605" r:id="rId516" xr:uid="{D59F4571-A5DE-C94B-BBEA-3C6B175DA9D5}"/>
+    <hyperlink ref="E99" r:id="rId517" xr:uid="{A5601176-AC14-144F-909C-E9EFA3D12439}"/>
+    <hyperlink ref="E116" r:id="rId518" xr:uid="{FBB9F8DD-6F78-5942-84DE-B0762CCCFBED}"/>
+    <hyperlink ref="E227" r:id="rId519" xr:uid="{B7441BF8-B1B8-5743-B717-75DA0DF31CFA}"/>
+    <hyperlink ref="E244" r:id="rId520" xr:uid="{93B611AC-7312-244C-86EE-ED1A463E9C7A}"/>
+    <hyperlink ref="E355" r:id="rId521" xr:uid="{EA85251C-2628-6A49-B22B-F093146562C8}"/>
+    <hyperlink ref="E372" r:id="rId522" xr:uid="{8F1190EC-DB3B-394F-A15F-65A47DB1BE77}"/>
+    <hyperlink ref="E483" r:id="rId523" xr:uid="{A0F2622F-83DF-604A-822E-FF194B5449A7}"/>
+    <hyperlink ref="E500" r:id="rId524" xr:uid="{77380283-7A02-2C45-ADBC-8D860645E0B9}"/>
+    <hyperlink ref="E611" r:id="rId525" xr:uid="{76C8078F-D292-7444-B85C-CBC0A3098CF3}"/>
+    <hyperlink ref="E628" r:id="rId526" xr:uid="{E75A3325-9482-2542-920F-4271906512C5}"/>
+    <hyperlink ref="E98" r:id="rId527" xr:uid="{B241979C-50A1-014A-AD4C-51C02AE648C1}"/>
+    <hyperlink ref="E115" r:id="rId528" xr:uid="{8277B310-B73B-0C48-94D9-8322F1696185}"/>
+    <hyperlink ref="E226" r:id="rId529" xr:uid="{E1B16BAD-C5BA-BA4C-A255-CEE33B45A211}"/>
+    <hyperlink ref="E243" r:id="rId530" xr:uid="{64AA7759-805B-0F4E-B66B-ACB3E1EB7727}"/>
+    <hyperlink ref="E354" r:id="rId531" xr:uid="{4218D5AA-B0F8-0C42-92D0-732673DE8DB1}"/>
+    <hyperlink ref="E371" r:id="rId532" xr:uid="{94EE739B-74AC-CD42-AECD-B26B6AEB41D8}"/>
+    <hyperlink ref="E482" r:id="rId533" xr:uid="{4B9E3BF1-E99A-C241-9643-92DB570D69AE}"/>
+    <hyperlink ref="E499" r:id="rId534" xr:uid="{D526CEFC-D244-144A-A33D-6F02CCCD8A76}"/>
+    <hyperlink ref="E610" r:id="rId535" xr:uid="{798252CB-1105-FF49-8078-9A68CB665280}"/>
+    <hyperlink ref="E627" r:id="rId536" xr:uid="{A3670D25-D41D-FF41-AFD9-3CCEEAD7223C}"/>
+    <hyperlink ref="E97" r:id="rId537" xr:uid="{AE4C192E-30F7-C54D-9735-85923B20FD59}"/>
+    <hyperlink ref="E114" r:id="rId538" xr:uid="{91A6538B-C74B-3741-B33B-1C62C0154182}"/>
+    <hyperlink ref="E225" r:id="rId539" xr:uid="{DE0D7053-238D-AE47-91CA-CC89A801460B}"/>
+    <hyperlink ref="E242" r:id="rId540" xr:uid="{619D82B9-8DB1-EB4C-88B6-68328BA2270A}"/>
+    <hyperlink ref="E353" r:id="rId541" xr:uid="{71DA79FD-D5E3-6A49-9C9F-A1714B98757D}"/>
+    <hyperlink ref="E370" r:id="rId542" xr:uid="{EF6D3A4C-3DAA-9948-86CB-6A63A4034588}"/>
+    <hyperlink ref="E481" r:id="rId543" xr:uid="{118EE98E-761C-A844-B298-B1DC0EDB11D9}"/>
+    <hyperlink ref="E498" r:id="rId544" xr:uid="{B12F364C-6428-364A-B1BD-C484E04A92C3}"/>
+    <hyperlink ref="E609" r:id="rId545" xr:uid="{F518C769-62D1-3B43-8227-6CEEFB93D19A}"/>
+    <hyperlink ref="E626" r:id="rId546" xr:uid="{3507B603-0DB2-AC48-8A50-3683E6A1D9F3}"/>
+    <hyperlink ref="E79" r:id="rId547" xr:uid="{F5449C91-2717-C544-97E3-D7F71C89887B}"/>
+    <hyperlink ref="E78" r:id="rId548" xr:uid="{392EAE5F-2DFF-A746-B896-8D6E28F607CA}"/>
+    <hyperlink ref="E207" r:id="rId549" xr:uid="{4806F278-E503-C94C-8537-11C30042CBFA}"/>
+    <hyperlink ref="E206" r:id="rId550" xr:uid="{E65FAC30-0C2B-3545-9301-EBC95FEA0D4B}"/>
+    <hyperlink ref="E335" r:id="rId551" xr:uid="{E8FB4A3C-B70B-894B-A03A-07377D7AC881}"/>
+    <hyperlink ref="E334" r:id="rId552" xr:uid="{8A280D25-AC0D-854C-9F34-654E68B6BCFE}"/>
+    <hyperlink ref="E463" r:id="rId553" xr:uid="{E2555318-4C13-C946-AC95-F3E73341536E}"/>
+    <hyperlink ref="E462" r:id="rId554" xr:uid="{3588E350-15CA-BA4C-8151-7E4FEAA22339}"/>
+    <hyperlink ref="E591" r:id="rId555" xr:uid="{F145BFEE-01CE-474E-9AA3-8BF46057BA9C}"/>
+    <hyperlink ref="E590" r:id="rId556" xr:uid="{355CC7FE-DB0C-6549-954C-45EB5EA18D1C}"/>
+    <hyperlink ref="E89" r:id="rId557" xr:uid="{D2B9EA5F-C938-7F44-86C4-6359E402866F}"/>
+    <hyperlink ref="E217" r:id="rId558" xr:uid="{18AD5A75-F11D-7542-B08B-00E30A6B84A6}"/>
+    <hyperlink ref="E345" r:id="rId559" xr:uid="{69291EB5-C6A8-EB45-976A-9C47F049C9BA}"/>
+    <hyperlink ref="E473" r:id="rId560" xr:uid="{025C989B-1157-1A40-B793-B6D6FF096D40}"/>
+    <hyperlink ref="E601" r:id="rId561" xr:uid="{999EB5BE-B30B-0841-9B73-7511BC7F3BF1}"/>
+    <hyperlink ref="E612" r:id="rId562" xr:uid="{6511F92C-F582-4F46-920B-0A0E57765D87}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/mcdonalds_prices_new.xlsx
+++ b/data/mcdonalds_prices_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Github/would_you_like_some_fries_with_that/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C85D56-3E92-164E-A510-F9C65DDDA535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC0FC97-F89C-214C-87C8-3E73B44E91BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,11 +890,12 @@
   <dimension ref="A1:E641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/mcdonalds_prices_new.xlsx
+++ b/data/mcdonalds_prices_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Github/would_you_like_some_fries_with_that/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC0FC97-F89C-214C-87C8-3E73B44E91BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D9779E-51E0-AA4B-9216-1E38D05E8022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="A1:E641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/data/mcdonalds_prices_new.xlsx
+++ b/data/mcdonalds_prices_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Github/would_you_like_some_fries_with_that/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D9779E-51E0-AA4B-9216-1E38D05E8022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BD7C44-93D1-4640-B9A6-66D3D74AEA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="12800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -890,7 +890,7 @@
   <dimension ref="A1:E641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D645" sqref="D645"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1181,6 +1181,9 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
+      <c r="D17">
+        <v>6.3</v>
+      </c>
       <c r="E17" s="3" t="s">
         <v>95</v>
       </c>
@@ -1512,6 +1515,9 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
+      <c r="D37">
+        <v>5.3</v>
+      </c>
       <c r="E37" s="3" t="s">
         <v>95</v>
       </c>
@@ -9867,6 +9873,9 @@
       <c r="C529" t="s">
         <v>51</v>
       </c>
+      <c r="D529">
+        <v>7.6</v>
+      </c>
       <c r="E529" s="3" t="s">
         <v>95</v>
       </c>
@@ -10197,6 +10206,9 @@
       </c>
       <c r="C549" t="s">
         <v>51</v>
+      </c>
+      <c r="D549">
+        <v>6.6</v>
       </c>
       <c r="E549" s="3" t="s">
         <v>95</v>

--- a/data/mcdonalds_prices_new.xlsx
+++ b/data/mcdonalds_prices_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Github/would_you_like_some_fries_with_that/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BD7C44-93D1-4640-B9A6-66D3D74AEA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA77331E-2B9A-C543-B3A7-F0D760F93B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="12800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="A1:E641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D645" sqref="D645"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
